--- a/naukri_results.xlsx
+++ b/naukri_results.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-09T21:45:57.123Z</v>
+        <v>2026-01-10T14:12:56.738Z</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>1/20</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-micro-wings-mumbai-all-areas-2-to-7-years-180925000269</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-divergentsoft-lab-indore-3-to-8-years-090126024501</v>
       </c>
       <c r="E2" t="str">
         <v>Yes</v>
@@ -526,48 +526,51 @@
         <v>Java Full Stack Developer</v>
       </c>
       <c r="N2" t="str">
-        <v>Micro Wings</v>
+        <v>DivergentSoft lab</v>
       </c>
       <c r="O2" t="str">
-        <v>2 - 7 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P2" t="str">
-        <v>3-6 Lacs P.A.</v>
+        <v>0 P.A.</v>
       </c>
       <c r="Q2" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Indore( Vijay Nagar )</v>
       </c>
       <c r="R2" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S2" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" t="str">
-        <v>100+</v>
+        <v>37</v>
       </c>
       <c r="U2" t="str">
-        <v>Java, Hibernate, Spring Boot, Java Fullstack, Angular, Debugging Skills, Cross Functional Coordination, Maven, Spring Mvc, SOAP UI, Postgresql, HTML, Oops Programming, JIRA, Microservices, JUnit, JSP Servlets, Postman Tool, Java Development, Restful Web Api Development</v>
+        <v>Full Stack, Spring Boot, Java Fullstack, Angular, React.Js, Node.Js, HTML, SQL, Reacts Js, English, Typescript, MySQL, Javascript, MongoDB</v>
       </c>
       <c r="V2" t="str">
-        <v>Full Stack Developer</v>
+        <v>Technology / IT - Other</v>
       </c>
       <c r="W2" t="str">
-        <v>Software Product</v>
+        <v>IT Services &amp; Consulting</v>
       </c>
       <c r="X2" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y2" t="str">
-        <v>Software Development</v>
+        <v>Technology / IT</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>3.5</v>
       </c>
       <c r="AA2" t="str">
-        <v>Proficient in Java, Spring Boot, Hibernate, Angular, and SQL | Develop and integrate SOAP/REST services, manage transactions, and perform debugging</v>
+        <v>Experience with Java 8/17, Spring Boot, Microservices, and frontend technologies like Angular/React | Develop REST APIs and work in an Agile environment using Git | Provident fund included</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-09T21:46:00.411Z</v>
+        <v>2026-01-10T14:13:00.029Z</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -576,7 +579,7 @@
         <v>2/20</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-opus-pune-2-to-5-years-080126504723</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-micro-wings-mumbai-all-areas-2-to-7-years-180925000269</v>
       </c>
       <c r="E3" t="str">
         <v>Yes</v>
@@ -585,19 +588,19 @@
         <v>Yes</v>
       </c>
       <c r="G3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H3" t="str">
         <v>Yes</v>
       </c>
       <c r="I3" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J3" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K3" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L3" t="str">
         <v>Skipped</v>
@@ -606,34 +609,34 @@
         <v>Java Full Stack Developer</v>
       </c>
       <c r="N3" t="str">
-        <v>Opus Technosoft</v>
+        <v>Micro Wings</v>
       </c>
       <c r="O3" t="str">
-        <v>2 - 5 years</v>
+        <v>2 - 7 years</v>
       </c>
       <c r="P3" t="str">
-        <v>Not Disclosed</v>
+        <v>3-6 Lacs P.A.</v>
       </c>
       <c r="Q3" t="str">
-        <v>Pune</v>
+        <v>Mumbai (All Areas)</v>
       </c>
       <c r="R3" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S3" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T3" t="str">
         <v>100+</v>
       </c>
       <c r="U3" t="str">
-        <v>SAN, Front end, French, GIT, Shaping, MySQL, Javascript, HTML, payment solutions, Monitoring</v>
+        <v>Java, Hibernate, Spring Boot, Java Fullstack, Angular, Debugging Skills, Cross Functional Coordination, Maven, Spring Mvc, SOAP UI, Postgresql, HTML, Oops Programming, JIRA, Microservices, JUnit, JSP Servlets, Postman Tool, Java Development, Restful Web Api Development</v>
       </c>
       <c r="V3" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W3" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Software Product</v>
       </c>
       <c r="X3" t="str">
         <v>Full Time, Permanent</v>
@@ -642,12 +645,12 @@
         <v>Software Development</v>
       </c>
       <c r="AA3" t="str">
-        <v>Required Skills &amp; Experience . Strong proficiency in Java and Angular | Experience with version control systems (Git and BitBucket) | Experience with Postman for API testing and JUnit for unit testing . Hands-on experience with Keycloak (authentication &amp; authorization) and Kibana (log monitoring &amp; analytics) | Experience with AWS cloud services</v>
+        <v>Proficient in Java, Spring Boot, Hibernate, Angular, and SQL | Develop and integrate SOAP/REST services, manage transactions, and perform debugging</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-09T21:46:03.678Z</v>
+        <v>2026-01-10T14:13:03.359Z</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -701,7 +704,7 @@
         <v>1 day ago</v>
       </c>
       <c r="S4" t="str">
-        <v>Less than 10</v>
+        <v>14</v>
       </c>
       <c r="U4" t="str">
         <v>software engineer, github, restful, api gateway, html5, full stack developer, redis, nosql, sql, microservices, docker, angular, spring boot, java, restful apis, git, postgresql, full stack, mysql, typescript, agile, mongodb, css3, architecture</v>
@@ -727,7 +730,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-09T21:46:06.979Z</v>
+        <v>2026-01-10T14:13:06.654Z</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -736,16 +739,16 @@
         <v>4/20</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-grid-dynamics-bengaluru-3-to-5-years-080126501444</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-capital-business-systems-prayagraj-3-to-7-years-090126011977</v>
       </c>
       <c r="E5" t="str">
         <v>Yes</v>
       </c>
       <c r="F5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G5" t="str">
         <v>No</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Yes</v>
       </c>
       <c r="H5" t="str">
         <v>Yes</v>
@@ -757,7 +760,7 @@
         <v>Poor Match</v>
       </c>
       <c r="K5" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L5" t="str">
         <v>Skipped</v>
@@ -766,16 +769,16 @@
         <v>Java Full Stack Developer</v>
       </c>
       <c r="N5" t="str">
-        <v>Grid Dynamics</v>
+        <v>Capital Business Systems</v>
       </c>
       <c r="O5" t="str">
-        <v>3 - 5 years</v>
+        <v>3 - 7 years</v>
       </c>
       <c r="P5" t="str">
-        <v>Not Disclosed</v>
+        <v>5-10 Lacs P.A.</v>
       </c>
       <c r="Q5" t="str">
-        <v>Bengaluru</v>
+        <v>Prayagraj</v>
       </c>
       <c r="R5" t="str">
         <v>1 day ago</v>
@@ -784,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="str">
-        <v>50+</v>
+        <v>100+</v>
       </c>
       <c r="U5" t="str">
-        <v>Backend, Db2, XML, MySQL, Data structures, Data processing, JSON, Oracle, Financial services</v>
+        <v>Java, Angular, Hibernate, Postgresql, MySQL, Spring Boot, J2Ee, Java Fullstack, Spring, Microservices</v>
       </c>
       <c r="V5" t="str">
         <v>Full Stack Developer</v>
@@ -802,15 +805,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z5" t="str">
-        <v>3.0</v>
+        <v>3.6</v>
       </c>
       <c r="AA5" t="str">
-        <v/>
+        <v>Full-stack developer with hands-on experience in Java (J2EE, Spring Boot, Hibernate) and modern front-end frameworks like Angular or React | Develop front-end interfaces, build back-end services, design RESTful APIs, manage databases, and deploy applications using DevOps tools</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-09T21:46:10.282Z</v>
+        <v>2026-01-10T14:13:10.051Z</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -819,7 +822,7 @@
         <v>5/20</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-capital-business-systems-prayagraj-3-to-7-years-090126011977</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126931488</v>
       </c>
       <c r="E6" t="str">
         <v>Yes</v>
@@ -828,49 +831,46 @@
         <v>Yes</v>
       </c>
       <c r="G6" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H6" t="str">
         <v>Yes</v>
       </c>
       <c r="I6" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J6" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K6" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L6" t="str">
         <v>Skipped</v>
       </c>
       <c r="M6" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Custom Software Engineer</v>
       </c>
       <c r="N6" t="str">
-        <v>Capital Business Systems</v>
+        <v>Accenture</v>
       </c>
       <c r="O6" t="str">
-        <v>3 - 7 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P6" t="str">
-        <v>5-10 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q6" t="str">
-        <v>Prayagraj</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R6" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S6" t="str">
-        <v>1</v>
-      </c>
-      <c r="T6" t="str">
-        <v>100+</v>
+        <v>12</v>
       </c>
       <c r="U6" t="str">
-        <v>Java, Angular, Hibernate, Postgresql, MySQL, Spring Boot, J2Ee, Java Fullstack, Spring, Microservices</v>
+        <v>software engineer, front end, css, api development, restful, full stack development, version control, front end technologies, javascript, spring boot, java, git, design, full stack, software solutions, html, agile</v>
       </c>
       <c r="V6" t="str">
         <v>Full Stack Developer</v>
@@ -885,15 +885,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z6" t="str">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA6" t="str">
-        <v>Full-stack developer with hands-on experience in Java (J2EE, Spring Boot, Hibernate) and modern front-end frameworks like Angular or React | Develop front-end interfaces, build back-end services, design RESTful APIs, manage databases, and deploy applications using DevOps tools</v>
+        <v>Minimum 2 years experience in Java Full Stack Development; proficiency in front-end technologies and RESTful API integration | Develop custom software solutions, collaborate with teams, and assist in documentation</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-09T21:46:13.574Z</v>
+        <v>2026-01-10T14:13:13.419Z</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>6/20</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-3i-infotech-mumbai-all-areas-2-to-7-years-080126016500</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930110</v>
       </c>
       <c r="E7" t="str">
         <v>Yes</v>
@@ -911,52 +911,49 @@
         <v>Yes</v>
       </c>
       <c r="G7" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H7" t="str">
         <v>Yes</v>
       </c>
       <c r="I7" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J7" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K7" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L7" t="str">
         <v>Skipped</v>
       </c>
       <c r="M7" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Custom Software Engineer</v>
       </c>
       <c r="N7" t="str">
-        <v>3i Infotech</v>
+        <v>Accenture</v>
       </c>
       <c r="O7" t="str">
-        <v>2 - 7 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P7" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q7" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R7" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S7" t="str">
-        <v>1</v>
-      </c>
-      <c r="T7" t="str">
-        <v>100+</v>
+        <v>Less than 10</v>
       </c>
       <c r="U7" t="str">
-        <v>React.Js, Angular, Java Spring Boot, HTML, Java Fullstack, AWS</v>
+        <v>software engineer, front end, kubernetes, css, api development, javascript, nosql, sql, docker, angular, spring boot, back end, database management, java, git, oops, full stack, web development, typescript, agile, aws, nosql databases</v>
       </c>
       <c r="V7" t="str">
-        <v>Software Development - Other</v>
+        <v>Full Stack Developer</v>
       </c>
       <c r="W7" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -968,15 +965,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z7" t="str">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AA7" t="str">
-        <v>Bachelor's degree in Computer Science or related field with 3+ years of experience in Java Full Stack Development | Design, develop, and maintain full-stack web applications using Java and modern frameworks; develop backend services and build responsive frontend interfaces</v>
+        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern frameworks like Spring and Angular | Design, develop, and maintain web applications; collaborate with teams to deliver scalable solutions</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-09T21:46:16.919Z</v>
+        <v>2026-01-10T14:13:16.710Z</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -985,7 +982,7 @@
         <v>7/20</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-3i-infotech-hyderabad-mumbai-all-areas-3-to-8-years-080126010394</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930493</v>
       </c>
       <c r="E8" t="str">
         <v>Yes</v>
@@ -1006,37 +1003,34 @@
         <v>Good Match</v>
       </c>
       <c r="K8" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L8" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M8" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Custom Software Engineer</v>
       </c>
       <c r="N8" t="str">
-        <v>3i Infotech</v>
+        <v>Accenture</v>
       </c>
       <c r="O8" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P8" t="str">
-        <v>13-23 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q8" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R8" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S8" t="str">
-        <v>8</v>
-      </c>
-      <c r="T8" t="str">
-        <v>100+</v>
+        <v>Less than 10</v>
       </c>
       <c r="U8" t="str">
-        <v>Java, Spring Boot, API, React.Js, Angular, SQL</v>
+        <v>software engineer, restful, nosql, sql, microservices, web development frameworks, angular, database management, java, restful apis, git, microservices architecture, full stack, web development, agile, architecture, nosql databases</v>
       </c>
       <c r="V8" t="str">
         <v>Full Stack Developer</v>
@@ -1051,15 +1045,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z8" t="str">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AA8" t="str">
-        <v>Bachelor’s degree in Computer Science or Engineering; strong proficiency in Java, Spring Boot, and modern frontend frameworks like Angular or React | Design, develop, and maintain full stack web applications; develop backend services and RESTful APIs; build responsive UI components</v>
+        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, and enhance development processes</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-09T21:46:46.923Z</v>
+        <v>2026-01-10T14:13:19.984Z</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1068,7 +1062,7 @@
         <v>8/20</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126931488</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-pune-2-to-5-years-090126931461</v>
       </c>
       <c r="E9" t="str">
         <v>Yes</v>
@@ -1107,7 +1101,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q9" t="str">
-        <v>Hyderabad</v>
+        <v>Pune</v>
       </c>
       <c r="R9" t="str">
         <v>1 day ago</v>
@@ -1116,7 +1110,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U9" t="str">
-        <v>software engineer, front end, css, api development, restful, full stack development, version control, front end technologies, javascript, spring boot, java, git, design, full stack, software solutions, html, agile</v>
+        <v>software engineer, restful, software development, full stack development, version control, nosql, sql, angular, database management, java, git, web frameworks, api design, design, full stack, software solutions, agile, nosql databases</v>
       </c>
       <c r="V9" t="str">
         <v>Full Stack Developer</v>
@@ -1134,12 +1128,12 @@
         <v>3.7</v>
       </c>
       <c r="AA9" t="str">
-        <v>Minimum 2 years experience in Java Full Stack Development; proficiency in front-end technologies and RESTful API integration | Develop custom software solutions, collaborate with teams, and assist in documentation</v>
+        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern web frameworks like Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-09T21:46:50.246Z</v>
+        <v>2026-01-10T14:13:23.388Z</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1148,7 +1142,7 @@
         <v>9/20</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930110</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-2-to-5-years-090126930317</v>
       </c>
       <c r="E10" t="str">
         <v>Yes</v>
@@ -1187,7 +1181,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q10" t="str">
-        <v>Bengaluru</v>
+        <v>Chennai</v>
       </c>
       <c r="R10" t="str">
         <v>1 day ago</v>
@@ -1196,7 +1190,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U10" t="str">
-        <v>software engineer, front end, kubernetes, css, api development, javascript, nosql, sql, docker, angular, spring boot, back end, database management, java, git, oops, full stack, web development, typescript, agile, aws, nosql databases</v>
+        <v>software engineer, restful, software development, nosql, sql, web development frameworks, angular, database management, java, git, api design, full stack, agile methodologies, software solutions, web development, agile, nosql databases</v>
       </c>
       <c r="V10" t="str">
         <v>Full Stack Developer</v>
@@ -1214,12 +1208,12 @@
         <v>3.7</v>
       </c>
       <c r="AA10" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern frameworks like Spring and Angular | Design, develop, and maintain web applications; collaborate with teams to deliver scalable solutions</v>
+        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-09T21:46:53.561Z</v>
+        <v>2026-01-10T14:13:26.719Z</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1228,7 +1222,7 @@
         <v>10/20</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-pune-2-to-5-years-090126931461</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930328</v>
       </c>
       <c r="E11" t="str">
         <v>Yes</v>
@@ -1261,13 +1255,13 @@
         <v>Accenture</v>
       </c>
       <c r="O11" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P11" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q11" t="str">
-        <v>Pune</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R11" t="str">
         <v>1 day ago</v>
@@ -1276,7 +1270,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U11" t="str">
-        <v>software engineer, restful, software development, full stack development, version control, nosql, sql, angular, database management, java, git, web frameworks, api design, design, full stack, software solutions, agile, nosql databases</v>
+        <v>software engineer, restful, react, sql, microservices, java, git, webpack, kanban, mysql, mongodb, programming, azure, front end, oracle, software development, npm, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
       </c>
       <c r="V11" t="str">
         <v>Full Stack Developer</v>
@@ -1294,12 +1288,12 @@
         <v>3.7</v>
       </c>
       <c r="AA11" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern web frameworks like Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with strong proficiency in Java and React.js | Design, develop, and maintain Java-based applications and microservices; collaborate in agile software development</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-09T21:46:57.181Z</v>
+        <v>2026-01-10T14:13:30.004Z</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1308,7 +1302,7 @@
         <v>11/20</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-2-to-5-years-090126930317</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-3-to-8-years-090126930803</v>
       </c>
       <c r="E12" t="str">
         <v>Yes</v>
@@ -1341,7 +1335,7 @@
         <v>Accenture</v>
       </c>
       <c r="O12" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P12" t="str">
         <v>Not Disclosed</v>
@@ -1356,7 +1350,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U12" t="str">
-        <v>software engineer, restful, software development, nosql, sql, web development frameworks, angular, database management, java, git, api design, full stack, agile methodologies, software solutions, web development, agile, nosql databases</v>
+        <v>software engineer, front end, application developer, css, restful, business processes, agile development, hibernate, javascript, sql, spring framework, database management, java, full stack, software solutions, construction, html, agile</v>
       </c>
       <c r="V12" t="str">
         <v>Full Stack Developer</v>
@@ -1374,12 +1368,12 @@
         <v>3.7</v>
       </c>
       <c r="AA12" t="str">
-        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in front-end technologies | Develop custom software solutions, engage in design and code reviews, and assist in documentation</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-09T21:47:00.548Z</v>
+        <v>2026-01-10T14:13:33.292Z</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1388,7 +1382,7 @@
         <v>12/20</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930328</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-2-to-5-years-090126931479</v>
       </c>
       <c r="E13" t="str">
         <v>Yes</v>
@@ -1421,13 +1415,13 @@
         <v>Accenture</v>
       </c>
       <c r="O13" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P13" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q13" t="str">
-        <v>Bengaluru</v>
+        <v>Gurugram</v>
       </c>
       <c r="R13" t="str">
         <v>1 day ago</v>
@@ -1436,7 +1430,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U13" t="str">
-        <v>software engineer, restful, react, sql, microservices, java, git, webpack, kanban, mysql, mongodb, programming, azure, front end, oracle, software development, npm, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
+        <v>software engineer, front end, css, full stack development, version control, front end technologies, hibernate, javascript, nosql, sql, back end, database management, java, git, design, full stack, software solutions, html, agile, nosql databases</v>
       </c>
       <c r="V13" t="str">
         <v>Full Stack Developer</v>
@@ -1454,12 +1448,12 @@
         <v>3.7</v>
       </c>
       <c r="AA13" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with strong proficiency in Java and React.js | Design, develop, and maintain Java-based applications and microservices; collaborate in agile software development</v>
+        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in front-end technologies and back-end frameworks | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-09T21:47:03.818Z</v>
+        <v>2026-01-10T14:13:36.642Z</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1468,7 +1462,7 @@
         <v>13/20</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-3-to-8-years-090126930803</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-indore-3-to-8-years-090126931329</v>
       </c>
       <c r="E14" t="str">
         <v>Yes</v>
@@ -1477,16 +1471,16 @@
         <v>Yes</v>
       </c>
       <c r="G14" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H14" t="str">
         <v>Yes</v>
       </c>
       <c r="I14" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J14" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K14" t="str">
         <v>External Apply</v>
@@ -1507,7 +1501,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q14" t="str">
-        <v>Chennai</v>
+        <v>Indore</v>
       </c>
       <c r="R14" t="str">
         <v>1 day ago</v>
@@ -1516,7 +1510,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U14" t="str">
-        <v>software engineer, front end, application developer, css, restful, business processes, agile development, hibernate, javascript, sql, spring framework, database management, java, full stack, software solutions, construction, html, agile</v>
+        <v>software engineer, front end, css, full stack development, version control, hibernate, javascript, web development frameworks, database management, java, git, postgresql, full stack, software solutions, mysql, web development, html, agile</v>
       </c>
       <c r="V14" t="str">
         <v>Full Stack Developer</v>
@@ -1534,12 +1528,12 @@
         <v>3.7</v>
       </c>
       <c r="AA14" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in front-end technologies | Develop custom software solutions, engage in design and code reviews, and assist in documentation</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in web development frameworks like Spring and Hibernate | Develop custom software solutions, collaborate with cross-functional teams, and engage in continuous learning</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-09T21:47:07.081Z</v>
+        <v>2026-01-10T14:13:40.080Z</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1548,7 +1542,7 @@
         <v>14/20</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-indore-3-to-8-years-090126931329</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931192</v>
       </c>
       <c r="E15" t="str">
         <v>Yes</v>
@@ -1557,16 +1551,16 @@
         <v>Yes</v>
       </c>
       <c r="G15" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H15" t="str">
         <v>Yes</v>
       </c>
       <c r="I15" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J15" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K15" t="str">
         <v>External Apply</v>
@@ -1587,7 +1581,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q15" t="str">
-        <v>Indore</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R15" t="str">
         <v>1 day ago</v>
@@ -1596,7 +1590,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U15" t="str">
-        <v>software engineer, front end, css, full stack development, version control, hibernate, javascript, web development frameworks, database management, java, git, postgresql, full stack, software solutions, mysql, web development, html, agile</v>
+        <v>software engineer, rest, api development, restful, version control, user experience, sql, microservices, spring boot, database management, java, restful apis, git, microservices architecture, full stack, software solutions, agile, architecture</v>
       </c>
       <c r="V15" t="str">
         <v>Full Stack Developer</v>
@@ -1614,12 +1608,12 @@
         <v>3.7</v>
       </c>
       <c r="AA15" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in web development frameworks like Spring and Hibernate | Develop custom software solutions, collaborate with cross-functional teams, and engage in continuous learning</v>
+        <v>Minimum 3 years of experience in Spring Boot; BTech, MTech, or MCA in IT, CSE, EEE, or ECE | Develop custom software solutions and RESTful APIs; Collaborate with cross-functional teams and stakeholders</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-09T21:47:10.417Z</v>
+        <v>2026-01-10T14:13:43.386Z</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1628,7 +1622,7 @@
         <v>15/20</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931192</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126930327</v>
       </c>
       <c r="E16" t="str">
         <v>Yes</v>
@@ -1661,7 +1655,7 @@
         <v>Accenture</v>
       </c>
       <c r="O16" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P16" t="str">
         <v>Not Disclosed</v>
@@ -1676,7 +1670,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U16" t="str">
-        <v>software engineer, rest, api development, restful, version control, user experience, sql, microservices, spring boot, database management, java, restful apis, git, microservices architecture, full stack, software solutions, agile, architecture</v>
+        <v>software engineer, front end, css, full stack development, front end technologies, user experience, hibernate, javascript, nosql, sql, back end, database management, java, design, full stack, html, aws, nosql databases</v>
       </c>
       <c r="V16" t="str">
         <v>Full Stack Developer</v>
@@ -1694,12 +1688,12 @@
         <v>3.7</v>
       </c>
       <c r="AA16" t="str">
-        <v>Minimum 3 years of experience in Spring Boot; BTech, MTech, or MCA in IT, CSE, EEE, or ECE | Develop custom software solutions and RESTful APIs; Collaborate with cross-functional teams and stakeholders</v>
+        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in front-end technologies | Lead design, build, and configuration of applications; collaborate with teams and ensure timely delivery</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-09T21:47:13.653Z</v>
+        <v>2026-01-10T14:13:46.621Z</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1708,7 +1702,7 @@
         <v>16/20</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126930327</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931441</v>
       </c>
       <c r="E17" t="str">
         <v>Yes</v>
@@ -1741,7 +1735,7 @@
         <v>Accenture</v>
       </c>
       <c r="O17" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P17" t="str">
         <v>Not Disclosed</v>
@@ -1756,7 +1750,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U17" t="str">
-        <v>software engineer, front end, css, full stack development, front end technologies, user experience, hibernate, javascript, nosql, sql, back end, database management, java, design, full stack, html, aws, nosql databases</v>
+        <v>software engineer, front end, css, full stack development, version control, front end technologies, javascript, code quality, nosql, sql, spring boot, database management, java, git, full stack, software solutions, html, agile, nosql databases</v>
       </c>
       <c r="V17" t="str">
         <v>Full Stack Developer</v>
@@ -1774,12 +1768,12 @@
         <v>3.7</v>
       </c>
       <c r="AA17" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in front-end technologies | Lead design, build, and configuration of applications; collaborate with teams and ensure timely delivery</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development; proficiency in front-end technologies and database management | Develop custom software solutions, collaborate with teams, conduct code reviews</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-09T21:47:16.925Z</v>
+        <v>2026-01-10T14:13:49.940Z</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1788,7 +1782,7 @@
         <v>17/20</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931441</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-3-to-8-years-090126931749</v>
       </c>
       <c r="E18" t="str">
         <v>Yes</v>
@@ -1827,7 +1821,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q18" t="str">
-        <v>Hyderabad</v>
+        <v>Gurugram</v>
       </c>
       <c r="R18" t="str">
         <v>1 day ago</v>
@@ -1836,7 +1830,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U18" t="str">
-        <v>software engineer, front end, css, full stack development, version control, front end technologies, javascript, code quality, nosql, sql, spring boot, database management, java, git, full stack, software solutions, html, agile, nosql databases</v>
+        <v>software engineer, front end, application developer, restful, web services, version control, business processes, react, angular, database management, java, git, postgresql, full stack, software solutions, debugging, construction, mysql, agile</v>
       </c>
       <c r="V18" t="str">
         <v>Full Stack Developer</v>
@@ -1854,12 +1848,12 @@
         <v>3.7</v>
       </c>
       <c r="AA18" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development; proficiency in front-end technologies and database management | Develop custom software solutions, collaborate with teams, conduct code reviews</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in RESTful web services and API integration | Develop custom software solutions, collaborate with teams, and ensure application performance</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-09T21:47:20.178Z</v>
+        <v>2026-01-10T14:13:53.257Z</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1868,7 +1862,7 @@
         <v>18/20</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-3-to-8-years-090126931749</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930810</v>
       </c>
       <c r="E19" t="str">
         <v>Yes</v>
@@ -1907,7 +1901,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q19" t="str">
-        <v>Gurugram</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R19" t="str">
         <v>1 day ago</v>
@@ -1916,7 +1910,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U19" t="str">
-        <v>software engineer, front end, application developer, restful, web services, version control, business processes, react, angular, database management, java, git, postgresql, full stack, software solutions, debugging, construction, mysql, agile</v>
+        <v>software engineer, restful, full stack development, version control, database technologies, nosql, sql, web development frameworks, angular, java, git, api design, design, full stack, agile methodologies, software solutions, web development, agile</v>
       </c>
       <c r="V19" t="str">
         <v>Full Stack Developer</v>
@@ -1934,12 +1928,12 @@
         <v>3.7</v>
       </c>
       <c r="AA19" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in RESTful web services and API integration | Develop custom software solutions, collaborate with teams, and ensure application performance</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, and engage in code reviews</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-09T21:47:23.460Z</v>
+        <v>2026-01-10T14:13:56.598Z</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1993,7 +1987,7 @@
         <v>1 day ago</v>
       </c>
       <c r="S20" t="str">
-        <v>Less than 10</v>
+        <v>10</v>
       </c>
       <c r="U20" t="str">
         <v>software engineer, css, restful, react, sql, microservices, java, git, webpack, kanban, web development, azure, front end, oracle, software development, npm, javascript, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-09T21:47:26.839Z</v>
+        <v>2026-01-10T14:13:59.959Z</v>
       </c>
       <c r="B21">
         <v>1</v>

--- a/naukri_results.xlsx
+++ b/naukri_results.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-10T14:12:56.738Z</v>
+        <v>2026-01-09T21:45:57.123Z</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>1/20</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-divergentsoft-lab-indore-3-to-8-years-090126024501</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-micro-wings-mumbai-all-areas-2-to-7-years-180925000269</v>
       </c>
       <c r="E2" t="str">
         <v>Yes</v>
@@ -526,51 +526,48 @@
         <v>Java Full Stack Developer</v>
       </c>
       <c r="N2" t="str">
-        <v>DivergentSoft lab</v>
+        <v>Micro Wings</v>
       </c>
       <c r="O2" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 7 years</v>
       </c>
       <c r="P2" t="str">
-        <v>0 P.A.</v>
+        <v>3-6 Lacs P.A.</v>
       </c>
       <c r="Q2" t="str">
-        <v>Indore( Vijay Nagar )</v>
+        <v>Mumbai (All Areas)</v>
       </c>
       <c r="R2" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S2" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T2" t="str">
-        <v>37</v>
+        <v>100+</v>
       </c>
       <c r="U2" t="str">
-        <v>Full Stack, Spring Boot, Java Fullstack, Angular, React.Js, Node.Js, HTML, SQL, Reacts Js, English, Typescript, MySQL, Javascript, MongoDB</v>
+        <v>Java, Hibernate, Spring Boot, Java Fullstack, Angular, Debugging Skills, Cross Functional Coordination, Maven, Spring Mvc, SOAP UI, Postgresql, HTML, Oops Programming, JIRA, Microservices, JUnit, JSP Servlets, Postman Tool, Java Development, Restful Web Api Development</v>
       </c>
       <c r="V2" t="str">
-        <v>Technology / IT - Other</v>
+        <v>Full Stack Developer</v>
       </c>
       <c r="W2" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Software Product</v>
       </c>
       <c r="X2" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y2" t="str">
-        <v>Technology / IT</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>3.5</v>
+        <v>Software Development</v>
       </c>
       <c r="AA2" t="str">
-        <v>Experience with Java 8/17, Spring Boot, Microservices, and frontend technologies like Angular/React | Develop REST APIs and work in an Agile environment using Git | Provident fund included</v>
+        <v>Proficient in Java, Spring Boot, Hibernate, Angular, and SQL | Develop and integrate SOAP/REST services, manage transactions, and perform debugging</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-10T14:13:00.029Z</v>
+        <v>2026-01-09T21:46:00.411Z</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -579,7 +576,7 @@
         <v>2/20</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-micro-wings-mumbai-all-areas-2-to-7-years-180925000269</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-opus-pune-2-to-5-years-080126504723</v>
       </c>
       <c r="E3" t="str">
         <v>Yes</v>
@@ -588,19 +585,19 @@
         <v>Yes</v>
       </c>
       <c r="G3" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H3" t="str">
         <v>Yes</v>
       </c>
       <c r="I3" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J3" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K3" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L3" t="str">
         <v>Skipped</v>
@@ -609,34 +606,34 @@
         <v>Java Full Stack Developer</v>
       </c>
       <c r="N3" t="str">
-        <v>Micro Wings</v>
+        <v>Opus Technosoft</v>
       </c>
       <c r="O3" t="str">
-        <v>2 - 7 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P3" t="str">
-        <v>3-6 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q3" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Pune</v>
       </c>
       <c r="R3" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S3" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3" t="str">
         <v>100+</v>
       </c>
       <c r="U3" t="str">
-        <v>Java, Hibernate, Spring Boot, Java Fullstack, Angular, Debugging Skills, Cross Functional Coordination, Maven, Spring Mvc, SOAP UI, Postgresql, HTML, Oops Programming, JIRA, Microservices, JUnit, JSP Servlets, Postman Tool, Java Development, Restful Web Api Development</v>
+        <v>SAN, Front end, French, GIT, Shaping, MySQL, Javascript, HTML, payment solutions, Monitoring</v>
       </c>
       <c r="V3" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W3" t="str">
-        <v>Software Product</v>
+        <v>IT Services &amp; Consulting</v>
       </c>
       <c r="X3" t="str">
         <v>Full Time, Permanent</v>
@@ -645,12 +642,12 @@
         <v>Software Development</v>
       </c>
       <c r="AA3" t="str">
-        <v>Proficient in Java, Spring Boot, Hibernate, Angular, and SQL | Develop and integrate SOAP/REST services, manage transactions, and perform debugging</v>
+        <v>Required Skills &amp; Experience . Strong proficiency in Java and Angular | Experience with version control systems (Git and BitBucket) | Experience with Postman for API testing and JUnit for unit testing . Hands-on experience with Keycloak (authentication &amp; authorization) and Kibana (log monitoring &amp; analytics) | Experience with AWS cloud services</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-10T14:13:03.359Z</v>
+        <v>2026-01-09T21:46:03.678Z</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -704,7 +701,7 @@
         <v>1 day ago</v>
       </c>
       <c r="S4" t="str">
-        <v>14</v>
+        <v>Less than 10</v>
       </c>
       <c r="U4" t="str">
         <v>software engineer, github, restful, api gateway, html5, full stack developer, redis, nosql, sql, microservices, docker, angular, spring boot, java, restful apis, git, postgresql, full stack, mysql, typescript, agile, mongodb, css3, architecture</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-10T14:13:06.654Z</v>
+        <v>2026-01-09T21:46:06.979Z</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -739,16 +736,16 @@
         <v>4/20</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-capital-business-systems-prayagraj-3-to-7-years-090126011977</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-grid-dynamics-bengaluru-3-to-5-years-080126501444</v>
       </c>
       <c r="E5" t="str">
         <v>Yes</v>
       </c>
       <c r="F5" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G5" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H5" t="str">
         <v>Yes</v>
@@ -760,7 +757,7 @@
         <v>Poor Match</v>
       </c>
       <c r="K5" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L5" t="str">
         <v>Skipped</v>
@@ -769,16 +766,16 @@
         <v>Java Full Stack Developer</v>
       </c>
       <c r="N5" t="str">
-        <v>Capital Business Systems</v>
+        <v>Grid Dynamics</v>
       </c>
       <c r="O5" t="str">
-        <v>3 - 7 years</v>
+        <v>3 - 5 years</v>
       </c>
       <c r="P5" t="str">
-        <v>5-10 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q5" t="str">
-        <v>Prayagraj</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R5" t="str">
         <v>1 day ago</v>
@@ -787,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="str">
-        <v>100+</v>
+        <v>50+</v>
       </c>
       <c r="U5" t="str">
-        <v>Java, Angular, Hibernate, Postgresql, MySQL, Spring Boot, J2Ee, Java Fullstack, Spring, Microservices</v>
+        <v>Backend, Db2, XML, MySQL, Data structures, Data processing, JSON, Oracle, Financial services</v>
       </c>
       <c r="V5" t="str">
         <v>Full Stack Developer</v>
@@ -805,15 +802,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z5" t="str">
-        <v>3.6</v>
+        <v>3.0</v>
       </c>
       <c r="AA5" t="str">
-        <v>Full-stack developer with hands-on experience in Java (J2EE, Spring Boot, Hibernate) and modern front-end frameworks like Angular or React | Develop front-end interfaces, build back-end services, design RESTful APIs, manage databases, and deploy applications using DevOps tools</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-10T14:13:10.051Z</v>
+        <v>2026-01-09T21:46:10.282Z</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -822,7 +819,7 @@
         <v>5/20</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126931488</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-capital-business-systems-prayagraj-3-to-7-years-090126011977</v>
       </c>
       <c r="E6" t="str">
         <v>Yes</v>
@@ -831,46 +828,49 @@
         <v>Yes</v>
       </c>
       <c r="G6" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H6" t="str">
         <v>Yes</v>
       </c>
       <c r="I6" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J6" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K6" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L6" t="str">
         <v>Skipped</v>
       </c>
       <c r="M6" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Java Full Stack Developer</v>
       </c>
       <c r="N6" t="str">
-        <v>Accenture</v>
+        <v>Capital Business Systems</v>
       </c>
       <c r="O6" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 7 years</v>
       </c>
       <c r="P6" t="str">
-        <v>Not Disclosed</v>
+        <v>5-10 Lacs P.A.</v>
       </c>
       <c r="Q6" t="str">
-        <v>Hyderabad</v>
+        <v>Prayagraj</v>
       </c>
       <c r="R6" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S6" t="str">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="T6" t="str">
+        <v>100+</v>
       </c>
       <c r="U6" t="str">
-        <v>software engineer, front end, css, api development, restful, full stack development, version control, front end technologies, javascript, spring boot, java, git, design, full stack, software solutions, html, agile</v>
+        <v>Java, Angular, Hibernate, Postgresql, MySQL, Spring Boot, J2Ee, Java Fullstack, Spring, Microservices</v>
       </c>
       <c r="V6" t="str">
         <v>Full Stack Developer</v>
@@ -885,15 +885,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z6" t="str">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AA6" t="str">
-        <v>Minimum 2 years experience in Java Full Stack Development; proficiency in front-end technologies and RESTful API integration | Develop custom software solutions, collaborate with teams, and assist in documentation</v>
+        <v>Full-stack developer with hands-on experience in Java (J2EE, Spring Boot, Hibernate) and modern front-end frameworks like Angular or React | Develop front-end interfaces, build back-end services, design RESTful APIs, manage databases, and deploy applications using DevOps tools</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-10T14:13:13.419Z</v>
+        <v>2026-01-09T21:46:13.574Z</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>6/20</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930110</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-3i-infotech-mumbai-all-areas-2-to-7-years-080126016500</v>
       </c>
       <c r="E7" t="str">
         <v>Yes</v>
@@ -911,49 +911,52 @@
         <v>Yes</v>
       </c>
       <c r="G7" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H7" t="str">
         <v>Yes</v>
       </c>
       <c r="I7" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J7" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K7" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L7" t="str">
         <v>Skipped</v>
       </c>
       <c r="M7" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Java Full Stack Developer</v>
       </c>
       <c r="N7" t="str">
-        <v>Accenture</v>
+        <v>3i Infotech</v>
       </c>
       <c r="O7" t="str">
-        <v>2 - 5 years</v>
+        <v>2 - 7 years</v>
       </c>
       <c r="P7" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q7" t="str">
-        <v>Bengaluru</v>
+        <v>Mumbai (All Areas)</v>
       </c>
       <c r="R7" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S7" t="str">
-        <v>Less than 10</v>
+        <v>1</v>
+      </c>
+      <c r="T7" t="str">
+        <v>100+</v>
       </c>
       <c r="U7" t="str">
-        <v>software engineer, front end, kubernetes, css, api development, javascript, nosql, sql, docker, angular, spring boot, back end, database management, java, git, oops, full stack, web development, typescript, agile, aws, nosql databases</v>
+        <v>React.Js, Angular, Java Spring Boot, HTML, Java Fullstack, AWS</v>
       </c>
       <c r="V7" t="str">
-        <v>Full Stack Developer</v>
+        <v>Software Development - Other</v>
       </c>
       <c r="W7" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -965,15 +968,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z7" t="str">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA7" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern frameworks like Spring and Angular | Design, develop, and maintain web applications; collaborate with teams to deliver scalable solutions</v>
+        <v>Bachelor's degree in Computer Science or related field with 3+ years of experience in Java Full Stack Development | Design, develop, and maintain full-stack web applications using Java and modern frameworks; develop backend services and build responsive frontend interfaces</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-10T14:13:16.710Z</v>
+        <v>2026-01-09T21:46:16.919Z</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>7/20</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930493</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developer-3i-infotech-hyderabad-mumbai-all-areas-3-to-8-years-080126010394</v>
       </c>
       <c r="E8" t="str">
         <v>Yes</v>
@@ -1003,34 +1006,37 @@
         <v>Good Match</v>
       </c>
       <c r="K8" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L8" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M8" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Java Full Stack Developer</v>
       </c>
       <c r="N8" t="str">
-        <v>Accenture</v>
+        <v>3i Infotech</v>
       </c>
       <c r="O8" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P8" t="str">
-        <v>Not Disclosed</v>
+        <v>13-23 Lacs P.A.</v>
       </c>
       <c r="Q8" t="str">
-        <v>Bengaluru</v>
+        <v>Mumbai (All Areas)</v>
       </c>
       <c r="R8" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S8" t="str">
-        <v>Less than 10</v>
+        <v>8</v>
+      </c>
+      <c r="T8" t="str">
+        <v>100+</v>
       </c>
       <c r="U8" t="str">
-        <v>software engineer, restful, nosql, sql, microservices, web development frameworks, angular, database management, java, restful apis, git, microservices architecture, full stack, web development, agile, architecture, nosql databases</v>
+        <v>Java, Spring Boot, API, React.Js, Angular, SQL</v>
       </c>
       <c r="V8" t="str">
         <v>Full Stack Developer</v>
@@ -1045,15 +1051,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z8" t="str">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA8" t="str">
-        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, and enhance development processes</v>
+        <v>Bachelor’s degree in Computer Science or Engineering; strong proficiency in Java, Spring Boot, and modern frontend frameworks like Angular or React | Design, develop, and maintain full stack web applications; develop backend services and RESTful APIs; build responsive UI components</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-10T14:13:19.984Z</v>
+        <v>2026-01-09T21:46:46.923Z</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1062,7 +1068,7 @@
         <v>8/20</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-pune-2-to-5-years-090126931461</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126931488</v>
       </c>
       <c r="E9" t="str">
         <v>Yes</v>
@@ -1101,7 +1107,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q9" t="str">
-        <v>Pune</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R9" t="str">
         <v>1 day ago</v>
@@ -1110,7 +1116,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U9" t="str">
-        <v>software engineer, restful, software development, full stack development, version control, nosql, sql, angular, database management, java, git, web frameworks, api design, design, full stack, software solutions, agile, nosql databases</v>
+        <v>software engineer, front end, css, api development, restful, full stack development, version control, front end technologies, javascript, spring boot, java, git, design, full stack, software solutions, html, agile</v>
       </c>
       <c r="V9" t="str">
         <v>Full Stack Developer</v>
@@ -1128,12 +1134,12 @@
         <v>3.7</v>
       </c>
       <c r="AA9" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern web frameworks like Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>Minimum 2 years experience in Java Full Stack Development; proficiency in front-end technologies and RESTful API integration | Develop custom software solutions, collaborate with teams, and assist in documentation</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-10T14:13:23.388Z</v>
+        <v>2026-01-09T21:46:50.246Z</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1142,7 +1148,7 @@
         <v>9/20</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-2-to-5-years-090126930317</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930110</v>
       </c>
       <c r="E10" t="str">
         <v>Yes</v>
@@ -1181,7 +1187,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q10" t="str">
-        <v>Chennai</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R10" t="str">
         <v>1 day ago</v>
@@ -1190,7 +1196,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U10" t="str">
-        <v>software engineer, restful, software development, nosql, sql, web development frameworks, angular, database management, java, git, api design, full stack, agile methodologies, software solutions, web development, agile, nosql databases</v>
+        <v>software engineer, front end, kubernetes, css, api development, javascript, nosql, sql, docker, angular, spring boot, back end, database management, java, git, oops, full stack, web development, typescript, agile, aws, nosql databases</v>
       </c>
       <c r="V10" t="str">
         <v>Full Stack Developer</v>
@@ -1208,12 +1214,12 @@
         <v>3.7</v>
       </c>
       <c r="AA10" t="str">
-        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern frameworks like Spring and Angular | Design, develop, and maintain web applications; collaborate with teams to deliver scalable solutions</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-10T14:13:26.719Z</v>
+        <v>2026-01-09T21:46:53.561Z</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1222,7 +1228,7 @@
         <v>10/20</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930328</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-pune-2-to-5-years-090126931461</v>
       </c>
       <c r="E11" t="str">
         <v>Yes</v>
@@ -1255,13 +1261,13 @@
         <v>Accenture</v>
       </c>
       <c r="O11" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P11" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q11" t="str">
-        <v>Bengaluru</v>
+        <v>Pune</v>
       </c>
       <c r="R11" t="str">
         <v>1 day ago</v>
@@ -1270,7 +1276,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U11" t="str">
-        <v>software engineer, restful, react, sql, microservices, java, git, webpack, kanban, mysql, mongodb, programming, azure, front end, oracle, software development, npm, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
+        <v>software engineer, restful, software development, full stack development, version control, nosql, sql, angular, database management, java, git, web frameworks, api design, design, full stack, software solutions, agile, nosql databases</v>
       </c>
       <c r="V11" t="str">
         <v>Full Stack Developer</v>
@@ -1288,12 +1294,12 @@
         <v>3.7</v>
       </c>
       <c r="AA11" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with strong proficiency in Java and React.js | Design, develop, and maintain Java-based applications and microservices; collaborate in agile software development</v>
+        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern web frameworks like Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-10T14:13:30.004Z</v>
+        <v>2026-01-09T21:46:57.181Z</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1302,7 +1308,7 @@
         <v>11/20</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-3-to-8-years-090126930803</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-2-to-5-years-090126930317</v>
       </c>
       <c r="E12" t="str">
         <v>Yes</v>
@@ -1335,7 +1341,7 @@
         <v>Accenture</v>
       </c>
       <c r="O12" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P12" t="str">
         <v>Not Disclosed</v>
@@ -1350,7 +1356,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U12" t="str">
-        <v>software engineer, front end, application developer, css, restful, business processes, agile development, hibernate, javascript, sql, spring framework, database management, java, full stack, software solutions, construction, html, agile</v>
+        <v>software engineer, restful, software development, nosql, sql, web development frameworks, angular, database management, java, git, api design, full stack, agile methodologies, software solutions, web development, agile, nosql databases</v>
       </c>
       <c r="V12" t="str">
         <v>Full Stack Developer</v>
@@ -1368,12 +1374,12 @@
         <v>3.7</v>
       </c>
       <c r="AA12" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in front-end technologies | Develop custom software solutions, engage in design and code reviews, and assist in documentation</v>
+        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-10T14:13:33.292Z</v>
+        <v>2026-01-09T21:47:00.548Z</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1382,7 +1388,7 @@
         <v>12/20</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-2-to-5-years-090126931479</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930328</v>
       </c>
       <c r="E13" t="str">
         <v>Yes</v>
@@ -1415,13 +1421,13 @@
         <v>Accenture</v>
       </c>
       <c r="O13" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P13" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q13" t="str">
-        <v>Gurugram</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R13" t="str">
         <v>1 day ago</v>
@@ -1430,7 +1436,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U13" t="str">
-        <v>software engineer, front end, css, full stack development, version control, front end technologies, hibernate, javascript, nosql, sql, back end, database management, java, git, design, full stack, software solutions, html, agile, nosql databases</v>
+        <v>software engineer, restful, react, sql, microservices, java, git, webpack, kanban, mysql, mongodb, programming, azure, front end, oracle, software development, npm, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
       </c>
       <c r="V13" t="str">
         <v>Full Stack Developer</v>
@@ -1448,12 +1454,12 @@
         <v>3.7</v>
       </c>
       <c r="AA13" t="str">
-        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in front-end technologies and back-end frameworks | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with strong proficiency in Java and React.js | Design, develop, and maintain Java-based applications and microservices; collaborate in agile software development</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-10T14:13:36.642Z</v>
+        <v>2026-01-09T21:47:03.818Z</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1462,7 +1468,7 @@
         <v>13/20</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-indore-3-to-8-years-090126931329</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-3-to-8-years-090126930803</v>
       </c>
       <c r="E14" t="str">
         <v>Yes</v>
@@ -1471,16 +1477,16 @@
         <v>Yes</v>
       </c>
       <c r="G14" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H14" t="str">
         <v>Yes</v>
       </c>
       <c r="I14" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J14" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K14" t="str">
         <v>External Apply</v>
@@ -1501,7 +1507,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q14" t="str">
-        <v>Indore</v>
+        <v>Chennai</v>
       </c>
       <c r="R14" t="str">
         <v>1 day ago</v>
@@ -1510,7 +1516,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U14" t="str">
-        <v>software engineer, front end, css, full stack development, version control, hibernate, javascript, web development frameworks, database management, java, git, postgresql, full stack, software solutions, mysql, web development, html, agile</v>
+        <v>software engineer, front end, application developer, css, restful, business processes, agile development, hibernate, javascript, sql, spring framework, database management, java, full stack, software solutions, construction, html, agile</v>
       </c>
       <c r="V14" t="str">
         <v>Full Stack Developer</v>
@@ -1528,12 +1534,12 @@
         <v>3.7</v>
       </c>
       <c r="AA14" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in web development frameworks like Spring and Hibernate | Develop custom software solutions, collaborate with cross-functional teams, and engage in continuous learning</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in front-end technologies | Develop custom software solutions, engage in design and code reviews, and assist in documentation</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-10T14:13:40.080Z</v>
+        <v>2026-01-09T21:47:07.081Z</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1542,7 +1548,7 @@
         <v>14/20</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931192</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-indore-3-to-8-years-090126931329</v>
       </c>
       <c r="E15" t="str">
         <v>Yes</v>
@@ -1551,16 +1557,16 @@
         <v>Yes</v>
       </c>
       <c r="G15" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H15" t="str">
         <v>Yes</v>
       </c>
       <c r="I15" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J15" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K15" t="str">
         <v>External Apply</v>
@@ -1581,7 +1587,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q15" t="str">
-        <v>Hyderabad</v>
+        <v>Indore</v>
       </c>
       <c r="R15" t="str">
         <v>1 day ago</v>
@@ -1590,7 +1596,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U15" t="str">
-        <v>software engineer, rest, api development, restful, version control, user experience, sql, microservices, spring boot, database management, java, restful apis, git, microservices architecture, full stack, software solutions, agile, architecture</v>
+        <v>software engineer, front end, css, full stack development, version control, hibernate, javascript, web development frameworks, database management, java, git, postgresql, full stack, software solutions, mysql, web development, html, agile</v>
       </c>
       <c r="V15" t="str">
         <v>Full Stack Developer</v>
@@ -1608,12 +1614,12 @@
         <v>3.7</v>
       </c>
       <c r="AA15" t="str">
-        <v>Minimum 3 years of experience in Spring Boot; BTech, MTech, or MCA in IT, CSE, EEE, or ECE | Develop custom software solutions and RESTful APIs; Collaborate with cross-functional teams and stakeholders</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in web development frameworks like Spring and Hibernate | Develop custom software solutions, collaborate with cross-functional teams, and engage in continuous learning</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-10T14:13:43.386Z</v>
+        <v>2026-01-09T21:47:10.417Z</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1622,7 +1628,7 @@
         <v>15/20</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126930327</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931192</v>
       </c>
       <c r="E16" t="str">
         <v>Yes</v>
@@ -1655,7 +1661,7 @@
         <v>Accenture</v>
       </c>
       <c r="O16" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P16" t="str">
         <v>Not Disclosed</v>
@@ -1670,7 +1676,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U16" t="str">
-        <v>software engineer, front end, css, full stack development, front end technologies, user experience, hibernate, javascript, nosql, sql, back end, database management, java, design, full stack, html, aws, nosql databases</v>
+        <v>software engineer, rest, api development, restful, version control, user experience, sql, microservices, spring boot, database management, java, restful apis, git, microservices architecture, full stack, software solutions, agile, architecture</v>
       </c>
       <c r="V16" t="str">
         <v>Full Stack Developer</v>
@@ -1688,12 +1694,12 @@
         <v>3.7</v>
       </c>
       <c r="AA16" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in front-end technologies | Lead design, build, and configuration of applications; collaborate with teams and ensure timely delivery</v>
+        <v>Minimum 3 years of experience in Spring Boot; BTech, MTech, or MCA in IT, CSE, EEE, or ECE | Develop custom software solutions and RESTful APIs; Collaborate with cross-functional teams and stakeholders</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-10T14:13:46.621Z</v>
+        <v>2026-01-09T21:47:13.653Z</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1702,7 +1708,7 @@
         <v>16/20</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931441</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126930327</v>
       </c>
       <c r="E17" t="str">
         <v>Yes</v>
@@ -1735,7 +1741,7 @@
         <v>Accenture</v>
       </c>
       <c r="O17" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P17" t="str">
         <v>Not Disclosed</v>
@@ -1750,7 +1756,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U17" t="str">
-        <v>software engineer, front end, css, full stack development, version control, front end technologies, javascript, code quality, nosql, sql, spring boot, database management, java, git, full stack, software solutions, html, agile, nosql databases</v>
+        <v>software engineer, front end, css, full stack development, front end technologies, user experience, hibernate, javascript, nosql, sql, back end, database management, java, design, full stack, html, aws, nosql databases</v>
       </c>
       <c r="V17" t="str">
         <v>Full Stack Developer</v>
@@ -1768,12 +1774,12 @@
         <v>3.7</v>
       </c>
       <c r="AA17" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development; proficiency in front-end technologies and database management | Develop custom software solutions, collaborate with teams, conduct code reviews</v>
+        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in front-end technologies | Lead design, build, and configuration of applications; collaborate with teams and ensure timely delivery</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-10T14:13:49.940Z</v>
+        <v>2026-01-09T21:47:16.925Z</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1782,7 +1788,7 @@
         <v>17/20</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-3-to-8-years-090126931749</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931441</v>
       </c>
       <c r="E18" t="str">
         <v>Yes</v>
@@ -1821,7 +1827,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q18" t="str">
-        <v>Gurugram</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R18" t="str">
         <v>1 day ago</v>
@@ -1830,7 +1836,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U18" t="str">
-        <v>software engineer, front end, application developer, restful, web services, version control, business processes, react, angular, database management, java, git, postgresql, full stack, software solutions, debugging, construction, mysql, agile</v>
+        <v>software engineer, front end, css, full stack development, version control, front end technologies, javascript, code quality, nosql, sql, spring boot, database management, java, git, full stack, software solutions, html, agile, nosql databases</v>
       </c>
       <c r="V18" t="str">
         <v>Full Stack Developer</v>
@@ -1848,12 +1854,12 @@
         <v>3.7</v>
       </c>
       <c r="AA18" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in RESTful web services and API integration | Develop custom software solutions, collaborate with teams, and ensure application performance</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development; proficiency in front-end technologies and database management | Develop custom software solutions, collaborate with teams, conduct code reviews</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-10T14:13:53.257Z</v>
+        <v>2026-01-09T21:47:20.178Z</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1862,7 +1868,7 @@
         <v>18/20</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930810</v>
+        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-3-to-8-years-090126931749</v>
       </c>
       <c r="E19" t="str">
         <v>Yes</v>
@@ -1901,7 +1907,7 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q19" t="str">
-        <v>Bengaluru</v>
+        <v>Gurugram</v>
       </c>
       <c r="R19" t="str">
         <v>1 day ago</v>
@@ -1910,7 +1916,7 @@
         <v>Less than 10</v>
       </c>
       <c r="U19" t="str">
-        <v>software engineer, restful, full stack development, version control, database technologies, nosql, sql, web development frameworks, angular, java, git, api design, design, full stack, agile methodologies, software solutions, web development, agile</v>
+        <v>software engineer, front end, application developer, restful, web services, version control, business processes, react, angular, database management, java, git, postgresql, full stack, software solutions, debugging, construction, mysql, agile</v>
       </c>
       <c r="V19" t="str">
         <v>Full Stack Developer</v>
@@ -1928,12 +1934,12 @@
         <v>3.7</v>
       </c>
       <c r="AA19" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, and engage in code reviews</v>
+        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in RESTful web services and API integration | Develop custom software solutions, collaborate with teams, and ensure application performance</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-10T14:13:56.598Z</v>
+        <v>2026-01-09T21:47:23.460Z</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1987,7 +1993,7 @@
         <v>1 day ago</v>
       </c>
       <c r="S20" t="str">
-        <v>10</v>
+        <v>Less than 10</v>
       </c>
       <c r="U20" t="str">
         <v>software engineer, css, restful, react, sql, microservices, java, git, webpack, kanban, web development, azure, front end, oracle, software development, npm, javascript, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
@@ -2013,7 +2019,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-10T14:13:59.959Z</v>
+        <v>2026-01-09T21:47:26.839Z</v>
       </c>
       <c r="B21">
         <v>1</v>

--- a/naukri_results.xlsx
+++ b/naukri_results.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-09T21:45:57.123Z</v>
+        <v>2026-01-11T12:35:19.667Z</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>1/20</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-micro-wings-mumbai-all-areas-2-to-7-years-180925000269</v>
+        <v>https://www.naukri.com/job-listings-java-full-stack-developers-infosoft-systems-pune-3-to-8-years-110126006457</v>
       </c>
       <c r="E2" t="str">
         <v>Yes</v>
@@ -505,49 +505,49 @@
         <v>Yes</v>
       </c>
       <c r="G2" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H2" t="str">
         <v>Yes</v>
       </c>
       <c r="I2" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J2" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K2" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L2" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M2" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Java Full Stack Developers</v>
       </c>
       <c r="N2" t="str">
-        <v>Micro Wings</v>
+        <v>Infosoft Systems</v>
       </c>
       <c r="O2" t="str">
-        <v>2 - 7 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P2" t="str">
-        <v>3-6 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q2" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Pune</v>
       </c>
       <c r="R2" t="str">
-        <v>1 day ago</v>
+        <v>Few hours ago</v>
       </c>
       <c r="S2" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="str">
         <v>100+</v>
       </c>
       <c r="U2" t="str">
-        <v>Java, Hibernate, Spring Boot, Java Fullstack, Angular, Debugging Skills, Cross Functional Coordination, Maven, Spring Mvc, SOAP UI, Postgresql, HTML, Oops Programming, JIRA, Microservices, JUnit, JSP Servlets, Postman Tool, Java Development, Restful Web Api Development</v>
+        <v>Java, Spring Boot, Java Fullstack, Microservices, Flutter, Mobile Development, Web Application Development, Angular, Mobile Application Development, SQL, Android Application Development, Rest, MySQL, Javascript, Web Application, React.Js, Android Studio, Web Development, Dart</v>
       </c>
       <c r="V2" t="str">
         <v>Full Stack Developer</v>
@@ -562,12 +562,12 @@
         <v>Software Development</v>
       </c>
       <c r="AA2" t="str">
-        <v>Proficient in Java, Spring Boot, Hibernate, Angular, and SQL | Develop and integrate SOAP/REST services, manage transactions, and perform debugging</v>
+        <v>5-6 years experience as a Java Full Stack Developer; proficiency in Java, Spring Boot, Hibernate, and front-end technologies like Angular or React | Design and maintain web and mobile applications; develop RESTful APIs; perform unit testing and debugging</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-09T21:46:00.411Z</v>
+        <v>2026-01-11T12:35:48.959Z</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>2/20</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-opus-pune-2-to-5-years-080126504723</v>
+        <v>https://www.naukri.com/job-listings-manager-it-development-full-stack-trafigura-mumbai-0-to-3-years-100126000786</v>
       </c>
       <c r="E3" t="str">
         <v>Yes</v>
@@ -588,52 +588,49 @@
         <v>Yes</v>
       </c>
       <c r="H3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I3" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J3" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K3" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L3" t="str">
         <v>Skipped</v>
       </c>
       <c r="M3" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Manager - IT Development Full Stack</v>
       </c>
       <c r="N3" t="str">
-        <v>Opus Technosoft</v>
+        <v>Trafigura</v>
       </c>
       <c r="O3" t="str">
-        <v>2 - 5 years</v>
+        <v>0 - 3 years</v>
       </c>
       <c r="P3" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q3" t="str">
-        <v>Pune</v>
+        <v>Mumbai</v>
       </c>
       <c r="R3" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S3" t="str">
-        <v>1</v>
-      </c>
-      <c r="T3" t="str">
         <v>100+</v>
       </c>
       <c r="U3" t="str">
-        <v>SAN, Front end, French, GIT, Shaping, MySQL, Javascript, HTML, payment solutions, Monitoring</v>
+        <v>continuous integration, aws iam, solution development, cloud technologies, microservices, react.js, java, ui, lean, design, digital, cd, python, development, gui testing, technology, spring boot, angular, node.js, re, application, lambda expressions, delivery management, web technologies, agile, aws</v>
       </c>
       <c r="V3" t="str">
-        <v>Full Stack Developer</v>
+        <v>Head - Engineering</v>
       </c>
       <c r="W3" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Oil &amp; Gas</v>
       </c>
       <c r="X3" t="str">
         <v>Full Time, Permanent</v>
@@ -641,13 +638,16 @@
       <c r="Y3" t="str">
         <v>Software Development</v>
       </c>
+      <c r="Z3" t="str">
+        <v>3.2</v>
+      </c>
       <c r="AA3" t="str">
-        <v>Required Skills &amp; Experience . Strong proficiency in Java and Angular | Experience with version control systems (Git and BitBucket) | Experience with Postman for API testing and JUnit for unit testing . Hands-on experience with Keycloak (authentication &amp; authorization) and Kibana (log monitoring &amp; analytics) | Experience with AWS cloud services</v>
+        <v>5+ years experience in digital product design and development; knowledge of Cloud Technologies and Web technologies (Angular, ReactJS, NodeJs, JAVA Spring Boot) | Assess existing processes, develop user stories, consult on product design, and monitor product performance</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-09T21:46:03.678Z</v>
+        <v>2026-01-11T12:35:52.374Z</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>3/20</v>
       </c>
       <c r="D4" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930984</v>
+        <v>https://www.naukri.com/job-listings-full-stack-engineer-full-time-exaflair-technologies-mohali-chandigarh-zirakpur-1-to-3-years-110126007520</v>
       </c>
       <c r="E4" t="str">
         <v>Yes</v>
@@ -665,49 +665,52 @@
         <v>Yes</v>
       </c>
       <c r="G4" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H4" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I4" t="str">
-        <v>4/undefined</v>
+        <v>2/undefined</v>
       </c>
       <c r="J4" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K4" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L4" t="str">
         <v>Skipped</v>
       </c>
       <c r="M4" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Full Stack Engineer(full-time)</v>
       </c>
       <c r="N4" t="str">
-        <v>Accenture</v>
+        <v>Exaflair Technologies</v>
       </c>
       <c r="O4" t="str">
-        <v>2 - 5 years</v>
+        <v>1 - 3 years</v>
       </c>
       <c r="P4" t="str">
-        <v>Not Disclosed</v>
+        <v>4-6 Lacs P.A.</v>
       </c>
       <c r="Q4" t="str">
-        <v>Bengaluru</v>
+        <v>Mohali</v>
       </c>
       <c r="R4" t="str">
-        <v>1 day ago</v>
+        <v>Just now</v>
       </c>
       <c r="S4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T4" t="str">
         <v>Less than 10</v>
       </c>
       <c r="U4" t="str">
-        <v>software engineer, github, restful, api gateway, html5, full stack developer, redis, nosql, sql, microservices, docker, angular, spring boot, java, restful apis, git, postgresql, full stack, mysql, typescript, agile, mongodb, css3, architecture</v>
+        <v>Typescript, SQL/NoSQL/PostgreSQL, Node.Js, React.Js, Nextjs, Express, Javascript, Github Actions, Tailwind Css, Vite</v>
       </c>
       <c r="V4" t="str">
-        <v>Blockchain Quality Assurance Engineer</v>
+        <v>Application Engineer</v>
       </c>
       <c r="W4" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -716,18 +719,15 @@
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y4" t="str">
-        <v>Quality Assurance and Testing</v>
-      </c>
-      <c r="Z4" t="str">
-        <v>3.7</v>
+        <v>Engineering</v>
       </c>
       <c r="AA4" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with expertise in Angular and microservices | Develop custom software solutions, collaborate with cross-functional teams, and ensure high-quality performance</v>
+        <v>Bachelor's degree in Computer Science or related field; 1-3 years of full-stack development experience; strong skills in TypeScript/JavaScript, Next.js, and React | Develop and maintain full-stack features; build responsive frontend interfaces; implement backend logic and APIs | Competitive compensation based on experience and impact</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-09T21:46:06.979Z</v>
+        <v>2026-01-11T12:35:55.626Z</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -736,13 +736,13 @@
         <v>4/20</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-grid-dynamics-bengaluru-3-to-5-years-080126501444</v>
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-java-great-west-global-business-services-bengaluru-3-to-8-years-110126005561</v>
       </c>
       <c r="E5" t="str">
         <v>Yes</v>
       </c>
       <c r="F5" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G5" t="str">
         <v>Yes</v>
@@ -751,25 +751,25 @@
         <v>Yes</v>
       </c>
       <c r="I5" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J5" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K5" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L5" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M5" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Senior Software Engineer - Java</v>
       </c>
       <c r="N5" t="str">
-        <v>Grid Dynamics</v>
+        <v>Empower</v>
       </c>
       <c r="O5" t="str">
-        <v>3 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P5" t="str">
         <v>Not Disclosed</v>
@@ -778,22 +778,19 @@
         <v>Bengaluru</v>
       </c>
       <c r="R5" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S5" t="str">
-        <v>1</v>
-      </c>
-      <c r="T5" t="str">
-        <v>50+</v>
+        <v>100+</v>
       </c>
       <c r="U5" t="str">
-        <v>Backend, Db2, XML, MySQL, Data structures, Data processing, JSON, Oracle, Financial services</v>
+        <v>continuous integration, kubernetes, analytical, concurrent, ci/cd, sql, plsql, database development, docker, spring, java, postgresql, multithreading, mysql, boot, communication skills, cd, rest, oracle, version control, maven, orm, spring boot framework, relational databases, gradle, scrum, agile, aws</v>
       </c>
       <c r="V5" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W5" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Financial Services</v>
       </c>
       <c r="X5" t="str">
         <v>Full Time, Permanent</v>
@@ -802,15 +799,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z5" t="str">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA5" t="str">
-        <v/>
+        <v>5+ years of back-end engineering experience in Java, Spring, and database development | Design, develop, and troubleshoot software features in an Agile/Scrum environment; lead coding efforts and participate in architectural discussions</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-09T21:46:10.282Z</v>
+        <v>2026-01-11T12:36:24.187Z</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -819,7 +816,7 @@
         <v>5/20</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-capital-business-systems-prayagraj-3-to-7-years-090126011977</v>
+        <v>https://www.naukri.com/job-listings-it-full-stack-developer-rad-trafigura-mumbai-0-to-3-years-100126000785</v>
       </c>
       <c r="E6" t="str">
         <v>Yes</v>
@@ -828,10 +825,10 @@
         <v>Yes</v>
       </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>No</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Yes</v>
       </c>
       <c r="I6" t="str">
         <v>3/undefined</v>
@@ -846,37 +843,34 @@
         <v>Skipped</v>
       </c>
       <c r="M6" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>IT Full Stack Developer - RAD</v>
       </c>
       <c r="N6" t="str">
-        <v>Capital Business Systems</v>
+        <v>Trafigura</v>
       </c>
       <c r="O6" t="str">
-        <v>3 - 7 years</v>
+        <v>0 - 3 years</v>
       </c>
       <c r="P6" t="str">
-        <v>5-10 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q6" t="str">
-        <v>Prayagraj</v>
+        <v>Mumbai</v>
       </c>
       <c r="R6" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S6" t="str">
-        <v>1</v>
-      </c>
-      <c r="T6" t="str">
         <v>100+</v>
       </c>
       <c r="U6" t="str">
-        <v>Java, Angular, Hibernate, Postgresql, MySQL, Spring Boot, J2Ee, Java Fullstack, Spring, Microservices</v>
+        <v>server, continuous integration, kubernetes, css, analytical, ci/cd, react.js, devops, asp.net, jenkins, end, typescript, api, graphql, communication skills, architecture, c#, cd, side, development, python, oracle, microsoft azure, javascript, sql server, angular, .net, scrum, gitlab, front, agile, aws, asp</v>
       </c>
       <c r="V6" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W6" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Oil &amp; Gas</v>
       </c>
       <c r="X6" t="str">
         <v>Full Time, Permanent</v>
@@ -885,15 +879,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z6" t="str">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AA6" t="str">
-        <v>Full-stack developer with hands-on experience in Java (J2EE, Spring Boot, Hibernate) and modern front-end frameworks like Angular or React | Develop front-end interfaces, build back-end services, design RESTful APIs, manage databases, and deploy applications using DevOps tools</v>
+        <v>Bachelor's degree in Computer Science or related field with 8+ years of full stack development experience | Manage end-to-end development lifecycle, collaborate on technical design, and resolve high-severity issues</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-09T21:46:13.574Z</v>
+        <v>2026-01-11T12:36:27.520Z</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -902,7 +896,7 @@
         <v>6/20</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-3i-infotech-mumbai-all-areas-2-to-7-years-080126016500</v>
+        <v>https://www.naukri.com/job-listings-software-engineer-kayhan-space-bengaluru-2-to-5-years-110126005505</v>
       </c>
       <c r="E7" t="str">
         <v>Yes</v>
@@ -911,49 +905,49 @@
         <v>Yes</v>
       </c>
       <c r="G7" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H7" t="str">
         <v>Yes</v>
       </c>
       <c r="I7" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J7" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K7" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L7" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M7" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Software Engineer</v>
       </c>
       <c r="N7" t="str">
-        <v>3i Infotech</v>
+        <v>Kayhan Space</v>
       </c>
       <c r="O7" t="str">
-        <v>2 - 7 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P7" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q7" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R7" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S7" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T7" t="str">
         <v>100+</v>
       </c>
       <c r="U7" t="str">
-        <v>React.Js, Angular, Java Spring Boot, HTML, Java Fullstack, AWS</v>
+        <v>C, or high-volume timeseries data processing, astrodynamics, React.Js, Frontend Web Development, C++, Rust, Postgresql, MCP applications, Typescript, agentic workflows, containerized software deployment and Kubernetes, physics, LLM integrations, statistical analysis, Nextjs, AWS</v>
       </c>
       <c r="V7" t="str">
         <v>Software Development - Other</v>
@@ -967,16 +961,13 @@
       <c r="Y7" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z7" t="str">
-        <v>3.4</v>
-      </c>
       <c r="AA7" t="str">
-        <v>Bachelor's degree in Computer Science or related field with 3+ years of experience in Java Full Stack Development | Design, develop, and maintain full-stack web applications using Java and modern frameworks; develop backend services and build responsive frontend interfaces</v>
+        <v>Bachelor's degree in Computer Science, 2+ years in software development, strong Python and PostgreSQL skills | Design and maintain features for Satcat.com, build internal automation and dashboards, advocate for user experience excellence</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-09T21:46:16.919Z</v>
+        <v>2026-01-11T12:36:58.765Z</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -985,13 +976,13 @@
         <v>7/20</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.naukri.com/job-listings-java-full-stack-developer-3i-infotech-hyderabad-mumbai-all-areas-3-to-8-years-080126010394</v>
+        <v>https://www.naukri.com/job-listings-multiple-openings-java-linux-android-full-stack-ds-i-testing-hirex-consultancy-services-hyderabad-pune-bengaluru-3-to-8-years-110126006910</v>
       </c>
       <c r="E8" t="str">
         <v>Yes</v>
       </c>
       <c r="F8" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G8" t="str">
         <v>Yes</v>
@@ -1000,46 +991,46 @@
         <v>Yes</v>
       </c>
       <c r="I8" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J8" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K8" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L8" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M8" t="str">
-        <v>Java Full Stack Developer</v>
+        <v>Multiple Openings | Java | Linux | Android | Full Stack | DS I Testing</v>
       </c>
       <c r="N8" t="str">
-        <v>3i Infotech</v>
+        <v>HiREx Consultancy Services</v>
       </c>
       <c r="O8" t="str">
         <v>3 - 8 years</v>
       </c>
       <c r="P8" t="str">
-        <v>13-23 Lacs P.A.</v>
+        <v>8-18 Lacs P.A.</v>
       </c>
       <c r="Q8" t="str">
-        <v>Mumbai (All Areas)</v>
+        <v>Pune</v>
       </c>
       <c r="R8" t="str">
-        <v>1 day ago</v>
+        <v>Few hours ago</v>
       </c>
       <c r="S8" t="str">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="T8" t="str">
-        <v>100+</v>
+        <v>50+</v>
       </c>
       <c r="U8" t="str">
-        <v>Java, Spring Boot, API, React.Js, Angular, SQL</v>
+        <v>C++, Middleware, Linux, Fullstack Development, Automation Testing, Java, C, J2Ee, Mobile Application Development, Android, Application Development, Android Application Development, application, Frontend Development, Middleware Technologies, Linux Kernel</v>
       </c>
       <c r="V8" t="str">
-        <v>Full Stack Developer</v>
+        <v>Software Development - Other</v>
       </c>
       <c r="W8" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1050,16 +1041,13 @@
       <c r="Y8" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z8" t="str">
-        <v>3.4</v>
-      </c>
       <c r="AA8" t="str">
-        <v>Bachelor’s degree in Computer Science or Engineering; strong proficiency in Java, Spring Boot, and modern frontend frameworks like Angular or React | Design, develop, and maintain full stack web applications; develop backend services and RESTful APIs; build responsive UI components</v>
+        <v>Experienced professionals in technology domains with skills in Java, Linux, and Middleware | Work on cutting-edge technologies and large-scale enterprise applications across various roles</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-09T21:46:46.923Z</v>
+        <v>2026-01-11T12:37:02.104Z</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1068,7 +1056,7 @@
         <v>8/20</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126931488</v>
+        <v>https://www.naukri.com/job-listings-software-developer-react-native-chola-ms-chennai-3-to-7-years-110126005675</v>
       </c>
       <c r="E9" t="str">
         <v>Yes</v>
@@ -1089,40 +1077,43 @@
         <v>Good Match</v>
       </c>
       <c r="K9" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L9" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M9" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Software Developer - React Native</v>
       </c>
       <c r="N9" t="str">
-        <v>Accenture</v>
+        <v>Chola MS</v>
       </c>
       <c r="O9" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 7 years</v>
       </c>
       <c r="P9" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q9" t="str">
-        <v>Hyderabad</v>
+        <v>Chennai</v>
       </c>
       <c r="R9" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S9" t="str">
-        <v>Less than 10</v>
+        <v>1</v>
+      </c>
+      <c r="T9" t="str">
+        <v>100+</v>
       </c>
       <c r="U9" t="str">
-        <v>software engineer, front end, css, api development, restful, full stack development, version control, front end technologies, javascript, spring boot, java, git, design, full stack, software solutions, html, agile</v>
+        <v>React Native, Native, React Native Js</v>
       </c>
       <c r="V9" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W9" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Insurance</v>
       </c>
       <c r="X9" t="str">
         <v>Full Time, Permanent</v>
@@ -1131,15 +1122,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z9" t="str">
-        <v>3.7</v>
+        <v>4.0</v>
       </c>
       <c r="AA9" t="str">
-        <v>Minimum 2 years experience in Java Full Stack Development; proficiency in front-end technologies and RESTful API integration | Develop custom software solutions, collaborate with teams, and assist in documentation</v>
+        <v>Bachelor's degree in Computer Science; 4-6 years of experience in React Native development; strong problem-solving skills | Design, develop, and maintain mobile and web applications; troubleshoot technical issues; collaborate with team members</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-09T21:46:50.246Z</v>
+        <v>2026-01-11T12:37:32.245Z</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1148,7 +1139,7 @@
         <v>9/20</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-2-to-5-years-090126930110</v>
+        <v>https://www.naukri.com/job-listings-software-java-developer-creative-hands-hr-hyderabad-chennai-bengaluru-0-to-5-years-100126012778</v>
       </c>
       <c r="E10" t="str">
         <v>Yes</v>
@@ -1169,37 +1160,40 @@
         <v>Good Match</v>
       </c>
       <c r="K10" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L10" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M10" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Software-Java Developer</v>
       </c>
       <c r="N10" t="str">
-        <v>Accenture</v>
+        <v>Creative Hands HR</v>
       </c>
       <c r="O10" t="str">
-        <v>2 - 5 years</v>
+        <v>0 - 5 years</v>
       </c>
       <c r="P10" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q10" t="str">
-        <v>Bengaluru</v>
+        <v>Chennai</v>
       </c>
       <c r="R10" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S10" t="str">
-        <v>Less than 10</v>
+        <v>100</v>
+      </c>
+      <c r="T10" t="str">
+        <v>100+</v>
       </c>
       <c r="U10" t="str">
-        <v>software engineer, front end, kubernetes, css, api development, javascript, nosql, sql, docker, angular, spring boot, back end, database management, java, git, oops, full stack, web development, typescript, agile, aws, nosql databases</v>
+        <v>Java, Multithreading, Docker, Spring Boot, Collections, AWS, Microservices, Restful Web Api Development</v>
       </c>
       <c r="V10" t="str">
-        <v>Full Stack Developer</v>
+        <v>Software Development - Other</v>
       </c>
       <c r="W10" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1210,16 +1204,13 @@
       <c r="Y10" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z10" t="str">
-        <v>3.7</v>
-      </c>
       <c r="AA10" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern frameworks like Spring and Angular | Design, develop, and maintain web applications; collaborate with teams to deliver scalable solutions</v>
+        <v>Proficiency in Java and Spring Boot, strong understanding of multithreading and collections, experience with microservices and Docker | Develop and implement RESTful APIs, manage Docker environments, apply microservices design patterns</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-09T21:46:53.561Z</v>
+        <v>2026-01-11T12:37:44.555Z</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>10/20</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-pune-2-to-5-years-090126931461</v>
+        <v>https://www.naukri.com/job-listings-sr-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126004675</v>
       </c>
       <c r="E11" t="str">
         <v>Yes</v>
@@ -1249,57 +1240,57 @@
         <v>Good Match</v>
       </c>
       <c r="K11" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L11" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M11" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Sr Engineer Automation</v>
       </c>
       <c r="N11" t="str">
-        <v>Accenture</v>
+        <v>Empower</v>
       </c>
       <c r="O11" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P11" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q11" t="str">
-        <v>Pune</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R11" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S11" t="str">
-        <v>Less than 10</v>
+        <v>50+</v>
       </c>
       <c r="U11" t="str">
-        <v>software engineer, restful, software development, full stack development, version control, nosql, sql, angular, database management, java, git, web frameworks, api design, design, full stack, software solutions, agile, nosql databases</v>
+        <v>kubernetes, interpersonal skills, ssh, ssl, apache tomcat, docker, ansible, java, automation tools, apache, jboss, aws cloud, linux, jenkins, j2ee, debugging, shell scripting, perl, solaris, programming, communication skills, python, c, ftp, ant, weblogic, puppet, teamwork, troubleshooting, gitlab, aws, unix</v>
       </c>
       <c r="V11" t="str">
-        <v>Full Stack Developer</v>
+        <v>Site Reliability Engineer</v>
       </c>
       <c r="W11" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Financial Services</v>
       </c>
       <c r="X11" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y11" t="str">
-        <v>Software Development</v>
+        <v>DevOps</v>
       </c>
       <c r="Z11" t="str">
-        <v>3.7</v>
+        <v>4.0</v>
       </c>
       <c r="AA11" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in modern web frameworks like Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>B.S. in Computer Information Systems or Engineering; 4-6 years programming experience; 2+ years AWS cloud &amp; automation tools experience | Convince organization on architecture best practices; Create automated build infrastructure; Drive debugging and troubleshooting operations</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-09T21:46:57.181Z</v>
+        <v>2026-01-11T12:38:13.112Z</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1308,13 +1299,13 @@
         <v>11/20</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-2-to-5-years-090126930317</v>
+        <v>https://www.naukri.com/job-listings-asp-net-developer-full-stack-guntur-hyderabad-bookxpert-guntur-hyderabad-2-to-5-years-271124013249</v>
       </c>
       <c r="E12" t="str">
         <v>Yes</v>
       </c>
       <c r="F12" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G12" t="str">
         <v>Yes</v>
@@ -1323,22 +1314,22 @@
         <v>Yes</v>
       </c>
       <c r="I12" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J12" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K12" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L12" t="str">
         <v>Skipped</v>
       </c>
       <c r="M12" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Asp.Net Developer- Full Stack- Guntur/Hyderabad</v>
       </c>
       <c r="N12" t="str">
-        <v>Accenture</v>
+        <v>Bookxpert</v>
       </c>
       <c r="O12" t="str">
         <v>2 - 5 years</v>
@@ -1347,22 +1338,25 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q12" t="str">
-        <v>Chennai</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R12" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S12" t="str">
-        <v>Less than 10</v>
+        <v>5</v>
+      </c>
+      <c r="T12" t="str">
+        <v>100+</v>
       </c>
       <c r="U12" t="str">
-        <v>software engineer, restful, software development, nosql, sql, web development frameworks, angular, database management, java, git, api design, full stack, agile methodologies, software solutions, web development, agile, nosql databases</v>
+        <v>C#, My SQL/MS SQL Server Database, Asp.Net Web Api, Team Player, Net Fullstack, Analytical Skills, Planning Skills, Asp.Net Core Mvc, VB, Leadership Skills, Presentation Skills, Communication Skills, Coding, Javascript, React.Js</v>
       </c>
       <c r="V12" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W12" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Accounting / Auditing</v>
       </c>
       <c r="X12" t="str">
         <v>Full Time, Permanent</v>
@@ -1371,15 +1365,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z12" t="str">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AA12" t="str">
-        <v>Minimum 7.5 years of experience in Java Full Stack Development with proficiency in Spring and Angular | Develop custom software solutions, collaborate with teams, mentor junior members, and improve development processes</v>
+        <v>Strong hands-on experience with ASP.NET MVC/Core and C#, proficiency in JavaScript (ES6+), React.js, and TypeScript | Design, develop, and maintain applications; build front-end components; develop RESTful APIs; collaborate with teams; perform debugging and code reviews | Competitive salary and professional development opportunities</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-09T21:47:00.548Z</v>
+        <v>2026-01-11T12:38:16.420Z</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1388,7 +1382,7 @@
         <v>12/20</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930328</v>
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-tapza-technologies-warangal-hyderabad-3-to-7-years-100126036500</v>
       </c>
       <c r="E13" t="str">
         <v>Yes</v>
@@ -1409,37 +1403,40 @@
         <v>Good Match</v>
       </c>
       <c r="K13" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L13" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M13" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Senior Software Engineer</v>
       </c>
       <c r="N13" t="str">
-        <v>Accenture</v>
+        <v>Tapza Technologies</v>
       </c>
       <c r="O13" t="str">
-        <v>3 - 8 years</v>
+        <v>3 - 7 years</v>
       </c>
       <c r="P13" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q13" t="str">
-        <v>Bengaluru</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R13" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S13" t="str">
-        <v>Less than 10</v>
+        <v>2</v>
+      </c>
+      <c r="T13" t="str">
+        <v>100+</v>
       </c>
       <c r="U13" t="str">
-        <v>software engineer, restful, react, sql, microservices, java, git, webpack, kanban, mysql, mongodb, programming, azure, front end, oracle, software development, npm, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
+        <v>Node.Js, Javascript, Postgresql, Ci/Cd, Devops, Microservices, Laravel Php, Docker, Typescript, PHP, MongoDB, React.Js, AWS, Nestjs, Python</v>
       </c>
       <c r="V13" t="str">
-        <v>Full Stack Developer</v>
+        <v>Back End Developer</v>
       </c>
       <c r="W13" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1451,15 +1448,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z13" t="str">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA13" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with strong proficiency in Java and React.js | Design, develop, and maintain Java-based applications and microservices; collaborate in agile software development</v>
+        <v>3 to 7+ years of backend-focused software engineering experience with strong fundamentals in system design and data modeling | Design and build scalable backend systems, translate product requirements into system designs, and mentor junior engineers | Competitive compensation and meaningful ESOP as part of the founding team</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-09T21:47:03.818Z</v>
+        <v>2026-01-11T12:38:45.781Z</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1468,7 +1465,7 @@
         <v>13/20</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-chennai-3-to-8-years-090126930803</v>
+        <v>https://www.naukri.com/job-listings-java-back-end-developer-3-to-10-years-erudio-technologies-chennai-3-to-8-years-110126007341</v>
       </c>
       <c r="E14" t="str">
         <v>Yes</v>
@@ -1489,37 +1486,40 @@
         <v>Good Match</v>
       </c>
       <c r="K14" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L14" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M14" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Java Back End Developer (3 To 10 years)</v>
       </c>
       <c r="N14" t="str">
-        <v>Accenture</v>
+        <v>Erudio Technologies</v>
       </c>
       <c r="O14" t="str">
         <v>3 - 8 years</v>
       </c>
       <c r="P14" t="str">
-        <v>Not Disclosed</v>
+        <v>8-18 Lacs P.A.</v>
       </c>
       <c r="Q14" t="str">
         <v>Chennai</v>
       </c>
       <c r="R14" t="str">
-        <v>1 day ago</v>
+        <v>Just now</v>
       </c>
       <c r="S14" t="str">
-        <v>Less than 10</v>
+        <v>50</v>
+      </c>
+      <c r="T14" t="str">
+        <v>49</v>
       </c>
       <c r="U14" t="str">
-        <v>software engineer, front end, application developer, css, restful, business processes, agile development, hibernate, javascript, sql, spring framework, database management, java, full stack, software solutions, construction, html, agile</v>
+        <v>Javascript, Spring Boot, Microservices, Java, Hibernate, HTML, Java Fullstack, React.Js, Angular, SQL, Python</v>
       </c>
       <c r="V14" t="str">
-        <v>Full Stack Developer</v>
+        <v>Back End Developer</v>
       </c>
       <c r="W14" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1530,16 +1530,13 @@
       <c r="Y14" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z14" t="str">
-        <v>3.7</v>
-      </c>
       <c r="AA14" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in front-end technologies | Develop custom software solutions, engage in design and code reviews, and assist in documentation</v>
+        <v>Skilled Java Backend Developer with expertise in Java (8+), Spring Boot, and microservices architecture | Develop and maintain backend applications, design scalable microservices, and integrate RESTful APIs</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-09T21:47:07.081Z</v>
+        <v>2026-01-11T12:38:58.085Z</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1548,16 +1545,16 @@
         <v>14/20</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-indore-3-to-8-years-090126931329</v>
+        <v>https://www.naukri.com/job-listings-java-developers-openings-vedamcloud-technologies-bangalore-bengaluru-0-to-5-years-100126011241</v>
       </c>
       <c r="E15" t="str">
         <v>Yes</v>
       </c>
       <c r="F15" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G15" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H15" t="str">
         <v>Yes</v>
@@ -1569,34 +1566,37 @@
         <v>Poor Match</v>
       </c>
       <c r="K15" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L15" t="str">
         <v>Skipped</v>
       </c>
       <c r="M15" t="str">
-        <v>Custom Software Engineer</v>
+        <v>JAVA Developers Job Openings</v>
       </c>
       <c r="N15" t="str">
-        <v>Accenture</v>
+        <v>Vedamcloud Technologies</v>
       </c>
       <c r="O15" t="str">
-        <v>3 - 8 years</v>
+        <v>0 - 5 years</v>
       </c>
       <c r="P15" t="str">
-        <v>Not Disclosed</v>
+        <v>5-15 Lacs P.A.</v>
       </c>
       <c r="Q15" t="str">
-        <v>Indore</v>
+        <v>Bangalore/Bengaluru</v>
       </c>
       <c r="R15" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S15" t="str">
-        <v>Less than 10</v>
+        <v>6</v>
+      </c>
+      <c r="T15" t="str">
+        <v>100+</v>
       </c>
       <c r="U15" t="str">
-        <v>software engineer, front end, css, full stack development, version control, hibernate, javascript, web development frameworks, database management, java, git, postgresql, full stack, software solutions, mysql, web development, html, agile</v>
+        <v>SQL, Java, Oracle Apps Technical, Rice Components, Oracle Database, Java Programming, Java Web Services, J2Ee, Core Java Programming, J2Ee Development, JSP Servlets, XML Publisher Reports, Java Development, PLSQL, JDBC, Oracle, Core Java Development</v>
       </c>
       <c r="V15" t="str">
         <v>Full Stack Developer</v>
@@ -1610,16 +1610,13 @@
       <c r="Y15" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z15" t="str">
-        <v>3.7</v>
-      </c>
       <c r="AA15" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in web development frameworks like Spring and Hibernate | Develop custom software solutions, collaborate with cross-functional teams, and engage in continuous learning</v>
+        <v>Freshers with knowledge of Java and OOPS concepts | Work as a JAVA Developer for Indian clients</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-09T21:47:10.417Z</v>
+        <v>2026-01-11T12:39:01.342Z</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1628,7 +1625,7 @@
         <v>15/20</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931192</v>
+        <v>https://www.naukri.com/job-listings-ai-ml-engineer-worldclass-tech-talent-bengaluru-3-to-6-years-271025020222</v>
       </c>
       <c r="E16" t="str">
         <v>Yes</v>
@@ -1649,37 +1646,40 @@
         <v>Good Match</v>
       </c>
       <c r="K16" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L16" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M16" t="str">
-        <v>Custom Software Engineer</v>
+        <v>AI/ML Engineer</v>
       </c>
       <c r="N16" t="str">
-        <v>Accenture</v>
+        <v>Worldclass Tech Talent Pvt Ltd</v>
       </c>
       <c r="O16" t="str">
-        <v>3 - 8 years</v>
+        <v>3 - 6 years</v>
       </c>
       <c r="P16" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q16" t="str">
-        <v>Hyderabad</v>
+        <v>Bengaluru( BTM 2nd Stage )</v>
       </c>
       <c r="R16" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S16" t="str">
-        <v>Less than 10</v>
+        <v>1</v>
+      </c>
+      <c r="T16" t="str">
+        <v>50+</v>
       </c>
       <c r="U16" t="str">
-        <v>software engineer, rest, api development, restful, version control, user experience, sql, microservices, spring boot, database management, java, restful apis, git, microservices architecture, full stack, software solutions, agile, architecture</v>
+        <v>Python, Docker, PostgreSQL, LangChain, FastAPI/Flask, Microservices</v>
       </c>
       <c r="V16" t="str">
-        <v>Full Stack Developer</v>
+        <v>Data Platform Engineer</v>
       </c>
       <c r="W16" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1690,16 +1690,13 @@
       <c r="Y16" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z16" t="str">
-        <v>3.7</v>
-      </c>
       <c r="AA16" t="str">
-        <v>Minimum 3 years of experience in Spring Boot; BTech, MTech, or MCA in IT, CSE, EEE, or ECE | Develop custom software solutions and RESTful APIs; Collaborate with cross-functional teams and stakeholders</v>
+        <v>3+ years of experience in AI/ML with skills in Python, FastAPI/Flask, and LangChain | Develop and integrate backend solutions using Python and various databases</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-09T21:47:13.653Z</v>
+        <v>2026-01-11T12:39:13.640Z</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1708,7 +1705,7 @@
         <v>16/20</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-2-to-5-years-090126930327</v>
+        <v>https://www.naukri.com/job-listings-dot-net-developer-clama-india-pvt-ltd-thane-2-to-4-years-100126017165</v>
       </c>
       <c r="E17" t="str">
         <v>Yes</v>
@@ -1717,49 +1714,52 @@
         <v>Yes</v>
       </c>
       <c r="G17" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H17" t="str">
         <v>Yes</v>
       </c>
       <c r="I17" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J17" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K17" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L17" t="str">
         <v>Skipped</v>
       </c>
       <c r="M17" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Dot Net Developer</v>
       </c>
       <c r="N17" t="str">
-        <v>Accenture</v>
+        <v>Clama India Pvt. Ltd.</v>
       </c>
       <c r="O17" t="str">
-        <v>2 - 5 years</v>
+        <v>2 - 4 years</v>
       </c>
       <c r="P17" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q17" t="str">
-        <v>Hyderabad</v>
+        <v>Thane</v>
       </c>
       <c r="R17" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S17" t="str">
-        <v>Less than 10</v>
+        <v>1</v>
+      </c>
+      <c r="T17" t="str">
+        <v>50+</v>
       </c>
       <c r="U17" t="str">
-        <v>software engineer, front end, css, full stack development, front end technologies, user experience, hibernate, javascript, nosql, sql, back end, database management, java, design, full stack, html, aws, nosql databases</v>
+        <v>React.Js, Angular, Typescript, Javascript, Html/Css</v>
       </c>
       <c r="V17" t="str">
-        <v>Full Stack Developer</v>
+        <v>Front End Developer</v>
       </c>
       <c r="W17" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1770,16 +1770,13 @@
       <c r="Y17" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z17" t="str">
-        <v>3.7</v>
-      </c>
       <c r="AA17" t="str">
-        <v>Minimum 5 years of experience in Java Full Stack Development with proficiency in front-end technologies | Lead design, build, and configuration of applications; collaborate with teams and ensure timely delivery</v>
+        <v>3+ years of experience in .NET technologies, strong expertise in C# and Web APIs, and knowledge of React | Design, develop, and maintain web applications; develop RESTful APIs; collaborate with teams to deliver new features</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-09T21:47:16.925Z</v>
+        <v>2026-01-11T12:39:16.899Z</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1788,7 +1785,7 @@
         <v>17/20</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-hyderabad-3-to-8-years-090126931441</v>
+        <v>https://www.naukri.com/job-listings-software-engineers-in-canada-australia-germany-abroad-pathway-immigration-consultant-australia-canada-germany-3-to-8-years-100126014573</v>
       </c>
       <c r="E18" t="str">
         <v>Yes</v>
@@ -1797,28 +1794,28 @@
         <v>Yes</v>
       </c>
       <c r="G18" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H18" t="str">
         <v>Yes</v>
       </c>
       <c r="I18" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J18" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K18" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L18" t="str">
         <v>Skipped</v>
       </c>
       <c r="M18" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Software Engineers in Canada | Australia | Germany</v>
       </c>
       <c r="N18" t="str">
-        <v>Accenture</v>
+        <v>Abroad Pathway Immigration Consultant</v>
       </c>
       <c r="O18" t="str">
         <v>3 - 8 years</v>
@@ -1827,22 +1824,25 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q18" t="str">
-        <v>Hyderabad</v>
+        <v>Australia</v>
       </c>
       <c r="R18" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S18" t="str">
-        <v>Less than 10</v>
+        <v>32</v>
+      </c>
+      <c r="T18" t="str">
+        <v>100+</v>
       </c>
       <c r="U18" t="str">
-        <v>software engineer, front end, css, full stack development, version control, front end technologies, javascript, code quality, nosql, sql, spring boot, database management, java, git, full stack, software solutions, html, agile, nosql databases</v>
+        <v>Technical Lead, Back End Developer, Full Stack Developer, Software Engineering, Front End Developer, Application Programming, C#, Java, C++, SDLC, Application Development, Embedded Systems Engineer, Django, .Net, Software Design, Automation Architect, Software Programming, Python</v>
       </c>
       <c r="V18" t="str">
-        <v>Full Stack Developer</v>
+        <v>Software Development - Other</v>
       </c>
       <c r="W18" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Legal</v>
       </c>
       <c r="X18" t="str">
         <v>Full Time, Permanent</v>
@@ -1854,12 +1854,12 @@
         <v>3.7</v>
       </c>
       <c r="AA18" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development; proficiency in front-end technologies and database management | Develop custom software solutions, collaborate with teams, conduct code reviews</v>
+        <v>Experienced software engineer proficient in Java, Python, and C++ | Design, develop, and deploy high-quality software solutions while collaborating with cross-functional teams | Competitive pay and growth-focused benefits</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-09T21:47:20.178Z</v>
+        <v>2026-01-11T12:39:20.129Z</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1868,13 +1868,13 @@
         <v>18/20</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-gurugram-3-to-8-years-090126931749</v>
+        <v>https://www.naukri.com/job-listings-application-developer-tv-distribution-mumbai-2-to-5-years-100126010034</v>
       </c>
       <c r="E19" t="str">
         <v>Yes</v>
       </c>
       <c r="F19" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G19" t="str">
         <v>Yes</v>
@@ -1883,46 +1883,49 @@
         <v>Yes</v>
       </c>
       <c r="I19" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J19" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K19" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L19" t="str">
         <v>Skipped</v>
       </c>
       <c r="M19" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Application Developer</v>
       </c>
       <c r="N19" t="str">
-        <v>Accenture</v>
+        <v>Free Tv Distribution</v>
       </c>
       <c r="O19" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P19" t="str">
-        <v>Not Disclosed</v>
+        <v>6-8.4 Lacs P.A.</v>
       </c>
       <c r="Q19" t="str">
-        <v>Gurugram</v>
+        <v>Mumbai( Andheri East )</v>
       </c>
       <c r="R19" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S19" t="str">
-        <v>Less than 10</v>
+        <v>1</v>
+      </c>
+      <c r="T19" t="str">
+        <v>50+</v>
       </c>
       <c r="U19" t="str">
-        <v>software engineer, front end, application developer, restful, web services, version control, business processes, react, angular, database management, java, git, postgresql, full stack, software solutions, debugging, construction, mysql, agile</v>
+        <v>Application Development, Ios Development, kotlin, Android Tv, Ott, Java, Firebase, Samsung Ims</v>
       </c>
       <c r="V19" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W19" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Telecom / ISP</v>
       </c>
       <c r="X19" t="str">
         <v>Full Time, Permanent</v>
@@ -1930,16 +1933,13 @@
       <c r="Y19" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z19" t="str">
-        <v>3.7</v>
-      </c>
       <c r="AA19" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in RESTful web services and API integration | Develop custom software solutions, collaborate with teams, and ensure application performance</v>
+        <v>Experience in Kotlin/Java for Android TV and specialization in React Native | Maintain high-performance video applications across major Smart TV platforms like Samsung, LG, and Amazon</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-09T21:47:23.460Z</v>
+        <v>2026-01-11T12:39:23.472Z</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>19/20</v>
       </c>
       <c r="D20" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-bengaluru-3-to-8-years-090126930586</v>
+        <v>https://www.naukri.com/job-listings-senior-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126005070</v>
       </c>
       <c r="E20" t="str">
         <v>Yes</v>
@@ -1969,16 +1969,16 @@
         <v>Good Match</v>
       </c>
       <c r="K20" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L20" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M20" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Senior Engineer Automation</v>
       </c>
       <c r="N20" t="str">
-        <v>Accenture</v>
+        <v>Empower</v>
       </c>
       <c r="O20" t="str">
         <v>3 - 8 years</v>
@@ -1990,36 +1990,36 @@
         <v>Bengaluru</v>
       </c>
       <c r="R20" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S20" t="str">
-        <v>Less than 10</v>
+        <v>100+</v>
       </c>
       <c r="U20" t="str">
-        <v>software engineer, css, restful, react, sql, microservices, java, git, webpack, kanban, web development, azure, front end, oracle, software development, npm, javascript, sql server, angular, spring boot, restful apis, full stack, babel, scrum, agile</v>
+        <v>automation framework, rest, kubernetes, automation testing, cucumber, rbac, distribution system, software quality, selenium webdriver, microsoft, microservices, salesforce, environment, java, automation, selenium, json, microsoft graph, webdriver, typescript, api, gherkin, crm</v>
       </c>
       <c r="V20" t="str">
-        <v>Full Stack Developer</v>
+        <v>Automation Test Engineer</v>
       </c>
       <c r="W20" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Financial Services</v>
       </c>
       <c r="X20" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y20" t="str">
-        <v>Software Development</v>
+        <v>Quality Assurance and Testing</v>
       </c>
       <c r="Z20" t="str">
-        <v>3.7</v>
+        <v>4.0</v>
       </c>
       <c r="AA20" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with strong proficiency in Java and React.js | Design, develop, and maintain Java-based applications and microservices; collaborate with teams to deliver high-quality software</v>
+        <v>5-8+ years in software quality and test automation; strong proficiency in Java and TypeScript; experience with Gherkin/Cucumber and Selenium WebDriver | Drive quality execution across microservices; build and extend automation frameworks; perform manual and exploratory testing</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-09T21:47:26.839Z</v>
+        <v>2026-01-11T12:39:52.036Z</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>20/20</v>
       </c>
       <c r="D21" t="str">
-        <v>https://www.naukri.com/job-listings-custom-software-engineer-accenture-solutions-pvt-ltd-pune-3-to-8-years-090126931252</v>
+        <v>https://www.naukri.com/job-listings-ground-station-engineer-adani-group-hyderabad-3-to-7-years-100126017209</v>
       </c>
       <c r="E21" t="str">
         <v>Yes</v>
@@ -2049,52 +2049,52 @@
         <v>Good Match</v>
       </c>
       <c r="K21" t="str">
-        <v>External Apply</v>
+        <v>Direct Apply</v>
       </c>
       <c r="L21" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M21" t="str">
-        <v>Custom Software Engineer</v>
+        <v>Ground Station Engineer</v>
       </c>
       <c r="N21" t="str">
-        <v>Accenture</v>
+        <v>Adani Group</v>
       </c>
       <c r="O21" t="str">
-        <v>3 - 8 years</v>
+        <v>3 - 7 years</v>
       </c>
       <c r="P21" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q21" t="str">
-        <v>Pune</v>
+        <v>Hyderabad</v>
       </c>
       <c r="R21" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S21" t="str">
-        <v>Less than 10</v>
+        <v>33</v>
       </c>
       <c r="U21" t="str">
-        <v>software engineer, rest, css, rest api design, react, backend development, javascript, nosql, sql, docker, java, testing frameworks, api design, gcp, devops, full stack, software solutions, gitlab, typescript, agile, aws, azure, agile methodology</v>
+        <v>kubernetes, python, project management, electronics, sonarqube, plc, monitoring, scada, commissioning, sql server, ospf, docker, electricals, kafka, installation, scrum, telemetry, mysql, agile, aws, jira, agile methodology, architecture</v>
       </c>
       <c r="V21" t="str">
-        <v>Search Engineer</v>
+        <v>Transportation Engineer</v>
       </c>
       <c r="W21" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Defence &amp; Aerospace</v>
       </c>
       <c r="X21" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y21" t="str">
-        <v>Software Development</v>
+        <v>Construction Engineering</v>
       </c>
       <c r="Z21" t="str">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA21" t="str">
-        <v>Minimum 3 years of experience in Java Full Stack Development with proficiency in frontend and backend technologies | Develop custom software solutions, collaborate with teams, mentor junior members, and facilitate knowledge sharing</v>
+        <v>B Tech in electronics/electrical/mechanical with 2+ years of GCS development experience | Integrate GCS/MCS software, ensure technician training, and maintain GCS/MCS schedules</v>
       </c>
     </row>
   </sheetData>

--- a/naukri_results.xlsx
+++ b/naukri_results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-11T12:35:19.667Z</v>
+        <v>2026-01-12T03:35:04.187Z</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>Pune</v>
       </c>
       <c r="R2" t="str">
-        <v>Few hours ago</v>
+        <v>1 day ago</v>
       </c>
       <c r="S2" t="str">
         <v>5</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-11T12:35:48.959Z</v>
+        <v>2026-01-12T03:35:32.944Z</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>2/20</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.naukri.com/job-listings-manager-it-development-full-stack-trafigura-mumbai-0-to-3-years-100126000786</v>
+        <v>https://www.naukri.com/job-listings-full-stack-engineer-full-time-exaflair-technologies-mohali-chandigarh-zirakpur-1-to-3-years-110126007520</v>
       </c>
       <c r="E3" t="str">
         <v>Yes</v>
@@ -585,13 +585,13 @@
         <v>Yes</v>
       </c>
       <c r="G3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H3" t="str">
         <v>No</v>
       </c>
       <c r="I3" t="str">
-        <v>3/undefined</v>
+        <v>2/undefined</v>
       </c>
       <c r="J3" t="str">
         <v>Poor Match</v>
@@ -603,51 +603,51 @@
         <v>Skipped</v>
       </c>
       <c r="M3" t="str">
-        <v>Manager - IT Development Full Stack</v>
+        <v>Full Stack Engineer(full-time)</v>
       </c>
       <c r="N3" t="str">
-        <v>Trafigura</v>
+        <v>Exaflair Technologies</v>
       </c>
       <c r="O3" t="str">
-        <v>0 - 3 years</v>
+        <v>1 - 3 years</v>
       </c>
       <c r="P3" t="str">
-        <v>Not Disclosed</v>
+        <v>4-6 Lacs P.A.</v>
       </c>
       <c r="Q3" t="str">
-        <v>Mumbai</v>
+        <v>Mohali</v>
       </c>
       <c r="R3" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S3" t="str">
-        <v>100+</v>
+        <v>1</v>
+      </c>
+      <c r="T3" t="str">
+        <v>50+</v>
       </c>
       <c r="U3" t="str">
-        <v>continuous integration, aws iam, solution development, cloud technologies, microservices, react.js, java, ui, lean, design, digital, cd, python, development, gui testing, technology, spring boot, angular, node.js, re, application, lambda expressions, delivery management, web technologies, agile, aws</v>
+        <v>Typescript, SQL/NoSQL/PostgreSQL, Node.Js, React.Js, Nextjs, Express, Javascript, Github Actions, Tailwind Css, Vite</v>
       </c>
       <c r="V3" t="str">
-        <v>Head - Engineering</v>
+        <v>Application Engineer</v>
       </c>
       <c r="W3" t="str">
-        <v>Oil &amp; Gas</v>
+        <v>IT Services &amp; Consulting</v>
       </c>
       <c r="X3" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y3" t="str">
-        <v>Software Development</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>3.2</v>
+        <v>Engineering</v>
       </c>
       <c r="AA3" t="str">
-        <v>5+ years experience in digital product design and development; knowledge of Cloud Technologies and Web technologies (Angular, ReactJS, NodeJs, JAVA Spring Boot) | Assess existing processes, develop user stories, consult on product design, and monitor product performance</v>
+        <v>Bachelor's degree in Computer Science or related field; 1-3 years of full-stack development experience; strong skills in TypeScript/JavaScript, Next.js, and React | Develop and maintain full-stack features; build responsive frontend interfaces; implement backend logic and APIs | Competitive compensation based on experience and impact</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-11T12:35:52.374Z</v>
+        <v>2026-01-12T03:35:36.236Z</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>3/20</v>
       </c>
       <c r="D4" t="str">
-        <v>https://www.naukri.com/job-listings-full-stack-engineer-full-time-exaflair-technologies-mohali-chandigarh-zirakpur-1-to-3-years-110126007520</v>
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-java-great-west-global-business-services-bengaluru-3-to-8-years-110126005561</v>
       </c>
       <c r="E4" t="str">
         <v>Yes</v>
@@ -665,69 +665,69 @@
         <v>Yes</v>
       </c>
       <c r="G4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I4" t="str">
-        <v>2/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J4" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K4" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L4" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M4" t="str">
-        <v>Full Stack Engineer(full-time)</v>
+        <v>Senior Software Engineer - Java</v>
       </c>
       <c r="N4" t="str">
-        <v>Exaflair Technologies</v>
+        <v>Empower</v>
       </c>
       <c r="O4" t="str">
-        <v>1 - 3 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P4" t="str">
-        <v>4-6 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q4" t="str">
-        <v>Mohali</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R4" t="str">
-        <v>Just now</v>
+        <v>1 day ago</v>
       </c>
       <c r="S4" t="str">
-        <v>1</v>
-      </c>
-      <c r="T4" t="str">
-        <v>Less than 10</v>
+        <v>100+</v>
       </c>
       <c r="U4" t="str">
-        <v>Typescript, SQL/NoSQL/PostgreSQL, Node.Js, React.Js, Nextjs, Express, Javascript, Github Actions, Tailwind Css, Vite</v>
+        <v>continuous integration, kubernetes, analytical, concurrent, ci/cd, sql, plsql, database development, docker, spring, java, postgresql, multithreading, mysql, boot, communication skills, cd, rest, oracle, version control, maven, orm, spring boot framework, relational databases, gradle, scrum, agile, aws</v>
       </c>
       <c r="V4" t="str">
-        <v>Application Engineer</v>
+        <v>Full Stack Developer</v>
       </c>
       <c r="W4" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Financial Services</v>
       </c>
       <c r="X4" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y4" t="str">
-        <v>Engineering</v>
+        <v>Software Development</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>4.0</v>
       </c>
       <c r="AA4" t="str">
-        <v>Bachelor's degree in Computer Science or related field; 1-3 years of full-stack development experience; strong skills in TypeScript/JavaScript, Next.js, and React | Develop and maintain full-stack features; build responsive frontend interfaces; implement backend logic and APIs | Competitive compensation based on experience and impact</v>
+        <v>5+ years of back-end engineering experience in Java, Spring, and database development | Design, develop, and troubleshoot software features in an Agile/Scrum environment; lead coding efforts and participate in architectural discussions</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-11T12:35:55.626Z</v>
+        <v>2026-01-12T03:36:04.827Z</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>4/20</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.naukri.com/job-listings-senior-software-engineer-java-great-west-global-business-services-bengaluru-3-to-8-years-110126005561</v>
+        <v>https://www.naukri.com/job-listings-software-engineer-kayhan-space-bengaluru-2-to-5-years-110126005505</v>
       </c>
       <c r="E5" t="str">
         <v>Yes</v>
@@ -763,13 +763,13 @@
         <v>Applied</v>
       </c>
       <c r="M5" t="str">
-        <v>Senior Software Engineer - Java</v>
+        <v>Software Engineer</v>
       </c>
       <c r="N5" t="str">
-        <v>Empower</v>
+        <v>Kayhan Space</v>
       </c>
       <c r="O5" t="str">
-        <v>3 - 8 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P5" t="str">
         <v>Not Disclosed</v>
@@ -778,19 +778,22 @@
         <v>Bengaluru</v>
       </c>
       <c r="R5" t="str">
-        <v>Today</v>
+        <v>1 day ago</v>
       </c>
       <c r="S5" t="str">
+        <v>8</v>
+      </c>
+      <c r="T5" t="str">
         <v>100+</v>
       </c>
       <c r="U5" t="str">
-        <v>continuous integration, kubernetes, analytical, concurrent, ci/cd, sql, plsql, database development, docker, spring, java, postgresql, multithreading, mysql, boot, communication skills, cd, rest, oracle, version control, maven, orm, spring boot framework, relational databases, gradle, scrum, agile, aws</v>
+        <v>C, or high-volume timeseries data processing, astrodynamics, React.Js, Frontend Web Development, C++, Rust, Postgresql, MCP applications, Typescript, agentic workflows, containerized software deployment and Kubernetes, physics, LLM integrations, statistical analysis, Nextjs, AWS</v>
       </c>
       <c r="V5" t="str">
-        <v>Full Stack Developer</v>
+        <v>Software Development - Other</v>
       </c>
       <c r="W5" t="str">
-        <v>Financial Services</v>
+        <v>IT Services &amp; Consulting</v>
       </c>
       <c r="X5" t="str">
         <v>Full Time, Permanent</v>
@@ -798,16 +801,13 @@
       <c r="Y5" t="str">
         <v>Software Development</v>
       </c>
-      <c r="Z5" t="str">
-        <v>4.0</v>
-      </c>
       <c r="AA5" t="str">
-        <v>5+ years of back-end engineering experience in Java, Spring, and database development | Design, develop, and troubleshoot software features in an Agile/Scrum environment; lead coding efforts and participate in architectural discussions</v>
+        <v>Bachelor's degree in Computer Science, 2+ years in software development, strong Python and PostgreSQL skills | Design and maintain features for Satcat.com, build internal automation and dashboards, advocate for user experience excellence</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-11T12:36:24.187Z</v>
+        <v>2026-01-12T03:36:35.699Z</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>5/20</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.naukri.com/job-listings-it-full-stack-developer-rad-trafigura-mumbai-0-to-3-years-100126000785</v>
+        <v>https://www.naukri.com/job-listings-software-developer-react-native-chola-ms-chennai-3-to-7-years-110126005675</v>
       </c>
       <c r="E6" t="str">
         <v>Yes</v>
@@ -828,49 +828,52 @@
         <v>Yes</v>
       </c>
       <c r="H6" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I6" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J6" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K6" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L6" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M6" t="str">
-        <v>IT Full Stack Developer - RAD</v>
+        <v>Software Developer - React Native</v>
       </c>
       <c r="N6" t="str">
-        <v>Trafigura</v>
+        <v>Chola MS</v>
       </c>
       <c r="O6" t="str">
-        <v>0 - 3 years</v>
+        <v>3 - 7 years</v>
       </c>
       <c r="P6" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q6" t="str">
-        <v>Mumbai</v>
+        <v>Chennai</v>
       </c>
       <c r="R6" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S6" t="str">
+        <v>1</v>
+      </c>
+      <c r="T6" t="str">
         <v>100+</v>
       </c>
       <c r="U6" t="str">
-        <v>server, continuous integration, kubernetes, css, analytical, ci/cd, react.js, devops, asp.net, jenkins, end, typescript, api, graphql, communication skills, architecture, c#, cd, side, development, python, oracle, microsoft azure, javascript, sql server, angular, .net, scrum, gitlab, front, agile, aws, asp</v>
+        <v>React Native, Native, React Native Js</v>
       </c>
       <c r="V6" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W6" t="str">
-        <v>Oil &amp; Gas</v>
+        <v>Insurance</v>
       </c>
       <c r="X6" t="str">
         <v>Full Time, Permanent</v>
@@ -879,15 +882,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z6" t="str">
-        <v>3.2</v>
+        <v>4.0</v>
       </c>
       <c r="AA6" t="str">
-        <v>Bachelor's degree in Computer Science or related field with 8+ years of full stack development experience | Manage end-to-end development lifecycle, collaborate on technical design, and resolve high-severity issues</v>
+        <v>Bachelor's degree in Computer Science; 4-6 years of experience in React Native development; strong problem-solving skills | Design, develop, and maintain mobile and web applications; troubleshoot technical issues; collaborate with team members</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-11T12:36:27.520Z</v>
+        <v>2026-01-12T03:37:05.719Z</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -896,7 +899,7 @@
         <v>6/20</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.naukri.com/job-listings-software-engineer-kayhan-space-bengaluru-2-to-5-years-110126005505</v>
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-1-to-5-years-191225024168</v>
       </c>
       <c r="E7" t="str">
         <v>Yes</v>
@@ -923,37 +926,34 @@
         <v>Applied</v>
       </c>
       <c r="M7" t="str">
-        <v>Software Engineer</v>
+        <v>Software Engineer 1</v>
       </c>
       <c r="N7" t="str">
-        <v>Kayhan Space</v>
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
       </c>
       <c r="O7" t="str">
-        <v>2 - 5 years</v>
+        <v>1 - 5 years</v>
       </c>
       <c r="P7" t="str">
-        <v>Not Disclosed</v>
+        <v>10-15 Lacs P.A.</v>
       </c>
       <c r="Q7" t="str">
         <v>Bengaluru</v>
       </c>
       <c r="R7" t="str">
-        <v>Today</v>
+        <v>Few hours ago</v>
       </c>
       <c r="S7" t="str">
-        <v>8</v>
-      </c>
-      <c r="T7" t="str">
         <v>100+</v>
       </c>
       <c r="U7" t="str">
-        <v>C, or high-volume timeseries data processing, astrodynamics, React.Js, Frontend Web Development, C++, Rust, Postgresql, MCP applications, Typescript, agentic workflows, containerized software deployment and Kubernetes, physics, LLM integrations, statistical analysis, Nextjs, AWS</v>
+        <v>c#, css, python, software development, version control, interpersonal skills, microsoft azure, cloud platforms, javascript, cloud, software development life cycle, coding, java, git, gcp, scrum, debugging, html, software engineering, web development, agile, aws, programming, communication skills</v>
       </c>
       <c r="V7" t="str">
-        <v>Software Development - Other</v>
+        <v>Full Stack Developer</v>
       </c>
       <c r="W7" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Internet</v>
       </c>
       <c r="X7" t="str">
         <v>Full Time, Permanent</v>
@@ -961,13 +961,16 @@
       <c r="Y7" t="str">
         <v>Software Development</v>
       </c>
+      <c r="Z7" t="str">
+        <v>3.5</v>
+      </c>
       <c r="AA7" t="str">
-        <v>Bachelor's degree in Computer Science, 2+ years in software development, strong Python and PostgreSQL skills | Design and maintain features for Satcat.com, build internal automation and dashboards, advocate for user experience excellence</v>
+        <v>Bachelor's degree in Computer Science or related field; familiarity with Java, Python, JavaScript, or C#; strong problem-solving skills | Develop, test, and maintain software applications; collaborate with cross-functional teams; troubleshoot and resolve software defects | Competitive salary and benefits package</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-11T12:36:58.765Z</v>
+        <v>2026-01-12T03:37:34.646Z</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -976,13 +979,13 @@
         <v>7/20</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.naukri.com/job-listings-multiple-openings-java-linux-android-full-stack-ds-i-testing-hirex-consultancy-services-hyderabad-pune-bengaluru-3-to-8-years-110126006910</v>
+        <v>https://www.naukri.com/job-listings-sr-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126004675</v>
       </c>
       <c r="E8" t="str">
         <v>Yes</v>
       </c>
       <c r="F8" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G8" t="str">
         <v>Yes</v>
@@ -991,63 +994,63 @@
         <v>Yes</v>
       </c>
       <c r="I8" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J8" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K8" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L8" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M8" t="str">
-        <v>Multiple Openings | Java | Linux | Android | Full Stack | DS I Testing</v>
+        <v>Sr Engineer Automation</v>
       </c>
       <c r="N8" t="str">
-        <v>HiREx Consultancy Services</v>
+        <v>Empower</v>
       </c>
       <c r="O8" t="str">
         <v>3 - 8 years</v>
       </c>
       <c r="P8" t="str">
-        <v>8-18 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q8" t="str">
-        <v>Pune</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R8" t="str">
-        <v>Few hours ago</v>
+        <v>1 day ago</v>
       </c>
       <c r="S8" t="str">
-        <v>80</v>
-      </c>
-      <c r="T8" t="str">
-        <v>50+</v>
+        <v>100+</v>
       </c>
       <c r="U8" t="str">
-        <v>C++, Middleware, Linux, Fullstack Development, Automation Testing, Java, C, J2Ee, Mobile Application Development, Android, Application Development, Android Application Development, application, Frontend Development, Middleware Technologies, Linux Kernel</v>
+        <v>kubernetes, interpersonal skills, ssh, ssl, apache tomcat, docker, ansible, java, automation tools, apache, jboss, aws cloud, linux, jenkins, j2ee, debugging, shell scripting, perl, solaris, programming, communication skills, python, c, ftp, ant, weblogic, puppet, teamwork, troubleshooting, gitlab, aws, unix</v>
       </c>
       <c r="V8" t="str">
-        <v>Software Development - Other</v>
+        <v>Site Reliability Engineer</v>
       </c>
       <c r="W8" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Financial Services</v>
       </c>
       <c r="X8" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y8" t="str">
-        <v>Software Development</v>
+        <v>DevOps</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>4.0</v>
       </c>
       <c r="AA8" t="str">
-        <v>Experienced professionals in technology domains with skills in Java, Linux, and Middleware | Work on cutting-edge technologies and large-scale enterprise applications across various roles</v>
+        <v>B.S. in Computer Information Systems or Engineering; 4-6 years programming experience; 2+ years AWS cloud &amp; automation tools experience | Convince organization on architecture best practices; Create automated build infrastructure; Drive debugging and troubleshooting operations</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-11T12:37:02.104Z</v>
+        <v>2026-01-12T03:38:03.203Z</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>8/20</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.naukri.com/job-listings-software-developer-react-native-chola-ms-chennai-3-to-7-years-110126005675</v>
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-2-to-5-years-191225022966</v>
       </c>
       <c r="E9" t="str">
         <v>Yes</v>
@@ -1083,37 +1086,34 @@
         <v>Applied</v>
       </c>
       <c r="M9" t="str">
-        <v>Software Developer - React Native</v>
+        <v>Software Engineer 1</v>
       </c>
       <c r="N9" t="str">
-        <v>Chola MS</v>
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
       </c>
       <c r="O9" t="str">
-        <v>3 - 7 years</v>
+        <v>2 - 5 years</v>
       </c>
       <c r="P9" t="str">
-        <v>Not Disclosed</v>
+        <v>10-15 Lacs P.A.</v>
       </c>
       <c r="Q9" t="str">
-        <v>Chennai</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R9" t="str">
-        <v>Today</v>
+        <v>Few hours ago</v>
       </c>
       <c r="S9" t="str">
-        <v>1</v>
-      </c>
-      <c r="T9" t="str">
         <v>100+</v>
       </c>
       <c r="U9" t="str">
-        <v>React Native, Native, React Native Js</v>
+        <v>python, c++, software development, software testing, golang, kotlin, javascript, software development life cycle, coding, java, git, web technologies, scrum, software development methodologies, debugging, mysql, software engineering, agile, programming, communication skills, architecture</v>
       </c>
       <c r="V9" t="str">
         <v>Full Stack Developer</v>
       </c>
       <c r="W9" t="str">
-        <v>Insurance</v>
+        <v>Internet</v>
       </c>
       <c r="X9" t="str">
         <v>Full Time, Permanent</v>
@@ -1122,15 +1122,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z9" t="str">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AA9" t="str">
-        <v>Bachelor's degree in Computer Science; 4-6 years of experience in React Native development; strong problem-solving skills | Design, develop, and maintain mobile and web applications; troubleshoot technical issues; collaborate with team members</v>
+        <v>Bachelor’s degree in Computer Science or related field; familiarity with programming languages like Java, Python, C++, or JavaScript | Participate in design, development, testing, and maintenance of software applications; collaborate with teams to deliver effective solutions; write clean and efficient code</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-11T12:37:32.245Z</v>
+        <v>2026-01-12T03:38:31.775Z</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>9/20</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.naukri.com/job-listings-software-java-developer-creative-hands-hr-hyderabad-chennai-bengaluru-0-to-5-years-100126012778</v>
+        <v>https://www.naukri.com/job-listings-full-stack-developer-pune-candidates-only-clover-infotech-pune-3-to-5-years-110126000492</v>
       </c>
       <c r="E10" t="str">
         <v>Yes</v>
@@ -1166,34 +1166,34 @@
         <v>Applied</v>
       </c>
       <c r="M10" t="str">
-        <v>Software-Java Developer</v>
+        <v>Full Stack Developer- Pune candidates only</v>
       </c>
       <c r="N10" t="str">
-        <v>Creative Hands HR</v>
+        <v>Clover Infotech</v>
       </c>
       <c r="O10" t="str">
-        <v>0 - 5 years</v>
+        <v>3 - 5 years</v>
       </c>
       <c r="P10" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q10" t="str">
-        <v>Chennai</v>
+        <v>Pune</v>
       </c>
       <c r="R10" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S10" t="str">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="T10" t="str">
         <v>100+</v>
       </c>
       <c r="U10" t="str">
-        <v>Java, Multithreading, Docker, Spring Boot, Collections, AWS, Microservices, Restful Web Api Development</v>
+        <v>Vue.Js, Full Stack, Spring Boot, React.Js, Microservices</v>
       </c>
       <c r="V10" t="str">
-        <v>Software Development - Other</v>
+        <v>Full Stack Developer</v>
       </c>
       <c r="W10" t="str">
         <v>IT Services &amp; Consulting</v>
@@ -1204,13 +1204,16 @@
       <c r="Y10" t="str">
         <v>Software Development</v>
       </c>
+      <c r="Z10" t="str">
+        <v>3.4</v>
+      </c>
       <c r="AA10" t="str">
-        <v>Proficiency in Java and Spring Boot, strong understanding of multithreading and collections, experience with microservices and Docker | Develop and implement RESTful APIs, manage Docker environments, apply microservices design patterns</v>
+        <v>3 to 5 years of experience as a Full Stack Developer with skills in Vue.js or React.js, Spring Boot, and Microservices | Develop and maintain front-end and back-end applications, ensuring good database concepts | Max CTC of 7 LPA to 8 LPA based on technical feedback</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-11T12:37:44.555Z</v>
+        <v>2026-01-12T03:39:00.552Z</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1219,37 +1222,37 @@
         <v>10/20</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.naukri.com/job-listings-sr-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126004675</v>
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-nalgonda-3-to-8-years-120126500027</v>
       </c>
       <c r="E11" t="str">
         <v>Yes</v>
       </c>
       <c r="F11" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G11" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H11" t="str">
         <v>Yes</v>
       </c>
       <c r="I11" t="str">
-        <v>4/undefined</v>
+        <v>2/undefined</v>
       </c>
       <c r="J11" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K11" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L11" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M11" t="str">
-        <v>Sr Engineer Automation</v>
+        <v>SDE2</v>
       </c>
       <c r="N11" t="str">
-        <v>Empower</v>
+        <v>Amazon</v>
       </c>
       <c r="O11" t="str">
         <v>3 - 8 years</v>
@@ -1258,39 +1261,42 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q11" t="str">
-        <v>Bengaluru</v>
+        <v>Nalgonda</v>
       </c>
       <c r="R11" t="str">
         <v>Today</v>
       </c>
       <c r="S11" t="str">
-        <v>50+</v>
+        <v>1</v>
+      </c>
+      <c r="T11" t="str">
+        <v>Less than 10</v>
       </c>
       <c r="U11" t="str">
-        <v>kubernetes, interpersonal skills, ssh, ssl, apache tomcat, docker, ansible, java, automation tools, apache, jboss, aws cloud, linux, jenkins, j2ee, debugging, shell scripting, perl, solaris, programming, communication skills, python, c, ftp, ant, weblogic, puppet, teamwork, troubleshooting, gitlab, aws, unix</v>
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
       </c>
       <c r="V11" t="str">
-        <v>Site Reliability Engineer</v>
+        <v>Software Developer in Test (SDET)</v>
       </c>
       <c r="W11" t="str">
-        <v>Financial Services</v>
+        <v>Internet</v>
       </c>
       <c r="X11" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y11" t="str">
-        <v>DevOps</v>
+        <v>Quality Assurance and Testing</v>
       </c>
       <c r="Z11" t="str">
-        <v>4.0</v>
+        <v>3.9</v>
       </c>
       <c r="AA11" t="str">
-        <v>B.S. in Computer Information Systems or Engineering; 4-6 years programming experience; 2+ years AWS cloud &amp; automation tools experience | Convince organization on architecture best practices; Create automated build infrastructure; Drive debugging and troubleshooting operations</v>
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-11T12:38:13.112Z</v>
+        <v>2026-01-12T03:39:03.814Z</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1299,7 +1305,7 @@
         <v>11/20</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.naukri.com/job-listings-asp-net-developer-full-stack-guntur-hyderabad-bookxpert-guntur-hyderabad-2-to-5-years-271124013249</v>
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-kolar-3-to-8-years-120126500025</v>
       </c>
       <c r="E12" t="str">
         <v>Yes</v>
@@ -1308,72 +1314,72 @@
         <v>No</v>
       </c>
       <c r="G12" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="H12" t="str">
         <v>Yes</v>
       </c>
       <c r="I12" t="str">
-        <v>3/undefined</v>
+        <v>2/undefined</v>
       </c>
       <c r="J12" t="str">
         <v>Poor Match</v>
       </c>
       <c r="K12" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L12" t="str">
         <v>Skipped</v>
       </c>
       <c r="M12" t="str">
-        <v>Asp.Net Developer- Full Stack- Guntur/Hyderabad</v>
+        <v>SDE2</v>
       </c>
       <c r="N12" t="str">
-        <v>Bookxpert</v>
+        <v>Amazon</v>
       </c>
       <c r="O12" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P12" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q12" t="str">
-        <v>Hyderabad</v>
+        <v>Kolar</v>
       </c>
       <c r="R12" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S12" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="str">
-        <v>100+</v>
+        <v>Less than 10</v>
       </c>
       <c r="U12" t="str">
-        <v>C#, My SQL/MS SQL Server Database, Asp.Net Web Api, Team Player, Net Fullstack, Analytical Skills, Planning Skills, Asp.Net Core Mvc, VB, Leadership Skills, Presentation Skills, Communication Skills, Coding, Javascript, React.Js</v>
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
       </c>
       <c r="V12" t="str">
-        <v>Full Stack Developer</v>
+        <v>Software Developer in Test (SDET)</v>
       </c>
       <c r="W12" t="str">
-        <v>Accounting / Auditing</v>
+        <v>Internet</v>
       </c>
       <c r="X12" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y12" t="str">
-        <v>Software Development</v>
+        <v>Quality Assurance and Testing</v>
       </c>
       <c r="Z12" t="str">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AA12" t="str">
-        <v>Strong hands-on experience with ASP.NET MVC/Core and C#, proficiency in JavaScript (ES6+), React.js, and TypeScript | Design, develop, and maintain applications; build front-end components; develop RESTful APIs; collaborate with teams; perform debugging and code reviews | Competitive salary and professional development opportunities</v>
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-11T12:38:16.420Z</v>
+        <v>2026-01-12T03:39:07.209Z</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1382,7 +1388,7 @@
         <v>12/20</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.naukri.com/job-listings-senior-software-engineer-tapza-technologies-warangal-hyderabad-3-to-7-years-100126036500</v>
+        <v>https://www.naukri.com/job-listings-junior-software-engineer-swiggy-bengaluru-2-to-3-years-120126500004</v>
       </c>
       <c r="E13" t="str">
         <v>Yes</v>
@@ -1394,52 +1400,52 @@
         <v>Yes</v>
       </c>
       <c r="H13" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I13" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J13" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K13" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L13" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M13" t="str">
-        <v>Senior Software Engineer</v>
+        <v>Junior Software Engineer</v>
       </c>
       <c r="N13" t="str">
-        <v>Tapza Technologies</v>
+        <v>Swiggy</v>
       </c>
       <c r="O13" t="str">
-        <v>3 - 7 years</v>
+        <v>2 - 3 years</v>
       </c>
       <c r="P13" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q13" t="str">
-        <v>Hyderabad</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R13" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S13" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" t="str">
-        <v>100+</v>
+        <v>50+</v>
       </c>
       <c r="U13" t="str">
-        <v>Node.Js, Javascript, Postgresql, Ci/Cd, Devops, Microservices, Laravel Php, Docker, Typescript, PHP, MongoDB, React.Js, AWS, Nestjs, Python</v>
+        <v>css, c++, golang, bootstrap, hibernate, ajax, jquery, sql, spring, java, spring mvc, product quality, software solutions, j2ee, json, software engineering, html, mysql, rest, python, c, javascript, sql server, spring boot, angular, node.js, angularjs</v>
       </c>
       <c r="V13" t="str">
-        <v>Back End Developer</v>
+        <v>Head - Engineering</v>
       </c>
       <c r="W13" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Software Product</v>
       </c>
       <c r="X13" t="str">
         <v>Full Time, Permanent</v>
@@ -1448,15 +1454,15 @@
         <v>Software Development</v>
       </c>
       <c r="Z13" t="str">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AA13" t="str">
-        <v>3 to 7+ years of backend-focused software engineering experience with strong fundamentals in system design and data modeling | Design and build scalable backend systems, translate product requirements into system designs, and mentor junior engineers | Competitive compensation and meaningful ESOP as part of the founding team</v>
+        <v>Conduct code reviews to uphold code quality standards . Identify bugs and implement effective solutions using React Native . Write unit and integration tests using React Native Testing Library to ensure app reliability . Optimize applications for maximum speed and scalability . Work closely with cross-team developers to identify technical specifications .</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-11T12:38:45.781Z</v>
+        <v>2026-01-12T03:39:10.460Z</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1465,13 +1471,13 @@
         <v>13/20</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.naukri.com/job-listings-java-back-end-developer-3-to-10-years-erudio-technologies-chennai-3-to-8-years-110126007341</v>
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-swiggy-bengaluru-3-to-8-years-120126500021</v>
       </c>
       <c r="E14" t="str">
         <v>Yes</v>
       </c>
       <c r="F14" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G14" t="str">
         <v>Yes</v>
@@ -1480,63 +1486,66 @@
         <v>Yes</v>
       </c>
       <c r="I14" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J14" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K14" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L14" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M14" t="str">
-        <v>Java Back End Developer (3 To 10 years)</v>
+        <v>Senior Software Engineer</v>
       </c>
       <c r="N14" t="str">
-        <v>Erudio Technologies</v>
+        <v>Swiggy</v>
       </c>
       <c r="O14" t="str">
         <v>3 - 8 years</v>
       </c>
       <c r="P14" t="str">
-        <v>8-18 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q14" t="str">
-        <v>Chennai</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R14" t="str">
-        <v>Just now</v>
+        <v>Today</v>
       </c>
       <c r="S14" t="str">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="T14" t="str">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U14" t="str">
-        <v>Javascript, Spring Boot, Microservices, Java, Hibernate, HTML, Java Fullstack, React.Js, Angular, SQL, Python</v>
+        <v>project management, golang, rbac, networking, dbms, recovery, tpump, scalability, sql, coding, technical support, java, transport management, microsoft windows, installation, system performance, troubleshooting, software engineering, user management, sap hana</v>
       </c>
       <c r="V14" t="str">
-        <v>Back End Developer</v>
+        <v>Blockchain Quality Assurance Engineer</v>
       </c>
       <c r="W14" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Software Product</v>
       </c>
       <c r="X14" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y14" t="str">
-        <v>Software Development</v>
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>3.7</v>
       </c>
       <c r="AA14" t="str">
-        <v>Skilled Java Backend Developer with expertise in Java (8+), Spring Boot, and microservices architecture | Develop and maintain backend applications, design scalable microservices, and integrate RESTful APIs</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-11T12:38:58.085Z</v>
+        <v>2026-01-12T03:39:13.741Z</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1545,16 +1554,16 @@
         <v>14/20</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.naukri.com/job-listings-java-developers-openings-vedamcloud-technologies-bangalore-bengaluru-0-to-5-years-100126011241</v>
+        <v>https://www.naukri.com/job-listings-web-designer-rajuri-steel-pvt-ltd-koregaon-3-to-8-years-120126500008</v>
       </c>
       <c r="E15" t="str">
         <v>Yes</v>
       </c>
       <c r="F15" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G15" t="str">
         <v>No</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Yes</v>
       </c>
       <c r="H15" t="str">
         <v>Yes</v>
@@ -1566,57 +1575,60 @@
         <v>Poor Match</v>
       </c>
       <c r="K15" t="str">
-        <v>Direct Apply</v>
+        <v>External Apply</v>
       </c>
       <c r="L15" t="str">
         <v>Skipped</v>
       </c>
       <c r="M15" t="str">
-        <v>JAVA Developers Job Openings</v>
+        <v>Web Designer</v>
       </c>
       <c r="N15" t="str">
-        <v>Vedamcloud Technologies</v>
+        <v>Rajuri Steel</v>
       </c>
       <c r="O15" t="str">
-        <v>0 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P15" t="str">
-        <v>5-15 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q15" t="str">
-        <v>Bangalore/Bengaluru</v>
+        <v>Koregaon</v>
       </c>
       <c r="R15" t="str">
-        <v>1 day ago</v>
+        <v>Today</v>
       </c>
       <c r="S15" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T15" t="str">
-        <v>100+</v>
+        <v>Less than 10</v>
       </c>
       <c r="U15" t="str">
-        <v>SQL, Java, Oracle Apps Technical, Rice Components, Oracle Database, Java Programming, Java Web Services, J2Ee, Core Java Programming, J2Ee Development, JSP Servlets, XML Publisher Reports, Java Development, PLSQL, JDBC, Oracle, Core Java Development</v>
+        <v>css, interfaces, ux, wordpress, user interface designing, ui development, photoshop, bootstrap, imaging, javascript, jquery, visual design, multimedia, navigation, ui, computer science, graphic designing, responsive design, html, web development, web designing, seo</v>
       </c>
       <c r="V15" t="str">
-        <v>Full Stack Developer</v>
+        <v>Web Designer</v>
       </c>
       <c r="W15" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Iron &amp; Steel</v>
       </c>
       <c r="X15" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y15" t="str">
-        <v>Software Development</v>
+        <v>Other Design</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>4.7</v>
       </c>
       <c r="AA15" t="str">
-        <v>Freshers with knowledge of Java and OOPS concepts | Work as a JAVA Developer for Indian clients</v>
+        <v>Enhance the user experience by optimizing website navigation,layout,and overall usability . Design intuitive and engaging user interfaces that align with the companys branding and marketing goals . | This role involves creating visually appealing layouts,improving website functionality,and ensuring a seamless user experience across all devices .</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-11T12:39:01.342Z</v>
+        <v>2026-01-12T03:39:17.034Z</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1625,7 +1637,7 @@
         <v>15/20</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.naukri.com/job-listings-ai-ml-engineer-worldclass-tech-talent-bengaluru-3-to-6-years-271025020222</v>
+        <v>https://www.naukri.com/job-listings-senior-net-developer-gas-power-renewables-trafigura-mumbai-0-to-3-years-110126001568</v>
       </c>
       <c r="E16" t="str">
         <v>Yes</v>
@@ -1637,52 +1649,49 @@
         <v>Yes</v>
       </c>
       <c r="H16" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I16" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J16" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K16" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L16" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M16" t="str">
-        <v>AI/ML Engineer</v>
+        <v>Senior .NET Developer - Gas, Power &amp; Renewables</v>
       </c>
       <c r="N16" t="str">
-        <v>Worldclass Tech Talent Pvt Ltd</v>
+        <v>Trafigura</v>
       </c>
       <c r="O16" t="str">
-        <v>3 - 6 years</v>
+        <v>0 - 3 years</v>
       </c>
       <c r="P16" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q16" t="str">
-        <v>Bengaluru( BTM 2nd Stage )</v>
+        <v>Mumbai</v>
       </c>
       <c r="R16" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S16" t="str">
-        <v>1</v>
-      </c>
-      <c r="T16" t="str">
-        <v>50+</v>
+        <v>100+</v>
       </c>
       <c r="U16" t="str">
-        <v>Python, Docker, PostgreSQL, LangChain, FastAPI/Flask, Microservices</v>
+        <v>web services, analytical, etrm, platform development, storage, solid principles, design patterns, asp.net, scheduling, api, physical, commodity trading, c#, cd, process, software development, trade life cycle, sql server, javascript, transportation, angular, system, .net core, .net, aws, object</v>
       </c>
       <c r="V16" t="str">
-        <v>Data Platform Engineer</v>
+        <v>Full Stack Developer</v>
       </c>
       <c r="W16" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Oil &amp; Gas</v>
       </c>
       <c r="X16" t="str">
         <v>Full Time, Permanent</v>
@@ -1690,13 +1699,16 @@
       <c r="Y16" t="str">
         <v>Software Development</v>
       </c>
+      <c r="Z16" t="str">
+        <v>3.2</v>
+      </c>
       <c r="AA16" t="str">
-        <v>3+ years of experience in AI/ML with skills in Python, FastAPI/Flask, and LangChain | Develop and integrate backend solutions using Python and various databases</v>
+        <v>7+ years in software development with ETRM platform expertise, strong .NET skills, and experience in API integration | Design, develop, and maintain .NET applications for ETRM platforms; build integrations and collaborate with cross-functional teams</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-11T12:39:13.640Z</v>
+        <v>2026-01-12T03:39:20.372Z</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1705,7 +1717,7 @@
         <v>16/20</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.naukri.com/job-listings-dot-net-developer-clama-india-pvt-ltd-thane-2-to-4-years-100126017165</v>
+        <v>https://www.naukri.com/job-listings-senior-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126005070</v>
       </c>
       <c r="E17" t="str">
         <v>Yes</v>
@@ -1714,69 +1726,69 @@
         <v>Yes</v>
       </c>
       <c r="G17" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H17" t="str">
         <v>Yes</v>
       </c>
       <c r="I17" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J17" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K17" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L17" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M17" t="str">
-        <v>Dot Net Developer</v>
+        <v>Senior Engineer Automation</v>
       </c>
       <c r="N17" t="str">
-        <v>Clama India Pvt. Ltd.</v>
+        <v>Empower</v>
       </c>
       <c r="O17" t="str">
-        <v>2 - 4 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P17" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q17" t="str">
-        <v>Thane</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R17" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S17" t="str">
-        <v>1</v>
-      </c>
-      <c r="T17" t="str">
-        <v>50+</v>
+        <v>100+</v>
       </c>
       <c r="U17" t="str">
-        <v>React.Js, Angular, Typescript, Javascript, Html/Css</v>
+        <v>automation framework, rest, kubernetes, automation testing, cucumber, rbac, distribution system, software quality, selenium webdriver, microsoft, microservices, salesforce, environment, java, automation, selenium, json, microsoft graph, webdriver, typescript, api, gherkin, crm</v>
       </c>
       <c r="V17" t="str">
-        <v>Front End Developer</v>
+        <v>Automation Test Engineer</v>
       </c>
       <c r="W17" t="str">
-        <v>IT Services &amp; Consulting</v>
+        <v>Financial Services</v>
       </c>
       <c r="X17" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y17" t="str">
-        <v>Software Development</v>
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z17" t="str">
+        <v>4.0</v>
       </c>
       <c r="AA17" t="str">
-        <v>3+ years of experience in .NET technologies, strong expertise in C# and Web APIs, and knowledge of React | Design, develop, and maintain web applications; develop RESTful APIs; collaborate with teams to deliver new features</v>
+        <v>5-8+ years in software quality and test automation; strong proficiency in Java and TypeScript; experience with Gherkin/Cucumber and Selenium WebDriver | Drive quality execution across microservices; build and extend automation frameworks; perform manual and exploratory testing</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-11T12:39:16.899Z</v>
+        <v>2026-01-12T03:39:49.031Z</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1785,7 +1797,7 @@
         <v>17/20</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.naukri.com/job-listings-software-engineers-in-canada-australia-germany-abroad-pathway-immigration-consultant-australia-canada-germany-3-to-8-years-100126014573</v>
+        <v>https://www.naukri.com/job-listings-support-engineer-intermediate-equifax-pune-3-to-8-years-110126008349</v>
       </c>
       <c r="E18" t="str">
         <v>Yes</v>
@@ -1794,28 +1806,28 @@
         <v>Yes</v>
       </c>
       <c r="G18" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H18" t="str">
         <v>Yes</v>
       </c>
       <c r="I18" t="str">
-        <v>3/undefined</v>
+        <v>4/undefined</v>
       </c>
       <c r="J18" t="str">
-        <v>Poor Match</v>
+        <v>Good Match</v>
       </c>
       <c r="K18" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L18" t="str">
-        <v>Skipped</v>
+        <v>Applied</v>
       </c>
       <c r="M18" t="str">
-        <v>Software Engineers in Canada | Australia | Germany</v>
+        <v>Support Engineer - Intermediate</v>
       </c>
       <c r="N18" t="str">
-        <v>Abroad Pathway Immigration Consultant</v>
+        <v>Equifax</v>
       </c>
       <c r="O18" t="str">
         <v>3 - 8 years</v>
@@ -1824,42 +1836,39 @@
         <v>Not Disclosed</v>
       </c>
       <c r="Q18" t="str">
-        <v>Australia</v>
+        <v>Pune</v>
       </c>
       <c r="R18" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S18" t="str">
-        <v>32</v>
-      </c>
-      <c r="T18" t="str">
         <v>100+</v>
       </c>
       <c r="U18" t="str">
-        <v>Technical Lead, Back End Developer, Full Stack Developer, Software Engineering, Front End Developer, Application Programming, C#, Java, C++, SDLC, Application Development, Embedded Systems Engineer, Django, .Net, Software Design, Automation Architect, Software Programming, Python</v>
+        <v>continuous integration, public cloud, cd, kubernetes, python, ci/cd, microsoft azure, networking, software administration, database administration, docker, ansible, continuous delivery, system administration, java, jenkins, software engineering, terraform, bash, aws, communication skills</v>
       </c>
       <c r="V18" t="str">
-        <v>Software Development - Other</v>
+        <v>System Administrator / Engineer</v>
       </c>
       <c r="W18" t="str">
-        <v>Legal</v>
+        <v>Insurance</v>
       </c>
       <c r="X18" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y18" t="str">
-        <v>Software Development</v>
+        <v>IT Network</v>
       </c>
       <c r="Z18" t="str">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA18" t="str">
-        <v>Experienced software engineer proficient in Java, Python, and C++ | Design, develop, and deploy high-quality software solutions while collaborating with cross-functional teams | Competitive pay and growth-focused benefits</v>
+        <v>B.Tech/BE in Computer Science or related field with 5-7 years of experience in software engineering and public cloud administration | Manage system uptime, build infrastructure as code, and develop CI/CD pipelines | Comprehensive compensation and healthcare packages, attractive paid time off, and career growth opportunities</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-11T12:39:20.129Z</v>
+        <v>2026-01-12T03:40:19.013Z</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1868,7 +1877,7 @@
         <v>18/20</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.naukri.com/job-listings-application-developer-tv-distribution-mumbai-2-to-5-years-100126010034</v>
+        <v>https://www.naukri.com/job-listings-engineer-automation-quality-great-west-global-business-services-bengaluru-3-to-8-years-110126005018</v>
       </c>
       <c r="E19" t="str">
         <v>Yes</v>
@@ -1895,51 +1904,51 @@
         <v>Skipped</v>
       </c>
       <c r="M19" t="str">
-        <v>Application Developer</v>
+        <v>Engineer Automation Quality</v>
       </c>
       <c r="N19" t="str">
-        <v>Free Tv Distribution</v>
+        <v>Empower</v>
       </c>
       <c r="O19" t="str">
-        <v>2 - 5 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P19" t="str">
-        <v>6-8.4 Lacs P.A.</v>
+        <v>Not Disclosed</v>
       </c>
       <c r="Q19" t="str">
-        <v>Mumbai( Andheri East )</v>
+        <v>Bengaluru</v>
       </c>
       <c r="R19" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S19" t="str">
-        <v>1</v>
-      </c>
-      <c r="T19" t="str">
-        <v>50+</v>
+        <v>100+</v>
       </c>
       <c r="U19" t="str">
-        <v>Application Development, Ios Development, kotlin, Android Tv, Ott, Java, Firebase, Samsung Ims</v>
+        <v>analytical, cucumber, training, sql, java, automation, git, selenium, karate, ui, design, jenkins, debugging, api, requirement analysis, bdd framework, communication skills, jira, junit, bdd, software testing, automation testing, version control, documentation, database testing, estimation, testng</v>
       </c>
       <c r="V19" t="str">
-        <v>Full Stack Developer</v>
+        <v>Automation Test Engineer</v>
       </c>
       <c r="W19" t="str">
-        <v>Telecom / ISP</v>
+        <v>Financial Services</v>
       </c>
       <c r="X19" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y19" t="str">
-        <v>Software Development</v>
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>4.0</v>
       </c>
       <c r="AA19" t="str">
-        <v>Experience in Kotlin/Java for Android TV and specialization in React Native | Maintain high-performance video applications across major Smart TV platforms like Samsung, LG, and Amazon</v>
+        <v>2-4 years testing experience with 1-2 years in automation; proficiency in Java and automation tools like Selenium | Design, develop, and maintain automated test scripts; collaborate with teams to ensure quality assurance</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-11T12:39:23.472Z</v>
+        <v>2026-01-12T03:40:22.308Z</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1948,13 +1957,13 @@
         <v>19/20</v>
       </c>
       <c r="D20" t="str">
-        <v>https://www.naukri.com/job-listings-senior-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126005070</v>
+        <v>https://www.naukri.com/job-listings-ccna-network-support-chennai-max-8-lpa-5-days-work-apply-now-outpace-consulting-services-chennai-3-to-6-years-151025014128</v>
       </c>
       <c r="E20" t="str">
         <v>Yes</v>
       </c>
       <c r="F20" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G20" t="str">
         <v>Yes</v>
@@ -1963,63 +1972,63 @@
         <v>Yes</v>
       </c>
       <c r="I20" t="str">
-        <v>4/undefined</v>
+        <v>3/undefined</v>
       </c>
       <c r="J20" t="str">
-        <v>Good Match</v>
+        <v>Poor Match</v>
       </c>
       <c r="K20" t="str">
         <v>Direct Apply</v>
       </c>
       <c r="L20" t="str">
-        <v>Applied</v>
+        <v>Skipped</v>
       </c>
       <c r="M20" t="str">
-        <v>Senior Engineer Automation</v>
+        <v>CCNA : Network Support : Chennai : Max 8 LPA : 5 Days Work : Apply Now</v>
       </c>
       <c r="N20" t="str">
-        <v>Empower</v>
+        <v>Leading ITES Company</v>
       </c>
       <c r="O20" t="str">
-        <v>3 - 8 years</v>
+        <v>3 - 6 years</v>
       </c>
       <c r="P20" t="str">
-        <v>Not Disclosed</v>
+        <v>4-8 Lacs P.A.</v>
       </c>
       <c r="Q20" t="str">
-        <v>Bengaluru</v>
+        <v>Chennai</v>
       </c>
       <c r="R20" t="str">
-        <v>Today</v>
+        <v>1 day ago</v>
       </c>
       <c r="S20" t="str">
-        <v>100+</v>
+        <v>24</v>
+      </c>
+      <c r="T20" t="str">
+        <v>50</v>
       </c>
       <c r="U20" t="str">
-        <v>automation framework, rest, kubernetes, automation testing, cucumber, rbac, distribution system, software quality, selenium webdriver, microsoft, microservices, salesforce, environment, java, automation, selenium, json, microsoft graph, webdriver, typescript, api, gherkin, crm</v>
+        <v>DNS, CCNA, Movate, DHCP, OSPF, VMware, ETAS, Windows Server, TCS, Bgp Routing Protocol, Network Support, Troubleshooting, Cisco Routers, iOPEX, Infosys, Cloud Computing, OSI Model, AWS, tech mahindra, Microland, Network Engineering, Accenture, Routing, Bgp, Firewall, HCL, CCNP, CSS Corp</v>
       </c>
       <c r="V20" t="str">
-        <v>Automation Test Engineer</v>
+        <v>IT Network - Other</v>
       </c>
       <c r="W20" t="str">
-        <v>Financial Services</v>
+        <v>BPM / BPO</v>
       </c>
       <c r="X20" t="str">
         <v>Full Time, Permanent</v>
       </c>
       <c r="Y20" t="str">
-        <v>Quality Assurance and Testing</v>
-      </c>
-      <c r="Z20" t="str">
-        <v>4.0</v>
+        <v>IT Network</v>
       </c>
       <c r="AA20" t="str">
-        <v>5-8+ years in software quality and test automation; strong proficiency in Java and TypeScript; experience with Gherkin/Cucumber and Selenium WebDriver | Drive quality execution across microservices; build and extend automation frameworks; perform manual and exploratory testing</v>
+        <v>Minimum 3 years in Network Support with CCNA certification and Bachelor's degree | Provide first-level support for network outages, manage network systems, and ensure security policies</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-11T12:39:52.036Z</v>
+        <v>2026-01-12T03:40:25.551Z</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2028,7 +2037,7 @@
         <v>20/20</v>
       </c>
       <c r="D21" t="str">
-        <v>https://www.naukri.com/job-listings-ground-station-engineer-adani-group-hyderabad-3-to-7-years-100126017209</v>
+        <v>https://www.naukri.com/job-listings-ios-developer-ii-oyo-gurugram-3-to-8-years-110126007830</v>
       </c>
       <c r="E21" t="str">
         <v>Yes</v>
@@ -2055,51 +2064,6304 @@
         <v>Applied</v>
       </c>
       <c r="M21" t="str">
-        <v>Ground Station Engineer</v>
+        <v>iOS Developer II</v>
       </c>
       <c r="N21" t="str">
-        <v>Adani Group</v>
+        <v>OYO</v>
       </c>
       <c r="O21" t="str">
-        <v>3 - 7 years</v>
+        <v>3 - 8 years</v>
       </c>
       <c r="P21" t="str">
         <v>Not Disclosed</v>
       </c>
       <c r="Q21" t="str">
-        <v>Hyderabad</v>
+        <v>Gurugram</v>
       </c>
       <c r="R21" t="str">
         <v>1 day ago</v>
       </c>
       <c r="S21" t="str">
+        <v>2</v>
+      </c>
+      <c r="T21" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U21" t="str">
+        <v>UIKit / SwiftUI, CI/CD &amp; App Store Deployment, Ios Development, Performance Optimization &amp; Debugging, RESTful APIs Integration, Ios App, MVVM / MVC Architecture, Git / Version Control</v>
+      </c>
+      <c r="V21" t="str">
+        <v>Mobile / App Developer</v>
+      </c>
+      <c r="W21" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X21" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="AA21" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 3+ years of iOS development experience; strong proficiency in Swift and UIKit | Design, develop, and maintain iOS applications; collaborate with teams to define and ship features; ensure application performance and quality</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2026-01-12T03:41:01.238Z</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1/17</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://www.naukri.com/job-listings-fullstack-developer-legion-info-coimbatore-1-to-3-years-110126007585</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G22" t="str">
+        <v>No</v>
+      </c>
+      <c r="H22" t="str">
+        <v>No</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Fullstack Developer</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Legion Info</v>
+      </c>
+      <c r="O22" t="str">
+        <v>1 - 3 years</v>
+      </c>
+      <c r="P22" t="str">
+        <v>1.8-3 Lacs P.A.</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Coimbatore( Peelamedu )</v>
+      </c>
+      <c r="R22" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S22" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U22" t="str">
+        <v>Javascript, Node.Js, React.Js, English, Postgresql, Tamil</v>
+      </c>
+      <c r="V22" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W22" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X22" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>Experience in React.js and PostgreSQL | Develop user interfaces, ensure code quality, collaborate on projects, maintain databases | Health insurance provided</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2026-01-12T03:41:04.498Z</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2/17</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://www.naukri.com/job-listings-fullstack-engineer-sage-it-hyderabad-3-to-7-years-241225013435</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I23" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Fullstack Engineer</v>
+      </c>
+      <c r="N23" t="str">
+        <v>Sage IT</v>
+      </c>
+      <c r="O23" t="str">
+        <v>3 - 7 years</v>
+      </c>
+      <c r="P23" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Hyderabad</v>
+      </c>
+      <c r="R23" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S23" t="str">
+        <v>1</v>
+      </c>
+      <c r="T23" t="str">
+        <v>21</v>
+      </c>
+      <c r="U23" t="str">
+        <v>.Net Core, Azure, Typescript, AI, Angular, Python Scripting, PostgreSQL, Pyth</v>
+      </c>
+      <c r="V23" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W23" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X23" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>3-7 years of experience with .NET Core, Angular, PostgreSQL, and Azure Cloud; exposure to AI-driven automation; product-building mindset | Develop and maintain full-stack applications; build and deploy cloud solutions on Azure; work on AI automation and intelligent workflows; collaborate with product teams</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2026-01-12T03:41:38.446Z</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <v>3/17</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://www.naukri.com/job-listings-generative-ai-engineer-easemytrip-com-gurugram-1-to-4-years-120525010837</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F24" t="str">
+        <v>No</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I24" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Generative AI Engineer</v>
+      </c>
+      <c r="N24" t="str">
+        <v>Easemytrip</v>
+      </c>
+      <c r="O24" t="str">
+        <v>1 - 4 years</v>
+      </c>
+      <c r="P24" t="str">
+        <v>10-20 Lacs P.A.</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Gurugram</v>
+      </c>
+      <c r="R24" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S24" t="str">
+        <v>5</v>
+      </c>
+      <c r="T24" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U24" t="str">
+        <v>Artificial Intelligence, LLM, Conversational Ai, OpenAI, Python, Database Design, Serverless Architecture, Sentiment Analysis, Named entity, Backend Development, Prompt Engineering, Large Language Model, Chatgpt, GCP, Restful Application Programming, API, MongoDB, Dialogue state</v>
+      </c>
+      <c r="V24" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W24" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X24" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z24" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA24" t="str">
+        <v>Minimum 2 years in backend development with 1 year in LLMs or NLP systems; proficient in Python and frameworks like FastAPI or Django | Lead integration and optimization of LLMs for conversational travel agents; design prompts and workflows; develop backend services and manage databases</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2026-01-12T03:41:41.718Z</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
+        <v>4/17</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://www.naukri.com/job-listings-multiple-openings-java-linux-android-full-stack-ds-i-testing-hirex-consultancy-services-hyderabad-pune-bengaluru-3-to-8-years-110126006910</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F25" t="str">
+        <v>No</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I25" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Multiple Openings | Java | Linux | Android | Full Stack | DS I Testing</v>
+      </c>
+      <c r="N25" t="str">
+        <v>HiREx Consultancy Services</v>
+      </c>
+      <c r="O25" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P25" t="str">
+        <v>8-18 Lacs P.A.</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R25" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S25" t="str">
+        <v>80</v>
+      </c>
+      <c r="T25" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U25" t="str">
+        <v>C++, Middleware, Linux, Fullstack Development, Automation Testing, Java, C, J2Ee, Mobile Application Development, Android, Application Development, Android Application Development, application, Frontend Development, Middleware Technologies, Linux Kernel</v>
+      </c>
+      <c r="V25" t="str">
+        <v>Software Development - Other</v>
+      </c>
+      <c r="W25" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X25" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA25" t="str">
+        <v>Experienced professionals in technology domains with skills in Java, Linux, and Middleware | Work on cutting-edge technologies and large-scale enterprise applications across various roles</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2026-01-12T03:41:44.989Z</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
+        <v>5/17</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://www.naukri.com/job-listings-erp-next-frappe-developer-gurugram-dealsdray-online-gurugram-1-to-4-years-231124009688</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F26" t="str">
+        <v>No</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I26" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M26" t="str">
+        <v>ERP-Next &amp; Frappe Developer - Gurugram</v>
+      </c>
+      <c r="N26" t="str">
+        <v>Dealsdray Online</v>
+      </c>
+      <c r="O26" t="str">
+        <v>1 - 4 years</v>
+      </c>
+      <c r="P26" t="str">
+        <v>2-5 Lacs P.A.</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>Gurugram</v>
+      </c>
+      <c r="R26" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S26" t="str">
+        <v>5</v>
+      </c>
+      <c r="T26" t="str">
+        <v>44</v>
+      </c>
+      <c r="U26" t="str">
+        <v>ERP, Frappe, Python, css, Debugging, Javascript, html, JQuery, SQL</v>
+      </c>
+      <c r="V26" t="str">
+        <v>ERP Developer</v>
+      </c>
+      <c r="W26" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X26" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>Minimum 1 year experience with Frappe Framework and ERPNext; proficiency in Python; knowledge of SQL and relational databases | Develop and customize ERPNext applications, integrate ERP systems, troubleshoot issues, and provide technical support and training</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2026-01-12T03:41:48.270Z</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <v>6/17</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://www.naukri.com/job-listings-developer-driven-to-understand-business-and-work-with-cutting-edge-ai-forestai-remote-3-to-8-years-120126000262</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G27" t="str">
+        <v>No</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I27" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Developer driven To understand business and Work with cutting-edge AI</v>
+      </c>
+      <c r="N27" t="str">
+        <v>Forestai</v>
+      </c>
+      <c r="O27" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P27" t="str">
+        <v>24-48 Lacs P.A.</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>remote</v>
+      </c>
+      <c r="R27" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S27" t="str">
+        <v>1</v>
+      </c>
+      <c r="T27" t="str">
+        <v>16</v>
+      </c>
+      <c r="U27" t="str">
+        <v>Langchain, Typescript, English, Claude Code, Node.Js, Nextjs, AWS, Gemini, Business Analysis</v>
+      </c>
+      <c r="V27" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W27" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X27" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA27" t="str">
+        <v>Experience in full-stack development with expertise in Langchain, Typescript, Node.js, and AWS | Build AI-driven automation systems and deliver scalable solutions | Annual bonus included</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2026-01-12T03:41:51.541Z</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>7/17</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://www.naukri.com/job-listings-asp-net-web-developer-easemytrip-com-noida-3-to-8-years-210424002442</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F28" t="str">
+        <v>No</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Asp.Net Web Developer</v>
+      </c>
+      <c r="N28" t="str">
+        <v>Easemytrip</v>
+      </c>
+      <c r="O28" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P28" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Noida</v>
+      </c>
+      <c r="R28" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S28" t="str">
+        <v>20</v>
+      </c>
+      <c r="T28" t="str">
+        <v>21</v>
+      </c>
+      <c r="U28" t="str">
+        <v>C#, .Net, Asp.Net Core, Web Development, .Net Core, Web Api, C, Programming, WCF Services, JSON, Software Development, NoSQL, IIS Server, Coding, C#.Net, ASP, Web Technologies, Windows Services, SQL Server, Asp.Net Core Mvc, ASP.Net MVC, .NET Framework, SQL, IIS, Linux, XML, ASP.Net, API, MongoDB, WCF</v>
+      </c>
+      <c r="V28" t="str">
+        <v>Back End Developer</v>
+      </c>
+      <c r="W28" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X28" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>Minimum 3 years of backend development experience in ASP.Net, C#, and C++ | Design and develop scalable backend services, create RESTful APIs, and optimize application performance</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2026-01-12T03:41:54.796Z</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>8/17</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://www.naukri.com/job-listings-backend-python-developer-office-solutions-gurugram-1-to-6-years-110126006909</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F29" t="str">
+        <v>No</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Backend Python Developer</v>
+      </c>
+      <c r="N29" t="str">
+        <v>Office Solutions</v>
+      </c>
+      <c r="O29" t="str">
+        <v>1 - 6 years</v>
+      </c>
+      <c r="P29" t="str">
+        <v>2-3 Lacs P.A.</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>Gurugram</v>
+      </c>
+      <c r="R29" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S29" t="str">
+        <v>10</v>
+      </c>
+      <c r="T29" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U29" t="str">
+        <v>Fast Api, Pagination, Python Development, Crud, Flask, Python Web Framework, Python Framework, Python Flask, Flask Web Framework, MongoDB, Rest Api Services, Sqlalchemy, Python</v>
+      </c>
+      <c r="V29" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W29" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X29" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>Strong hands-on experience in FastAPI or Flask | Build REST APIs, handle databases, write clean scalable code, ensure security and performance, collaborate with frontend &amp; DevOps teams</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-12T03:41:58.057Z</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>9/17</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://www.naukri.com/job-listings-python-software-developer-aimbeyond-noida-3-to-5-years-110126007376</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F30" t="str">
+        <v>No</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I30" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L30" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Python Software Developer</v>
+      </c>
+      <c r="N30" t="str">
+        <v>Aimbeyond</v>
+      </c>
+      <c r="O30" t="str">
+        <v>3 - 5 years</v>
+      </c>
+      <c r="P30" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Noida</v>
+      </c>
+      <c r="R30" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S30" t="str">
+        <v>1</v>
+      </c>
+      <c r="T30" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U30" t="str">
+        <v>Python, Docker, SQL</v>
+      </c>
+      <c r="V30" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W30" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X30" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="AA30" t="str">
+        <v>3-5 years of experience in Python development with strong knowledge of Django, Flask, or FastAPI | Design, develop, and maintain Python applications; develop RESTful APIs; collaborate with cross-functional teams</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-12T03:42:01.315Z</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <v>10/17</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://www.naukri.com/job-listings-software-developer-vhr-professional-services-singapore-canada-united-states-usa-2-to-7-years-151024009066</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F31" t="str">
+        <v>No</v>
+      </c>
+      <c r="G31" t="str">
+        <v>No</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K31" t="str">
+        <v>No Apply Button</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M31" t="str">
+        <v>Software Developer</v>
+      </c>
+      <c r="N31" t="str">
+        <v>VHR Professional Services</v>
+      </c>
+      <c r="O31" t="str">
+        <v>2 - 7 years</v>
+      </c>
+      <c r="P31" t="str">
+        <v>35-50 Lacs P.A.</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>Singapore</v>
+      </c>
+      <c r="R31" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S31" t="str">
+        <v>5</v>
+      </c>
+      <c r="T31" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U31" t="str">
+        <v>Application Programming, Java, core java, Software Developer, Software Development, Unix, Data Structures, Operating Systems, JMS, Software Services, Linux, Project Management, Software Engineering, xml, Software, window</v>
+      </c>
+      <c r="V31" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W31" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X31" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="AA31" t="str">
+        <v>Experience in software development with skills in Java, Unix, and data structures | Research, design, implement, and manage software programs; test and evaluate new programs; identify and develop modifications for existing programs</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-12T03:42:04.560Z</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>11/17</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://www.naukri.com/job-listings-golang-developer-snapper-future-tech-mumbai-goregaon-3-to-8-years-110126007167</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F32" t="str">
+        <v>No</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I32" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Golang Developer</v>
+      </c>
+      <c r="N32" t="str">
+        <v>Snapper Future Tech</v>
+      </c>
+      <c r="O32" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P32" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="R32" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S32" t="str">
+        <v>2</v>
+      </c>
+      <c r="T32" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U32" t="str">
+        <v>Golang, Microservices, docker, Go programming language, Kubernetes, protobuf, In-memory Database, Stringer, Concurrent, Restful API, NoSQL, Revel, Go Framework, Slt, Godep, Grpc, Cryptography, Data Structures, Go routine, Godoc, Kubernetes Deployment, SQL, Algorithms, Nosql Databases, Gorilla Mux</v>
+      </c>
+      <c r="V32" t="str">
+        <v>Software Development - Other</v>
+      </c>
+      <c r="W32" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X32" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z32" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA32" t="str">
+        <v>3–5 years of experience in Golang with expertise in concurrency, APIs, and Docker/K8s | Build scalable backend systems and microservices</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-12T03:42:07.814Z</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>12/17</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://www.naukri.com/job-listings-software-devops-engineer-nest-digital-kochi-3-to-5-years-221225024598</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F33" t="str">
+        <v>No</v>
+      </c>
+      <c r="G33" t="str">
+        <v>No</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I33" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L33" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M33" t="str">
+        <v>Software DevOps Engineer</v>
+      </c>
+      <c r="N33" t="str">
+        <v>Nest Digital</v>
+      </c>
+      <c r="O33" t="str">
+        <v>3 - 5 years</v>
+      </c>
+      <c r="P33" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Kochi</v>
+      </c>
+      <c r="R33" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S33" t="str">
+        <v>1</v>
+      </c>
+      <c r="T33" t="str">
         <v>33</v>
       </c>
-      <c r="U21" t="str">
-        <v>kubernetes, python, project management, electronics, sonarqube, plc, monitoring, scada, commissioning, sql server, ospf, docker, electricals, kafka, installation, scrum, telemetry, mysql, agile, aws, jira, agile methodology, architecture</v>
-      </c>
-      <c r="V21" t="str">
-        <v>Transportation Engineer</v>
-      </c>
-      <c r="W21" t="str">
-        <v>Defence &amp; Aerospace</v>
-      </c>
-      <c r="X21" t="str">
-        <v>Full Time, Permanent</v>
-      </c>
-      <c r="Y21" t="str">
-        <v>Construction Engineering</v>
-      </c>
-      <c r="Z21" t="str">
-        <v>3.8</v>
-      </c>
-      <c r="AA21" t="str">
-        <v>B Tech in electronics/electrical/mechanical with 2+ years of GCS development experience | Integrate GCS/MCS software, ensure technician training, and maintain GCS/MCS schedules</v>
+      <c r="U33" t="str">
+        <v>Azure Cloud, Azure Devops, Linux Commands, Docker, Aks, Helm Charts, Kubernetes</v>
+      </c>
+      <c r="V33" t="str">
+        <v>BFSI, Investments &amp; Trading - Other</v>
+      </c>
+      <c r="W33" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X33" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>BFSI, Investments &amp; Trading - Other</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="AA33" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 1-3 years in DevOps; proficiency in Azure Cloud and CI/CD concepts | Design and maintain CI/CD pipelines; collaborate with teams; automate tasks; implement infrastructure as code</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-12T03:42:11.110Z</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>13/17</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://www.naukri.com/job-listings-android-developer-easemytrip-com-noida-gurugram-3-to-8-years-220424003255</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F34" t="str">
+        <v>No</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I34" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Android Developer</v>
+      </c>
+      <c r="N34" t="str">
+        <v>Easemytrip</v>
+      </c>
+      <c r="O34" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P34" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Noida</v>
+      </c>
+      <c r="R34" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S34" t="str">
+        <v>5</v>
+      </c>
+      <c r="T34" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U34" t="str">
+        <v>Android Architecture, Mobile Application Development, Kotlin, Android SDK, Android Studio, Mobile Security, Java, Firebase, Mobile Development, Android Development, JSON, Jetpack, Rest, Software Development, Emerging Technologies, API, Android Ui Design, Mobile Application Security</v>
+      </c>
+      <c r="V34" t="str">
+        <v>Mobile / App Developer</v>
+      </c>
+      <c r="W34" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X34" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>Proven software development experience with a strong portfolio in Android, proficiency in Android SDK and Kotlin | Lead design and development of Android applications, collaborate with teams, integrate APIs, conduct testing, and oversee mobile development lifecycle</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-12T03:42:14.419Z</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>14/17</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://www.naukri.com/job-listings-genesys-cloud-engineer-tata-consultancy-services-bengaluru-2-to-7-years-110126005867</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F35" t="str">
+        <v>No</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I35" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L35" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M35" t="str">
+        <v>Genesys Cloud Engineer</v>
+      </c>
+      <c r="N35" t="str">
+        <v>Tata Consultancy Services</v>
+      </c>
+      <c r="O35" t="str">
+        <v>2 - 7 years</v>
+      </c>
+      <c r="P35" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R35" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S35" t="str">
+        <v>6</v>
+      </c>
+      <c r="T35" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U35" t="str">
+        <v>Genesys Ivr, Cloud Support, Genesys Framework, AWS, Python, Avaya</v>
+      </c>
+      <c r="V35" t="str">
+        <v>Cloud System Administration</v>
+      </c>
+      <c r="W35" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X35" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>IT Infrastructure Services</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>Senior level developer with expertise in Genesys Cloud, APIs, event handling, and Voicebots/Chatbots development | Develop and manage Genesys Cloud solutions, including event handling and AI frameworks</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-12T03:42:17.645Z</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>15/17</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://www.naukri.com/job-listings-web-designer-easemytrip-com-noida-gurugram-2-to-7-years-220424001506</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I36" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K36" t="str">
+        <v>No Apply Button</v>
+      </c>
+      <c r="L36" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M36" t="str">
+        <v>Web Designer</v>
+      </c>
+      <c r="N36" t="str">
+        <v>Easemytrip</v>
+      </c>
+      <c r="O36" t="str">
+        <v>2 - 7 years</v>
+      </c>
+      <c r="P36" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>Noida</v>
+      </c>
+      <c r="R36" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S36" t="str">
+        <v>5</v>
+      </c>
+      <c r="T36" t="str">
+        <v>29</v>
+      </c>
+      <c r="U36" t="str">
+        <v>Angularjs, UX, HTML, Web Designing, Javascript, Ux Design, Ui/Ux, User Experience Design, Prototype, Product Design, Wireframe, Dreamweaver, User Interface Designing, Figma, Responsive Web Design, User Flows, JQuery Mobile, Corel Draw, Bootstrap, XHTML, Photoshop, Graphic Designing</v>
+      </c>
+      <c r="V36" t="str">
+        <v>UI / UX Designer</v>
+      </c>
+      <c r="W36" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X36" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>UI / UX</v>
+      </c>
+      <c r="Z36" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA36" t="str">
+        <v>Proven experience as a Web Designer with strong portfolio; proficiency in HTML5, CSS3, JavaScript, and Photoshop | Create attractive and functional websites; ensure responsive design and browser compatibility; collaborate with team members</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-12T03:42:20.926Z</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>16/17</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://www.naukri.com/job-listings-data-scientist-vhr-professional-services-singapore-canada-united-kingdom-uk-2-to-7-years-070521003493</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F37" t="str">
+        <v>No</v>
+      </c>
+      <c r="G37" t="str">
+        <v>No</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I37" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Data Scientist</v>
+      </c>
+      <c r="N37" t="str">
+        <v>vhr Professional Services</v>
+      </c>
+      <c r="O37" t="str">
+        <v>2 - 7 years</v>
+      </c>
+      <c r="P37" t="str">
+        <v>1-1.25 Cr P.A.</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Singapore</v>
+      </c>
+      <c r="R37" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S37" t="str">
+        <v>4</v>
+      </c>
+      <c r="T37" t="str">
+        <v>27</v>
+      </c>
+      <c r="U37" t="str">
+        <v>Data Scientist, Statistical Analysis, R, phython, MySQL, Data Mining, CRM</v>
+      </c>
+      <c r="V37" t="str">
+        <v>Data Scientist</v>
+      </c>
+      <c r="W37" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X37" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>Data Science &amp; Machine Learning</v>
+      </c>
+      <c r="AA37" t="str">
+        <v>Experience in R, Python, MySQL, and data visualization techniques | Combine models through ensemble modeling, propose solutions to business challenges, and collaborate with engineering and product teams</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2026-01-12T03:42:24.200Z</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <v>17/17</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://www.naukri.com/job-listings-senior-php-developer-binary-infoways-new-delhi-3-to-6-years-110126006628</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I38" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Senior Php Developer</v>
+      </c>
+      <c r="N38" t="str">
+        <v>Binary Infoways</v>
+      </c>
+      <c r="O38" t="str">
+        <v>3 - 6 years</v>
+      </c>
+      <c r="P38" t="str">
+        <v>4.2-5.4 Lacs P.A.</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>New Delhi( Anand Vihar )</v>
+      </c>
+      <c r="R38" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S38" t="str">
+        <v>1</v>
+      </c>
+      <c r="T38" t="str">
+        <v>29</v>
+      </c>
+      <c r="U38" t="str">
+        <v>Laravel, Core PHP, Codeigniter, Mvc Design Pattern, MVC Framework, MySQL, Javascript, CakePHP, HTML, Rest Api, Codeigniter Framework, Web Services</v>
+      </c>
+      <c r="V38" t="str">
+        <v>Back End Developer</v>
+      </c>
+      <c r="W38" t="str">
+        <v>BPM / BPO</v>
+      </c>
+      <c r="X38" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA38" t="str">
+        <v>Experience in PHP development with Laravel and CodeIgniter | Collaborate with teams on project requirements and develop PHP applications</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2026-01-12T03:43:02.171Z</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1/20</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://www.naukri.com/job-listings-java-full-stack-developers-infosoft-systems-pune-3-to-8-years-110126006457</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I39" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L39" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Java Full Stack Developers</v>
+      </c>
+      <c r="N39" t="str">
+        <v>Infosoft Systems</v>
+      </c>
+      <c r="O39" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P39" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R39" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S39" t="str">
+        <v>5</v>
+      </c>
+      <c r="T39" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U39" t="str">
+        <v>Java, Spring Boot, Java Fullstack, Microservices, Flutter, Mobile Development, Web Application Development, Angular, Mobile Application Development, SQL, Android Application Development, Rest, MySQL, Javascript, Web Application, React.Js, Android Studio, Web Development, Dart</v>
+      </c>
+      <c r="V39" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W39" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X39" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA39" t="str">
+        <v>5-6 years experience as a Java Full Stack Developer; proficiency in Java, Spring Boot, Hibernate, and front-end technologies like Angular or React | Design and maintain web and mobile applications; develop RESTful APIs; perform unit testing and debugging</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2026-01-12T03:43:31.071Z</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2/20</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://www.naukri.com/job-listings-full-stack-engineer-full-time-exaflair-technologies-mohali-chandigarh-zirakpur-1-to-3-years-110126007520</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G40" t="str">
+        <v>No</v>
+      </c>
+      <c r="H40" t="str">
+        <v>No</v>
+      </c>
+      <c r="I40" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Full Stack Engineer(full-time)</v>
+      </c>
+      <c r="N40" t="str">
+        <v>Exaflair Technologies</v>
+      </c>
+      <c r="O40" t="str">
+        <v>1 - 3 years</v>
+      </c>
+      <c r="P40" t="str">
+        <v>4-6 Lacs P.A.</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Mohali</v>
+      </c>
+      <c r="R40" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S40" t="str">
+        <v>1</v>
+      </c>
+      <c r="T40" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U40" t="str">
+        <v>Typescript, SQL/NoSQL/PostgreSQL, Node.Js, React.Js, Nextjs, Express, Javascript, Github Actions, Tailwind Css, Vite</v>
+      </c>
+      <c r="V40" t="str">
+        <v>Application Engineer</v>
+      </c>
+      <c r="W40" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X40" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="AA40" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 1-3 years of full-stack development experience; strong skills in TypeScript/JavaScript, Next.js, and React | Develop and maintain full-stack features; build responsive frontend interfaces; implement backend logic and APIs | Competitive compensation based on experience and impact</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2026-01-12T03:43:34.328Z</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <v>3/20</v>
+      </c>
+      <c r="D41" t="str">
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-java-great-west-global-business-services-bengaluru-3-to-8-years-110126005561</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I41" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Senior Software Engineer - Java</v>
+      </c>
+      <c r="N41" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O41" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P41" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R41" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S41" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U41" t="str">
+        <v>continuous integration, kubernetes, analytical, concurrent, ci/cd, sql, plsql, database development, docker, spring, java, postgresql, multithreading, mysql, boot, communication skills, cd, rest, oracle, version control, maven, orm, spring boot framework, relational databases, gradle, scrum, agile, aws</v>
+      </c>
+      <c r="V41" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W41" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X41" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z41" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA41" t="str">
+        <v>5+ years of back-end engineering experience in Java, Spring, and database development | Design, develop, and troubleshoot software features in an Agile/Scrum environment; lead coding efforts and participate in architectural discussions</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2026-01-12T03:44:02.875Z</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="str">
+        <v>4/20</v>
+      </c>
+      <c r="D42" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-kayhan-space-bengaluru-2-to-5-years-110126005505</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I42" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L42" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="N42" t="str">
+        <v>Kayhan Space</v>
+      </c>
+      <c r="O42" t="str">
+        <v>2 - 5 years</v>
+      </c>
+      <c r="P42" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R42" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S42" t="str">
+        <v>8</v>
+      </c>
+      <c r="T42" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U42" t="str">
+        <v>C, or high-volume timeseries data processing, astrodynamics, React.Js, Frontend Web Development, C++, Rust, Postgresql, MCP applications, Typescript, agentic workflows, containerized software deployment and Kubernetes, physics, LLM integrations, statistical analysis, Nextjs, AWS</v>
+      </c>
+      <c r="V42" t="str">
+        <v>Software Development - Other</v>
+      </c>
+      <c r="W42" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X42" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA42" t="str">
+        <v>Bachelor's degree in Computer Science, 2+ years in software development, strong Python and PostgreSQL skills | Design and maintain features for Satcat.com, build internal automation and dashboards, advocate for user experience excellence</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2026-01-12T03:44:31.663Z</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="str">
+        <v>5/20</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://www.naukri.com/job-listings-software-developer-react-native-chola-ms-chennai-3-to-7-years-110126005675</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I43" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Software Developer - React Native</v>
+      </c>
+      <c r="N43" t="str">
+        <v>Chola MS</v>
+      </c>
+      <c r="O43" t="str">
+        <v>3 - 7 years</v>
+      </c>
+      <c r="P43" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="R43" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S43" t="str">
+        <v>1</v>
+      </c>
+      <c r="T43" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U43" t="str">
+        <v>React Native, Native, React Native Js</v>
+      </c>
+      <c r="V43" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W43" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X43" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z43" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA43" t="str">
+        <v>Bachelor's degree in Computer Science; 4-6 years of experience in React Native development; strong problem-solving skills | Design, develop, and maintain mobile and web applications; troubleshoot technical issues; collaborate with team members</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2026-01-12T03:45:01.586Z</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="str">
+        <v>6/20</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-1-to-5-years-191225024168</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I44" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Software Engineer 1</v>
+      </c>
+      <c r="N44" t="str">
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
+      </c>
+      <c r="O44" t="str">
+        <v>1 - 5 years</v>
+      </c>
+      <c r="P44" t="str">
+        <v>10-15 Lacs P.A.</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R44" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S44" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U44" t="str">
+        <v>c#, css, python, software development, version control, interpersonal skills, microsoft azure, cloud platforms, javascript, cloud, software development life cycle, coding, java, git, gcp, scrum, debugging, html, software engineering, web development, agile, aws, programming, communication skills</v>
+      </c>
+      <c r="V44" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W44" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X44" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z44" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA44" t="str">
+        <v>Bachelor's degree in Computer Science or related field; familiarity with Java, Python, JavaScript, or C#; strong problem-solving skills | Develop, test, and maintain software applications; collaborate with cross-functional teams; troubleshoot and resolve software defects | Competitive salary and benefits package</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2026-01-12T03:45:30.341Z</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="str">
+        <v>7/20</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://www.naukri.com/job-listings-sr-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126004675</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I45" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Sr Engineer Automation</v>
+      </c>
+      <c r="N45" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O45" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P45" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R45" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S45" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U45" t="str">
+        <v>kubernetes, interpersonal skills, ssh, ssl, apache tomcat, docker, ansible, java, automation tools, apache, jboss, aws cloud, linux, jenkins, j2ee, debugging, shell scripting, perl, solaris, programming, communication skills, python, c, ftp, ant, weblogic, puppet, teamwork, troubleshooting, gitlab, aws, unix</v>
+      </c>
+      <c r="V45" t="str">
+        <v>Site Reliability Engineer</v>
+      </c>
+      <c r="W45" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X45" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y45" t="str">
+        <v>DevOps</v>
+      </c>
+      <c r="Z45" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA45" t="str">
+        <v>B.S. in Computer Information Systems or Engineering; 4-6 years programming experience; 2+ years AWS cloud &amp; automation tools experience | Convince organization on architecture best practices; Create automated build infrastructure; Drive debugging and troubleshooting operations</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2026-01-12T03:45:58.909Z</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="str">
+        <v>8/20</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-2-to-5-years-191225022966</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I46" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Software Engineer 1</v>
+      </c>
+      <c r="N46" t="str">
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
+      </c>
+      <c r="O46" t="str">
+        <v>2 - 5 years</v>
+      </c>
+      <c r="P46" t="str">
+        <v>10-15 Lacs P.A.</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R46" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S46" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U46" t="str">
+        <v>python, c++, software development, software testing, golang, kotlin, javascript, software development life cycle, coding, java, git, web technologies, scrum, software development methodologies, debugging, mysql, software engineering, agile, programming, communication skills, architecture</v>
+      </c>
+      <c r="V46" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W46" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X46" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z46" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA46" t="str">
+        <v>Bachelor’s degree in Computer Science or related field; familiarity with programming languages like Java, Python, C++, or JavaScript | Participate in design, development, testing, and maintenance of software applications; collaborate with teams to deliver effective solutions; write clean and efficient code</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2026-01-12T03:46:27.466Z</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
+        <v>9/20</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://www.naukri.com/job-listings-full-stack-developer-pune-candidates-only-clover-infotech-pune-3-to-5-years-110126000492</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I47" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Full Stack Developer- Pune candidates only</v>
+      </c>
+      <c r="N47" t="str">
+        <v>Clover Infotech</v>
+      </c>
+      <c r="O47" t="str">
+        <v>3 - 5 years</v>
+      </c>
+      <c r="P47" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R47" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S47" t="str">
+        <v>2</v>
+      </c>
+      <c r="T47" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U47" t="str">
+        <v>Vue.Js, Full Stack, Spring Boot, React.Js, Microservices</v>
+      </c>
+      <c r="V47" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W47" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X47" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z47" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA47" t="str">
+        <v>3 to 5 years of experience as a Full Stack Developer with skills in Vue.js or React.js, Spring Boot, and Microservices | Develop and maintain front-end and back-end applications, ensuring good database concepts | Max CTC of 7 LPA to 8 LPA based on technical feedback</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2026-01-12T03:46:56.219Z</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
+        <v>10/20</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-nalgonda-3-to-8-years-120126500027</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F48" t="str">
+        <v>No</v>
+      </c>
+      <c r="G48" t="str">
+        <v>No</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I48" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K48" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M48" t="str">
+        <v>SDE2</v>
+      </c>
+      <c r="N48" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="O48" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P48" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>Nalgonda</v>
+      </c>
+      <c r="R48" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S48" t="str">
+        <v>1</v>
+      </c>
+      <c r="T48" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U48" t="str">
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
+      </c>
+      <c r="V48" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W48" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X48" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z48" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="AA48" t="str">
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2026-01-12T03:46:59.483Z</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="str">
+        <v>11/20</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-kolar-3-to-8-years-120126500025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F49" t="str">
+        <v>No</v>
+      </c>
+      <c r="G49" t="str">
+        <v>No</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I49" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K49" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M49" t="str">
+        <v>SDE2</v>
+      </c>
+      <c r="N49" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="O49" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P49" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>Kolar</v>
+      </c>
+      <c r="R49" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S49" t="str">
+        <v>1</v>
+      </c>
+      <c r="T49" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U49" t="str">
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
+      </c>
+      <c r="V49" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W49" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X49" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z49" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="AA49" t="str">
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2026-01-12T03:47:02.765Z</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>12/20</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://www.naukri.com/job-listings-junior-software-engineer-swiggy-bengaluru-2-to-3-years-120126500004</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H50" t="str">
+        <v>No</v>
+      </c>
+      <c r="I50" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K50" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Junior Software Engineer</v>
+      </c>
+      <c r="N50" t="str">
+        <v>Swiggy</v>
+      </c>
+      <c r="O50" t="str">
+        <v>2 - 3 years</v>
+      </c>
+      <c r="P50" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R50" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S50" t="str">
+        <v>1</v>
+      </c>
+      <c r="T50" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U50" t="str">
+        <v>css, c++, golang, bootstrap, hibernate, ajax, jquery, sql, spring, java, spring mvc, product quality, software solutions, j2ee, json, software engineering, html, mysql, rest, python, c, javascript, sql server, spring boot, angular, node.js, angularjs</v>
+      </c>
+      <c r="V50" t="str">
+        <v>Head - Engineering</v>
+      </c>
+      <c r="W50" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X50" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y50" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z50" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="AA50" t="str">
+        <v>Conduct code reviews to uphold code quality standards . Identify bugs and implement effective solutions using React Native . Write unit and integration tests using React Native Testing Library to ensure app reliability . Optimize applications for maximum speed and scalability . Work closely with cross-team developers to identify technical specifications .</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2026-01-12T03:47:06.043Z</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
+        <v>13/20</v>
+      </c>
+      <c r="D51" t="str">
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-swiggy-bengaluru-3-to-8-years-120126500021</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F51" t="str">
+        <v>No</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I51" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K51" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M51" t="str">
+        <v>Senior Software Engineer</v>
+      </c>
+      <c r="N51" t="str">
+        <v>Swiggy</v>
+      </c>
+      <c r="O51" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P51" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R51" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S51" t="str">
+        <v>1</v>
+      </c>
+      <c r="T51" t="str">
+        <v>18</v>
+      </c>
+      <c r="U51" t="str">
+        <v>project management, golang, rbac, networking, dbms, recovery, tpump, scalability, sql, coding, technical support, java, transport management, microsoft windows, installation, system performance, troubleshooting, software engineering, user management, sap hana</v>
+      </c>
+      <c r="V51" t="str">
+        <v>Blockchain Quality Assurance Engineer</v>
+      </c>
+      <c r="W51" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X51" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y51" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z51" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="AA51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2026-01-12T03:47:09.653Z</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="str">
+        <v>14/20</v>
+      </c>
+      <c r="D52" t="str">
+        <v>https://www.naukri.com/job-listings-senior-net-developer-gas-power-renewables-trafigura-mumbai-0-to-3-years-110126001568</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H52" t="str">
+        <v>No</v>
+      </c>
+      <c r="I52" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M52" t="str">
+        <v>Senior .NET Developer - Gas, Power &amp; Renewables</v>
+      </c>
+      <c r="N52" t="str">
+        <v>Trafigura</v>
+      </c>
+      <c r="O52" t="str">
+        <v>0 - 3 years</v>
+      </c>
+      <c r="P52" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="R52" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S52" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U52" t="str">
+        <v>web services, analytical, etrm, platform development, storage, solid principles, design patterns, asp.net, scheduling, api, physical, commodity trading, c#, cd, process, software development, trade life cycle, sql server, javascript, transportation, angular, system, .net core, .net, aws, object</v>
+      </c>
+      <c r="V52" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W52" t="str">
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="X52" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y52" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z52" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="AA52" t="str">
+        <v>7+ years in software development with ETRM platform expertise, strong .NET skills, and experience in API integration | Design, develop, and maintain .NET applications for ETRM platforms; build integrations and collaborate with cross-functional teams</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2026-01-12T03:47:13.231Z</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="str">
+        <v>15/20</v>
+      </c>
+      <c r="D53" t="str">
+        <v>https://www.naukri.com/job-listings-senior-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126005070</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I53" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M53" t="str">
+        <v>Senior Engineer Automation</v>
+      </c>
+      <c r="N53" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O53" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P53" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R53" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S53" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U53" t="str">
+        <v>automation framework, rest, kubernetes, automation testing, cucumber, rbac, distribution system, software quality, selenium webdriver, microsoft, microservices, salesforce, environment, java, automation, selenium, json, microsoft graph, webdriver, typescript, api, gherkin, crm</v>
+      </c>
+      <c r="V53" t="str">
+        <v>Automation Test Engineer</v>
+      </c>
+      <c r="W53" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X53" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y53" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z53" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA53" t="str">
+        <v>5-8+ years in software quality and test automation; strong proficiency in Java and TypeScript; experience with Gherkin/Cucumber and Selenium WebDriver | Drive quality execution across microservices; build and extend automation frameworks; perform manual and exploratory testing</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2026-01-12T03:47:41.962Z</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>16/20</v>
+      </c>
+      <c r="D54" t="str">
+        <v>https://www.naukri.com/job-listings-support-engineer-intermediate-equifax-pune-3-to-8-years-110126008349</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I54" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M54" t="str">
+        <v>Support Engineer - Intermediate</v>
+      </c>
+      <c r="N54" t="str">
+        <v>Equifax</v>
+      </c>
+      <c r="O54" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P54" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R54" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S54" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U54" t="str">
+        <v>continuous integration, public cloud, cd, kubernetes, python, ci/cd, microsoft azure, networking, software administration, database administration, docker, ansible, continuous delivery, system administration, java, jenkins, software engineering, terraform, bash, aws, communication skills</v>
+      </c>
+      <c r="V54" t="str">
+        <v>System Administrator / Engineer</v>
+      </c>
+      <c r="W54" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X54" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y54" t="str">
+        <v>IT Network</v>
+      </c>
+      <c r="Z54" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA54" t="str">
+        <v>B.Tech/BE in Computer Science or related field with 5-7 years of experience in software engineering and public cloud administration | Manage system uptime, build infrastructure as code, and develop CI/CD pipelines | Comprehensive compensation and healthcare packages, attractive paid time off, and career growth opportunities</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2026-01-12T03:48:11.855Z</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>17/20</v>
+      </c>
+      <c r="D55" t="str">
+        <v>https://www.naukri.com/job-listings-data-engineer-career-equifax-pune-3-to-8-years-120126001029</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I55" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M55" t="str">
+        <v>Data Engineer - Career</v>
+      </c>
+      <c r="N55" t="str">
+        <v>Equifax</v>
+      </c>
+      <c r="O55" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P55" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R55" t="str">
+        <v>Just now</v>
+      </c>
+      <c r="S55" t="str">
+        <v>16</v>
+      </c>
+      <c r="U55" t="str">
+        <v>continuous integration, cd, python, cloud security, data management, analytical, ci/cd, data pipeline, data engineering, artificial intelligence, sql, analytics, cloud, data quality, scripting, git, gcp, data integration tools, data visualization, cloud computing, programming, reporting, ml</v>
+      </c>
+      <c r="V55" t="str">
+        <v>Data Engineer</v>
+      </c>
+      <c r="W55" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X55" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y55" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z55" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA55" t="str">
+        <v>BS degree in STEM or equivalent; 5+ years as a data engineer; advanced Python or SQL skills | Develop data quality models, build data pipelines, and mentor junior engineers | Comprehensive compensation and healthcare packages, attractive paid time off</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2026-01-12T03:48:41.779Z</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <v>18/20</v>
+      </c>
+      <c r="D56" t="str">
+        <v>https://www.naukri.com/job-listings-engineer-automation-quality-great-west-global-business-services-bengaluru-3-to-8-years-110126005018</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F56" t="str">
+        <v>No</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I56" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M56" t="str">
+        <v>Engineer Automation Quality</v>
+      </c>
+      <c r="N56" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O56" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P56" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R56" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S56" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U56" t="str">
+        <v>analytical, cucumber, training, sql, java, automation, git, selenium, karate, ui, design, jenkins, debugging, api, requirement analysis, bdd framework, communication skills, jira, junit, bdd, software testing, automation testing, version control, documentation, database testing, estimation, testng</v>
+      </c>
+      <c r="V56" t="str">
+        <v>Automation Test Engineer</v>
+      </c>
+      <c r="W56" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X56" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y56" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z56" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA56" t="str">
+        <v>2-4 years testing experience with 1-2 years in automation; proficiency in Java and automation tools like Selenium | Design, develop, and maintain automated test scripts; collaborate with teams to ensure quality assurance</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2026-01-12T03:48:45.028Z</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="str">
+        <v>19/20</v>
+      </c>
+      <c r="D57" t="str">
+        <v>https://www.naukri.com/job-listings-ccna-network-support-chennai-max-8-lpa-5-days-work-apply-now-outpace-consulting-services-chennai-3-to-6-years-151025014128</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F57" t="str">
+        <v>No</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I57" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M57" t="str">
+        <v>CCNA : Network Support : Chennai : Max 8 LPA : 5 Days Work : Apply Now</v>
+      </c>
+      <c r="N57" t="str">
+        <v>Leading ITES Company</v>
+      </c>
+      <c r="O57" t="str">
+        <v>3 - 6 years</v>
+      </c>
+      <c r="P57" t="str">
+        <v>4-8 Lacs P.A.</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="R57" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S57" t="str">
+        <v>24</v>
+      </c>
+      <c r="T57" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U57" t="str">
+        <v>DNS, CCNA, Movate, DHCP, OSPF, VMware, ETAS, Windows Server, TCS, Bgp Routing Protocol, Network Support, Troubleshooting, Cisco Routers, iOPEX, Infosys, Cloud Computing, OSI Model, AWS, tech mahindra, Microland, Network Engineering, Accenture, Routing, Bgp, Firewall, HCL, CCNP, CSS Corp</v>
+      </c>
+      <c r="V57" t="str">
+        <v>IT Network - Other</v>
+      </c>
+      <c r="W57" t="str">
+        <v>BPM / BPO</v>
+      </c>
+      <c r="X57" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y57" t="str">
+        <v>IT Network</v>
+      </c>
+      <c r="AA57" t="str">
+        <v>Minimum 3 years in Network Support with CCNA certification and Bachelor's degree | Provide first-level support for network outages, manage network systems, and ensure security policies</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2026-01-12T03:48:48.304Z</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <v>20/20</v>
+      </c>
+      <c r="D58" t="str">
+        <v>https://www.naukri.com/job-listings-ios-developer-ii-oyo-gurugram-3-to-8-years-110126007830</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I58" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M58" t="str">
+        <v>iOS Developer II</v>
+      </c>
+      <c r="N58" t="str">
+        <v>OYO</v>
+      </c>
+      <c r="O58" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P58" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>Gurugram</v>
+      </c>
+      <c r="R58" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S58" t="str">
+        <v>2</v>
+      </c>
+      <c r="T58" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U58" t="str">
+        <v>UIKit / SwiftUI, CI/CD &amp; App Store Deployment, Ios Development, Performance Optimization &amp; Debugging, RESTful APIs Integration, Ios App, MVVM / MVC Architecture, Git / Version Control</v>
+      </c>
+      <c r="V58" t="str">
+        <v>Mobile / App Developer</v>
+      </c>
+      <c r="W58" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X58" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y58" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z58" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="AA58" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 3+ years of iOS development experience; strong proficiency in Swift and UIKit | Design, develop, and maintain iOS applications; collaborate with teams to define and ship features; ensure application performance and quality</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2026-01-12T03:49:25.232Z</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1/20</v>
+      </c>
+      <c r="D59" t="str">
+        <v>https://www.naukri.com/job-listings-java-full-stack-developers-infosoft-systems-pune-3-to-8-years-110126006457</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I59" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M59" t="str">
+        <v>Java Full Stack Developers</v>
+      </c>
+      <c r="N59" t="str">
+        <v>Infosoft Systems</v>
+      </c>
+      <c r="O59" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P59" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R59" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S59" t="str">
+        <v>5</v>
+      </c>
+      <c r="T59" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U59" t="str">
+        <v>Java, Spring Boot, Java Fullstack, Microservices, Flutter, Mobile Development, Web Application Development, Angular, Mobile Application Development, SQL, Android Application Development, Rest, MySQL, Javascript, Web Application, React.Js, Android Studio, Web Development, Dart</v>
+      </c>
+      <c r="V59" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W59" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X59" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y59" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA59" t="str">
+        <v>5-6 years experience as a Java Full Stack Developer; proficiency in Java, Spring Boot, Hibernate, and front-end technologies like Angular or React | Design and maintain web and mobile applications; develop RESTful APIs; perform unit testing and debugging</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2026-01-12T03:49:54.085Z</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2/20</v>
+      </c>
+      <c r="D60" t="str">
+        <v>https://www.naukri.com/job-listings-java-developer-infosys-infosys-hyderabad-pune-bengaluru-3-to-8-years-300525031601</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I60" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K60" t="str">
+        <v>No Apply Button</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Java Developer** Infosys</v>
+      </c>
+      <c r="N60" t="str">
+        <v>Infosys</v>
+      </c>
+      <c r="O60" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P60" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R60" t="str">
+        <v>Just now</v>
+      </c>
+      <c r="S60" t="str">
+        <v>900</v>
+      </c>
+      <c r="T60" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U60" t="str">
+        <v>Java, Spring Boot, Hibernate, Spring Mvc, J2Ee, Microservices</v>
+      </c>
+      <c r="V60" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W60" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X60" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2026-01-12T03:49:57.385Z</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="str">
+        <v>3/20</v>
+      </c>
+      <c r="D61" t="str">
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-java-great-west-global-business-services-bengaluru-3-to-8-years-110126005561</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I61" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M61" t="str">
+        <v>Senior Software Engineer - Java</v>
+      </c>
+      <c r="N61" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O61" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P61" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R61" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S61" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U61" t="str">
+        <v>continuous integration, kubernetes, analytical, concurrent, ci/cd, sql, plsql, database development, docker, spring, java, postgresql, multithreading, mysql, boot, communication skills, cd, rest, oracle, version control, maven, orm, spring boot framework, relational databases, gradle, scrum, agile, aws</v>
+      </c>
+      <c r="V61" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W61" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X61" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y61" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z61" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA61" t="str">
+        <v>5+ years of back-end engineering experience in Java, Spring, and database development | Design, develop, and troubleshoot software features in an Agile/Scrum environment; lead coding efforts and participate in architectural discussions</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2026-01-12T03:50:25.969Z</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="str">
+        <v>4/20</v>
+      </c>
+      <c r="D62" t="str">
+        <v>https://www.naukri.com/job-listings-software-developer-react-native-chola-ms-chennai-3-to-7-years-110126005675</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I62" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M62" t="str">
+        <v>Software Developer - React Native</v>
+      </c>
+      <c r="N62" t="str">
+        <v>Chola MS</v>
+      </c>
+      <c r="O62" t="str">
+        <v>3 - 7 years</v>
+      </c>
+      <c r="P62" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="R62" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S62" t="str">
+        <v>1</v>
+      </c>
+      <c r="T62" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U62" t="str">
+        <v>React Native, Native, React Native Js</v>
+      </c>
+      <c r="V62" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W62" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X62" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y62" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z62" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA62" t="str">
+        <v>Bachelor's degree in Computer Science; 4-6 years of experience in React Native development; strong problem-solving skills | Design, develop, and maintain mobile and web applications; troubleshoot technical issues; collaborate with team members</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2026-01-12T03:50:55.840Z</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="str">
+        <v>5/20</v>
+      </c>
+      <c r="D63" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-1-to-5-years-191225024168</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I63" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M63" t="str">
+        <v>Software Engineer 1</v>
+      </c>
+      <c r="N63" t="str">
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
+      </c>
+      <c r="O63" t="str">
+        <v>1 - 5 years</v>
+      </c>
+      <c r="P63" t="str">
+        <v>10-15 Lacs P.A.</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R63" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S63" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U63" t="str">
+        <v>c#, css, python, software development, version control, interpersonal skills, microsoft azure, cloud platforms, javascript, cloud, software development life cycle, coding, java, git, gcp, scrum, debugging, html, software engineering, web development, agile, aws, programming, communication skills</v>
+      </c>
+      <c r="V63" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W63" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X63" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y63" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z63" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA63" t="str">
+        <v>Bachelor's degree in Computer Science or related field; familiarity with Java, Python, JavaScript, or C#; strong problem-solving skills | Develop, test, and maintain software applications; collaborate with cross-functional teams; troubleshoot and resolve software defects | Competitive salary and benefits package</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2026-01-12T03:51:24.426Z</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="str">
+        <v>6/20</v>
+      </c>
+      <c r="D64" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-2-to-5-years-191225022966</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I64" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M64" t="str">
+        <v>Software Engineer 1</v>
+      </c>
+      <c r="N64" t="str">
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
+      </c>
+      <c r="O64" t="str">
+        <v>2 - 5 years</v>
+      </c>
+      <c r="P64" t="str">
+        <v>10-15 Lacs P.A.</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R64" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S64" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U64" t="str">
+        <v>python, c++, software development, software testing, golang, kotlin, javascript, software development life cycle, coding, java, git, web technologies, scrum, software development methodologies, debugging, mysql, software engineering, agile, programming, communication skills, architecture</v>
+      </c>
+      <c r="V64" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W64" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X64" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z64" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA64" t="str">
+        <v>Bachelor’s degree in Computer Science or related field; familiarity with programming languages like Java, Python, C++, or JavaScript | Participate in design, development, testing, and maintenance of software applications; collaborate with teams to deliver effective solutions; write clean and efficient code</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2026-01-12T03:51:53.011Z</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="str">
+        <v>7/20</v>
+      </c>
+      <c r="D65" t="str">
+        <v>https://www.naukri.com/job-listings-junior-software-engineer-swiggy-bengaluru-2-to-3-years-120126500004</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H65" t="str">
+        <v>No</v>
+      </c>
+      <c r="I65" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K65" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M65" t="str">
+        <v>Junior Software Engineer</v>
+      </c>
+      <c r="N65" t="str">
+        <v>Swiggy</v>
+      </c>
+      <c r="O65" t="str">
+        <v>2 - 3 years</v>
+      </c>
+      <c r="P65" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R65" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S65" t="str">
+        <v>1</v>
+      </c>
+      <c r="T65" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U65" t="str">
+        <v>css, c++, golang, bootstrap, hibernate, ajax, jquery, sql, spring, java, spring mvc, product quality, software solutions, j2ee, json, software engineering, html, mysql, rest, python, c, javascript, sql server, spring boot, angular, node.js, angularjs</v>
+      </c>
+      <c r="V65" t="str">
+        <v>Head - Engineering</v>
+      </c>
+      <c r="W65" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X65" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y65" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z65" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="AA65" t="str">
+        <v>Conduct code reviews to uphold code quality standards . Identify bugs and implement effective solutions using React Native . Write unit and integration tests using React Native Testing Library to ensure app reliability . Optimize applications for maximum speed and scalability . Work closely with cross-team developers to identify technical specifications .</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2026-01-12T03:51:56.295Z</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="str">
+        <v>8/20</v>
+      </c>
+      <c r="D66" t="str">
+        <v>https://www.naukri.com/job-listings-support-engineer-intermediate-equifax-pune-3-to-8-years-110126008349</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I66" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M66" t="str">
+        <v>Support Engineer - Intermediate</v>
+      </c>
+      <c r="N66" t="str">
+        <v>Equifax</v>
+      </c>
+      <c r="O66" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P66" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R66" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S66" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U66" t="str">
+        <v>continuous integration, public cloud, cd, kubernetes, python, ci/cd, microsoft azure, networking, software administration, database administration, docker, ansible, continuous delivery, system administration, java, jenkins, software engineering, terraform, bash, aws, communication skills</v>
+      </c>
+      <c r="V66" t="str">
+        <v>System Administrator / Engineer</v>
+      </c>
+      <c r="W66" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X66" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y66" t="str">
+        <v>IT Network</v>
+      </c>
+      <c r="Z66" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA66" t="str">
+        <v>B.Tech/BE in Computer Science or related field with 5-7 years of experience in software engineering and public cloud administration | Manage system uptime, build infrastructure as code, and develop CI/CD pipelines | Comprehensive compensation and healthcare packages, attractive paid time off, and career growth opportunities</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2026-01-12T03:52:27.225Z</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="str">
+        <v>9/20</v>
+      </c>
+      <c r="D67" t="str">
+        <v>https://www.naukri.com/job-listings-full-stack-engineer-full-time-exaflair-technologies-mohali-chandigarh-zirakpur-1-to-3-years-110126007520</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G67" t="str">
+        <v>No</v>
+      </c>
+      <c r="H67" t="str">
+        <v>No</v>
+      </c>
+      <c r="I67" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M67" t="str">
+        <v>Full Stack Engineer(full-time)</v>
+      </c>
+      <c r="N67" t="str">
+        <v>Exaflair Technologies</v>
+      </c>
+      <c r="O67" t="str">
+        <v>1 - 3 years</v>
+      </c>
+      <c r="P67" t="str">
+        <v>4-6 Lacs P.A.</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>Mohali</v>
+      </c>
+      <c r="R67" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S67" t="str">
+        <v>1</v>
+      </c>
+      <c r="T67" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U67" t="str">
+        <v>Typescript, SQL/NoSQL/PostgreSQL, Node.Js, React.Js, Nextjs, Express, Javascript, Github Actions, Tailwind Css, Vite</v>
+      </c>
+      <c r="V67" t="str">
+        <v>Application Engineer</v>
+      </c>
+      <c r="W67" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X67" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="AA67" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 1-3 years of full-stack development experience; strong skills in TypeScript/JavaScript, Next.js, and React | Develop and maintain full-stack features; build responsive frontend interfaces; implement backend logic and APIs | Competitive compensation based on experience and impact</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2026-01-12T03:52:30.540Z</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="str">
+        <v>10/20</v>
+      </c>
+      <c r="D68" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-kayhan-space-bengaluru-2-to-5-years-110126005505</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I68" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M68" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="N68" t="str">
+        <v>Kayhan Space</v>
+      </c>
+      <c r="O68" t="str">
+        <v>2 - 5 years</v>
+      </c>
+      <c r="P68" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R68" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S68" t="str">
+        <v>8</v>
+      </c>
+      <c r="T68" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U68" t="str">
+        <v>C, or high-volume timeseries data processing, astrodynamics, React.Js, Frontend Web Development, C++, Rust, Postgresql, MCP applications, Typescript, agentic workflows, containerized software deployment and Kubernetes, physics, LLM integrations, statistical analysis, Nextjs, AWS</v>
+      </c>
+      <c r="V68" t="str">
+        <v>Software Development - Other</v>
+      </c>
+      <c r="W68" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X68" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y68" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA68" t="str">
+        <v>Bachelor's degree in Computer Science, 2+ years in software development, strong Python and PostgreSQL skills | Design and maintain features for Satcat.com, build internal automation and dashboards, advocate for user experience excellence</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2026-01-12T03:52:59.319Z</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="str">
+        <v>11/20</v>
+      </c>
+      <c r="D69" t="str">
+        <v>https://www.naukri.com/job-listings-sr-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126004675</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I69" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M69" t="str">
+        <v>Sr Engineer Automation</v>
+      </c>
+      <c r="N69" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O69" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P69" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R69" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S69" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U69" t="str">
+        <v>kubernetes, interpersonal skills, ssh, ssl, apache tomcat, docker, ansible, java, automation tools, apache, jboss, aws cloud, linux, jenkins, j2ee, debugging, shell scripting, perl, solaris, programming, communication skills, python, c, ftp, ant, weblogic, puppet, teamwork, troubleshooting, gitlab, aws, unix</v>
+      </c>
+      <c r="V69" t="str">
+        <v>Site Reliability Engineer</v>
+      </c>
+      <c r="W69" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X69" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y69" t="str">
+        <v>DevOps</v>
+      </c>
+      <c r="Z69" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA69" t="str">
+        <v>B.S. in Computer Information Systems or Engineering; 4-6 years programming experience; 2+ years AWS cloud &amp; automation tools experience | Convince organization on architecture best practices; Create automated build infrastructure; Drive debugging and troubleshooting operations</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2026-01-12T03:53:27.891Z</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="str">
+        <v>12/20</v>
+      </c>
+      <c r="D70" t="str">
+        <v>https://www.naukri.com/job-listings-senior-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126005070</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I70" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M70" t="str">
+        <v>Senior Engineer Automation</v>
+      </c>
+      <c r="N70" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O70" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P70" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R70" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S70" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U70" t="str">
+        <v>automation framework, rest, kubernetes, automation testing, cucumber, rbac, distribution system, software quality, selenium webdriver, microsoft, microservices, salesforce, environment, java, automation, selenium, json, microsoft graph, webdriver, typescript, api, gherkin, crm</v>
+      </c>
+      <c r="V70" t="str">
+        <v>Automation Test Engineer</v>
+      </c>
+      <c r="W70" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X70" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y70" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z70" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA70" t="str">
+        <v>5-8+ years in software quality and test automation; strong proficiency in Java and TypeScript; experience with Gherkin/Cucumber and Selenium WebDriver | Drive quality execution across microservices; build and extend automation frameworks; perform manual and exploratory testing</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2026-01-12T03:53:56.473Z</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="str">
+        <v>13/20</v>
+      </c>
+      <c r="D71" t="str">
+        <v>https://www.naukri.com/job-listings-engineer-automation-quality-great-west-global-business-services-bengaluru-3-to-8-years-110126005018</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F71" t="str">
+        <v>No</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I71" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M71" t="str">
+        <v>Engineer Automation Quality</v>
+      </c>
+      <c r="N71" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O71" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P71" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R71" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S71" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U71" t="str">
+        <v>analytical, cucumber, training, sql, java, automation, git, selenium, karate, ui, design, jenkins, debugging, api, requirement analysis, bdd framework, communication skills, jira, junit, bdd, software testing, automation testing, version control, documentation, database testing, estimation, testng</v>
+      </c>
+      <c r="V71" t="str">
+        <v>Automation Test Engineer</v>
+      </c>
+      <c r="W71" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X71" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z71" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA71" t="str">
+        <v>2-4 years testing experience with 1-2 years in automation; proficiency in Java and automation tools like Selenium | Design, develop, and maintain automated test scripts; collaborate with teams to ensure quality assurance</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2026-01-12T03:53:59.756Z</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="str">
+        <v>14/20</v>
+      </c>
+      <c r="D72" t="str">
+        <v>https://www.naukri.com/job-listings-senior-net-developer-gas-power-renewables-trafigura-mumbai-0-to-3-years-110126001568</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H72" t="str">
+        <v>No</v>
+      </c>
+      <c r="I72" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M72" t="str">
+        <v>Senior .NET Developer - Gas, Power &amp; Renewables</v>
+      </c>
+      <c r="N72" t="str">
+        <v>Trafigura</v>
+      </c>
+      <c r="O72" t="str">
+        <v>0 - 3 years</v>
+      </c>
+      <c r="P72" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="R72" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S72" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U72" t="str">
+        <v>web services, analytical, etrm, platform development, storage, solid principles, design patterns, asp.net, scheduling, api, physical, commodity trading, c#, cd, process, software development, trade life cycle, sql server, javascript, transportation, angular, system, .net core, .net, aws, object</v>
+      </c>
+      <c r="V72" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W72" t="str">
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="X72" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y72" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z72" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="AA72" t="str">
+        <v>7+ years in software development with ETRM platform expertise, strong .NET skills, and experience in API integration | Design, develop, and maintain .NET applications for ETRM platforms; build integrations and collaborate with cross-functional teams</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2026-01-12T03:54:03.021Z</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="str">
+        <v>15/20</v>
+      </c>
+      <c r="D73" t="str">
+        <v>https://www.naukri.com/job-listings-full-stack-developer-pune-candidates-only-clover-infotech-pune-3-to-5-years-110126000492</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I73" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Full Stack Developer- Pune candidates only</v>
+      </c>
+      <c r="N73" t="str">
+        <v>Clover Infotech</v>
+      </c>
+      <c r="O73" t="str">
+        <v>3 - 5 years</v>
+      </c>
+      <c r="P73" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R73" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S73" t="str">
+        <v>2</v>
+      </c>
+      <c r="T73" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U73" t="str">
+        <v>Vue.Js, Full Stack, Spring Boot, React.Js, Microservices</v>
+      </c>
+      <c r="V73" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W73" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X73" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y73" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z73" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA73" t="str">
+        <v>3 to 5 years of experience as a Full Stack Developer with skills in Vue.js or React.js, Spring Boot, and Microservices | Develop and maintain front-end and back-end applications, ensuring good database concepts | Max CTC of 7 LPA to 8 LPA based on technical feedback</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2026-01-12T03:54:31.747Z</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="str">
+        <v>16/20</v>
+      </c>
+      <c r="D74" t="str">
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-nalgonda-3-to-8-years-120126500027</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F74" t="str">
+        <v>No</v>
+      </c>
+      <c r="G74" t="str">
+        <v>No</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I74" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K74" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M74" t="str">
+        <v>SDE2</v>
+      </c>
+      <c r="N74" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="O74" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P74" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>Nalgonda</v>
+      </c>
+      <c r="R74" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S74" t="str">
+        <v>1</v>
+      </c>
+      <c r="T74" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U74" t="str">
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
+      </c>
+      <c r="V74" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W74" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X74" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z74" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="AA74" t="str">
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2026-01-12T03:54:35.013Z</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="str">
+        <v>17/20</v>
+      </c>
+      <c r="D75" t="str">
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-kolar-3-to-8-years-120126500025</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F75" t="str">
+        <v>No</v>
+      </c>
+      <c r="G75" t="str">
+        <v>No</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I75" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K75" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M75" t="str">
+        <v>SDE2</v>
+      </c>
+      <c r="N75" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="O75" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P75" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>Kolar</v>
+      </c>
+      <c r="R75" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S75" t="str">
+        <v>1</v>
+      </c>
+      <c r="T75" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U75" t="str">
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
+      </c>
+      <c r="V75" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W75" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X75" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y75" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z75" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="AA75" t="str">
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2026-01-12T03:54:38.288Z</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="str">
+        <v>18/20</v>
+      </c>
+      <c r="D76" t="str">
+        <v>https://www.naukri.com/job-listings-data-engineer-career-equifax-pune-3-to-8-years-120126001029</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I76" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Data Engineer - Career</v>
+      </c>
+      <c r="N76" t="str">
+        <v>Equifax</v>
+      </c>
+      <c r="O76" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P76" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R76" t="str">
+        <v>Just now</v>
+      </c>
+      <c r="S76" t="str">
+        <v>30</v>
+      </c>
+      <c r="U76" t="str">
+        <v>continuous integration, cd, python, cloud security, data management, analytical, ci/cd, data pipeline, data engineering, artificial intelligence, sql, analytics, cloud, data quality, scripting, git, gcp, data integration tools, data visualization, cloud computing, programming, reporting, ml</v>
+      </c>
+      <c r="V76" t="str">
+        <v>Data Engineer</v>
+      </c>
+      <c r="W76" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X76" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y76" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z76" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA76" t="str">
+        <v>BS degree in STEM or equivalent; 5+ years as a data engineer; advanced Python or SQL skills | Develop data quality models, build data pipelines, and mentor junior engineers | Comprehensive compensation and healthcare packages, attractive paid time off</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2026-01-12T03:55:08.234Z</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="str">
+        <v>19/20</v>
+      </c>
+      <c r="D77" t="str">
+        <v>https://www.naukri.com/job-listings-ios-developer-ii-oyo-gurugram-3-to-8-years-110126007830</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I77" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J77" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K77" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M77" t="str">
+        <v>iOS Developer II</v>
+      </c>
+      <c r="N77" t="str">
+        <v>OYO</v>
+      </c>
+      <c r="O77" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P77" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>Gurugram</v>
+      </c>
+      <c r="R77" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S77" t="str">
+        <v>2</v>
+      </c>
+      <c r="T77" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U77" t="str">
+        <v>UIKit / SwiftUI, CI/CD &amp; App Store Deployment, Ios Development, Performance Optimization &amp; Debugging, RESTful APIs Integration, Ios App, MVVM / MVC Architecture, Git / Version Control</v>
+      </c>
+      <c r="V77" t="str">
+        <v>Mobile / App Developer</v>
+      </c>
+      <c r="W77" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X77" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y77" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z77" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="AA77" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 3+ years of iOS development experience; strong proficiency in Swift and UIKit | Design, develop, and maintain iOS applications; collaborate with teams to define and ship features; ensure application performance and quality</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2026-01-12T03:55:37.029Z</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="str">
+        <v>20/20</v>
+      </c>
+      <c r="D78" t="str">
+        <v>https://www.naukri.com/job-listings-ccna-network-support-chennai-max-8-lpa-5-days-work-apply-now-outpace-consulting-services-chennai-3-to-6-years-151025014128</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F78" t="str">
+        <v>No</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I78" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J78" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K78" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L78" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M78" t="str">
+        <v>CCNA : Network Support : Chennai : Max 8 LPA : 5 Days Work : Apply Now</v>
+      </c>
+      <c r="N78" t="str">
+        <v>Leading ITES Company</v>
+      </c>
+      <c r="O78" t="str">
+        <v>3 - 6 years</v>
+      </c>
+      <c r="P78" t="str">
+        <v>4-8 Lacs P.A.</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="R78" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S78" t="str">
+        <v>24</v>
+      </c>
+      <c r="T78" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U78" t="str">
+        <v>DNS, CCNA, Movate, DHCP, OSPF, VMware, ETAS, Windows Server, TCS, Bgp Routing Protocol, Network Support, Troubleshooting, Cisco Routers, iOPEX, Infosys, Cloud Computing, OSI Model, AWS, tech mahindra, Microland, Network Engineering, Accenture, Routing, Bgp, Firewall, HCL, CCNP, CSS Corp</v>
+      </c>
+      <c r="V78" t="str">
+        <v>IT Network - Other</v>
+      </c>
+      <c r="W78" t="str">
+        <v>BPM / BPO</v>
+      </c>
+      <c r="X78" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y78" t="str">
+        <v>IT Network</v>
+      </c>
+      <c r="AA78" t="str">
+        <v>Minimum 3 years in Network Support with CCNA certification and Bachelor's degree | Provide first-level support for network outages, manage network systems, and ensure security policies</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2026-01-12T03:55:48.335Z</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1/20</v>
+      </c>
+      <c r="D79" t="str">
+        <v>https://www.naukri.com/job-listings-java-full-stack-developers-infosoft-systems-pune-3-to-8-years-110126006457</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I79" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K79" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M79" t="str">
+        <v>Java Full Stack Developers</v>
+      </c>
+      <c r="N79" t="str">
+        <v>Infosoft Systems</v>
+      </c>
+      <c r="O79" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P79" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R79" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S79" t="str">
+        <v>5</v>
+      </c>
+      <c r="T79" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U79" t="str">
+        <v>Java, Spring Boot, Java Fullstack, Microservices, Flutter, Mobile Development, Web Application Development, Angular, Mobile Application Development, SQL, Android Application Development, Rest, MySQL, Javascript, Web Application, React.Js, Android Studio, Web Development, Dart</v>
+      </c>
+      <c r="V79" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W79" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X79" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y79" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA79" t="str">
+        <v>5-6 years experience as a Java Full Stack Developer; proficiency in Java, Spring Boot, Hibernate, and front-end technologies like Angular or React | Design and maintain web and mobile applications; develop RESTful APIs; perform unit testing and debugging</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2026-01-12T03:56:17.111Z</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2/20</v>
+      </c>
+      <c r="D80" t="str">
+        <v>https://www.naukri.com/job-listings-java-developer-infosys-infosys-hyderabad-pune-bengaluru-3-to-8-years-300525031601</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I80" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K80" t="str">
+        <v>No Apply Button</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M80" t="str">
+        <v>Java Developer** Infosys</v>
+      </c>
+      <c r="N80" t="str">
+        <v>Infosys</v>
+      </c>
+      <c r="O80" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P80" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R80" t="str">
+        <v>Just now</v>
+      </c>
+      <c r="S80" t="str">
+        <v>900</v>
+      </c>
+      <c r="T80" t="str">
+        <v>30</v>
+      </c>
+      <c r="U80" t="str">
+        <v>Java, Spring Boot, Hibernate, Spring Mvc, J2Ee, Microservices</v>
+      </c>
+      <c r="V80" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W80" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X80" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y80" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z80" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2026-01-12T03:56:20.434Z</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="str">
+        <v>3/20</v>
+      </c>
+      <c r="D81" t="str">
+        <v>https://www.naukri.com/job-listings-senior-software-engineer-java-great-west-global-business-services-bengaluru-3-to-8-years-110126005561</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I81" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L81" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M81" t="str">
+        <v>Senior Software Engineer - Java</v>
+      </c>
+      <c r="N81" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O81" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P81" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R81" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S81" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U81" t="str">
+        <v>continuous integration, kubernetes, analytical, concurrent, ci/cd, sql, plsql, database development, docker, spring, java, postgresql, multithreading, mysql, boot, communication skills, cd, rest, oracle, version control, maven, orm, spring boot framework, relational databases, gradle, scrum, agile, aws</v>
+      </c>
+      <c r="V81" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W81" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X81" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y81" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z81" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA81" t="str">
+        <v>5+ years of back-end engineering experience in Java, Spring, and database development | Design, develop, and troubleshoot software features in an Agile/Scrum environment; lead coding efforts and participate in architectural discussions</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2026-01-12T03:56:49.048Z</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" t="str">
+        <v>4/20</v>
+      </c>
+      <c r="D82" t="str">
+        <v>https://www.naukri.com/job-listings-software-developer-react-native-chola-ms-chennai-3-to-7-years-110126005675</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H82" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I82" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L82" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M82" t="str">
+        <v>Software Developer - React Native</v>
+      </c>
+      <c r="N82" t="str">
+        <v>Chola MS</v>
+      </c>
+      <c r="O82" t="str">
+        <v>3 - 7 years</v>
+      </c>
+      <c r="P82" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="R82" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S82" t="str">
+        <v>1</v>
+      </c>
+      <c r="T82" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U82" t="str">
+        <v>React Native, Native, React Native Js</v>
+      </c>
+      <c r="V82" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W82" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X82" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y82" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z82" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA82" t="str">
+        <v>Bachelor's degree in Computer Science; 4-6 years of experience in React Native development; strong problem-solving skills | Design, develop, and maintain mobile and web applications; troubleshoot technical issues; collaborate with team members</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2026-01-12T03:57:19.008Z</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="str">
+        <v>5/20</v>
+      </c>
+      <c r="D83" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-1-to-5-years-191225024168</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I83" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J83" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L83" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M83" t="str">
+        <v>Software Engineer 1</v>
+      </c>
+      <c r="N83" t="str">
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
+      </c>
+      <c r="O83" t="str">
+        <v>1 - 5 years</v>
+      </c>
+      <c r="P83" t="str">
+        <v>10-15 Lacs P.A.</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R83" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S83" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U83" t="str">
+        <v>c#, css, python, software development, version control, interpersonal skills, microsoft azure, cloud platforms, javascript, cloud, software development life cycle, coding, java, git, gcp, scrum, debugging, html, software engineering, web development, agile, aws, programming, communication skills</v>
+      </c>
+      <c r="V83" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W83" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X83" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z83" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA83" t="str">
+        <v>Bachelor's degree in Computer Science or related field; familiarity with Java, Python, JavaScript, or C#; strong problem-solving skills | Develop, test, and maintain software applications; collaborate with cross-functional teams; troubleshoot and resolve software defects | Competitive salary and benefits package</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2026-01-12T03:57:47.638Z</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" t="str">
+        <v>6/20</v>
+      </c>
+      <c r="D84" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-1-rakutenindiaenterprisepvtltd-bengaluru-2-to-5-years-191225022966</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I84" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M84" t="str">
+        <v>Software Engineer 1</v>
+      </c>
+      <c r="N84" t="str">
+        <v>RAKUTENINDIAENTERPRISEPVTLTD</v>
+      </c>
+      <c r="O84" t="str">
+        <v>2 - 5 years</v>
+      </c>
+      <c r="P84" t="str">
+        <v>10-15 Lacs P.A.</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R84" t="str">
+        <v>Few hours ago</v>
+      </c>
+      <c r="S84" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U84" t="str">
+        <v>python, c++, software development, software testing, golang, kotlin, javascript, software development life cycle, coding, java, git, web technologies, scrum, software development methodologies, debugging, mysql, software engineering, agile, programming, communication skills, architecture</v>
+      </c>
+      <c r="V84" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W84" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X84" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y84" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z84" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="AA84" t="str">
+        <v>Bachelor’s degree in Computer Science or related field; familiarity with programming languages like Java, Python, C++, or JavaScript | Participate in design, development, testing, and maintenance of software applications; collaborate with teams to deliver effective solutions; write clean and efficient code</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2026-01-12T03:58:16.480Z</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="str">
+        <v>7/20</v>
+      </c>
+      <c r="D85" t="str">
+        <v>https://www.naukri.com/job-listings-junior-software-engineer-swiggy-bengaluru-2-to-3-years-120126500004</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H85" t="str">
+        <v>No</v>
+      </c>
+      <c r="I85" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K85" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L85" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M85" t="str">
+        <v>Junior Software Engineer</v>
+      </c>
+      <c r="N85" t="str">
+        <v>Swiggy</v>
+      </c>
+      <c r="O85" t="str">
+        <v>2 - 3 years</v>
+      </c>
+      <c r="P85" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R85" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S85" t="str">
+        <v>1</v>
+      </c>
+      <c r="T85" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U85" t="str">
+        <v>css, c++, golang, bootstrap, hibernate, ajax, jquery, sql, spring, java, spring mvc, product quality, software solutions, j2ee, json, software engineering, html, mysql, rest, python, c, javascript, sql server, spring boot, angular, node.js, angularjs</v>
+      </c>
+      <c r="V85" t="str">
+        <v>Head - Engineering</v>
+      </c>
+      <c r="W85" t="str">
+        <v>Software Product</v>
+      </c>
+      <c r="X85" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y85" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z85" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="AA85" t="str">
+        <v>Conduct code reviews to uphold code quality standards . Identify bugs and implement effective solutions using React Native . Write unit and integration tests using React Native Testing Library to ensure app reliability . Optimize applications for maximum speed and scalability . Work closely with cross-team developers to identify technical specifications .</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>2026-01-12T03:58:19.762Z</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="str">
+        <v>8/20</v>
+      </c>
+      <c r="D86" t="str">
+        <v>https://www.naukri.com/job-listings-support-engineer-intermediate-equifax-pune-3-to-8-years-110126008349</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I86" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J86" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L86" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M86" t="str">
+        <v>Support Engineer - Intermediate</v>
+      </c>
+      <c r="N86" t="str">
+        <v>Equifax</v>
+      </c>
+      <c r="O86" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P86" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R86" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S86" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U86" t="str">
+        <v>continuous integration, public cloud, cd, kubernetes, python, ci/cd, microsoft azure, networking, software administration, database administration, docker, ansible, continuous delivery, system administration, java, jenkins, software engineering, terraform, bash, aws, communication skills</v>
+      </c>
+      <c r="V86" t="str">
+        <v>System Administrator / Engineer</v>
+      </c>
+      <c r="W86" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X86" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y86" t="str">
+        <v>IT Network</v>
+      </c>
+      <c r="Z86" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA86" t="str">
+        <v>B.Tech/BE in Computer Science or related field with 5-7 years of experience in software engineering and public cloud administration | Manage system uptime, build infrastructure as code, and develop CI/CD pipelines | Comprehensive compensation and healthcare packages, attractive paid time off, and career growth opportunities</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>2026-01-12T03:58:49.709Z</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="str">
+        <v>9/20</v>
+      </c>
+      <c r="D87" t="str">
+        <v>https://www.naukri.com/job-listings-full-stack-engineer-full-time-exaflair-technologies-mohali-chandigarh-zirakpur-1-to-3-years-110126007520</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G87" t="str">
+        <v>No</v>
+      </c>
+      <c r="H87" t="str">
+        <v>No</v>
+      </c>
+      <c r="I87" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L87" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Full Stack Engineer(full-time)</v>
+      </c>
+      <c r="N87" t="str">
+        <v>Exaflair Technologies</v>
+      </c>
+      <c r="O87" t="str">
+        <v>1 - 3 years</v>
+      </c>
+      <c r="P87" t="str">
+        <v>4-6 Lacs P.A.</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>Mohali</v>
+      </c>
+      <c r="R87" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S87" t="str">
+        <v>1</v>
+      </c>
+      <c r="T87" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U87" t="str">
+        <v>Typescript, SQL/NoSQL/PostgreSQL, Node.Js, React.Js, Nextjs, Express, Javascript, Github Actions, Tailwind Css, Vite</v>
+      </c>
+      <c r="V87" t="str">
+        <v>Application Engineer</v>
+      </c>
+      <c r="W87" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X87" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y87" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="AA87" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 1-3 years of full-stack development experience; strong skills in TypeScript/JavaScript, Next.js, and React | Develop and maintain full-stack features; build responsive frontend interfaces; implement backend logic and APIs | Competitive compensation based on experience and impact</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>2026-01-12T03:58:52.976Z</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="str">
+        <v>10/20</v>
+      </c>
+      <c r="D88" t="str">
+        <v>https://www.naukri.com/job-listings-software-engineer-kayhan-space-bengaluru-2-to-5-years-110126005505</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I88" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M88" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="N88" t="str">
+        <v>Kayhan Space</v>
+      </c>
+      <c r="O88" t="str">
+        <v>2 - 5 years</v>
+      </c>
+      <c r="P88" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R88" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S88" t="str">
+        <v>8</v>
+      </c>
+      <c r="T88" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U88" t="str">
+        <v>C, or high-volume timeseries data processing, astrodynamics, React.Js, Frontend Web Development, C++, Rust, Postgresql, MCP applications, Typescript, agentic workflows, containerized software deployment and Kubernetes, physics, LLM integrations, statistical analysis, Nextjs, AWS</v>
+      </c>
+      <c r="V88" t="str">
+        <v>Software Development - Other</v>
+      </c>
+      <c r="W88" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X88" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y88" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="AA88" t="str">
+        <v>Bachelor's degree in Computer Science, 2+ years in software development, strong Python and PostgreSQL skills | Design and maintain features for Satcat.com, build internal automation and dashboards, advocate for user experience excellence</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>2026-01-12T03:59:22.160Z</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" t="str">
+        <v>11/20</v>
+      </c>
+      <c r="D89" t="str">
+        <v>https://www.naukri.com/job-listings-sr-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126004675</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I89" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M89" t="str">
+        <v>Sr Engineer Automation</v>
+      </c>
+      <c r="N89" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O89" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P89" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R89" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S89" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U89" t="str">
+        <v>kubernetes, interpersonal skills, ssh, ssl, apache tomcat, docker, ansible, java, automation tools, apache, jboss, aws cloud, linux, jenkins, j2ee, debugging, shell scripting, perl, solaris, programming, communication skills, python, c, ftp, ant, weblogic, puppet, teamwork, troubleshooting, gitlab, aws, unix</v>
+      </c>
+      <c r="V89" t="str">
+        <v>Site Reliability Engineer</v>
+      </c>
+      <c r="W89" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X89" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y89" t="str">
+        <v>DevOps</v>
+      </c>
+      <c r="Z89" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA89" t="str">
+        <v>B.S. in Computer Information Systems or Engineering; 4-6 years programming experience; 2+ years AWS cloud &amp; automation tools experience | Convince organization on architecture best practices; Create automated build infrastructure; Drive debugging and troubleshooting operations</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>2026-01-12T03:59:50.766Z</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="str">
+        <v>12/20</v>
+      </c>
+      <c r="D90" t="str">
+        <v>https://www.naukri.com/job-listings-senior-engineer-automation-great-west-global-business-services-bengaluru-3-to-8-years-110126005070</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I90" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M90" t="str">
+        <v>Senior Engineer Automation</v>
+      </c>
+      <c r="N90" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O90" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P90" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R90" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S90" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U90" t="str">
+        <v>automation framework, rest, kubernetes, automation testing, cucumber, rbac, distribution system, software quality, selenium webdriver, microsoft, microservices, salesforce, environment, java, automation, selenium, json, microsoft graph, webdriver, typescript, api, gherkin, crm</v>
+      </c>
+      <c r="V90" t="str">
+        <v>Automation Test Engineer</v>
+      </c>
+      <c r="W90" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X90" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y90" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z90" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA90" t="str">
+        <v>5-8+ years in software quality and test automation; strong proficiency in Java and TypeScript; experience with Gherkin/Cucumber and Selenium WebDriver | Drive quality execution across microservices; build and extend automation frameworks; perform manual and exploratory testing</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>2026-01-12T04:00:19.368Z</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="str">
+        <v>13/20</v>
+      </c>
+      <c r="D91" t="str">
+        <v>https://www.naukri.com/job-listings-engineer-automation-quality-great-west-global-business-services-bengaluru-3-to-8-years-110126005018</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F91" t="str">
+        <v>No</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I91" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L91" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M91" t="str">
+        <v>Engineer Automation Quality</v>
+      </c>
+      <c r="N91" t="str">
+        <v>Empower</v>
+      </c>
+      <c r="O91" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P91" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="R91" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S91" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U91" t="str">
+        <v>analytical, cucumber, training, sql, java, automation, git, selenium, karate, ui, design, jenkins, debugging, api, requirement analysis, bdd framework, communication skills, jira, junit, bdd, software testing, automation testing, version control, documentation, database testing, estimation, testng</v>
+      </c>
+      <c r="V91" t="str">
+        <v>Automation Test Engineer</v>
+      </c>
+      <c r="W91" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="X91" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y91" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z91" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="AA91" t="str">
+        <v>2-4 years testing experience with 1-2 years in automation; proficiency in Java and automation tools like Selenium | Design, develop, and maintain automated test scripts; collaborate with teams to ensure quality assurance</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>2026-01-12T04:00:22.653Z</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="str">
+        <v>14/20</v>
+      </c>
+      <c r="D92" t="str">
+        <v>https://www.naukri.com/job-listings-senior-net-developer-gas-power-renewables-trafigura-mumbai-0-to-3-years-110126001568</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H92" t="str">
+        <v>No</v>
+      </c>
+      <c r="I92" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L92" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M92" t="str">
+        <v>Senior .NET Developer - Gas, Power &amp; Renewables</v>
+      </c>
+      <c r="N92" t="str">
+        <v>Trafigura</v>
+      </c>
+      <c r="O92" t="str">
+        <v>0 - 3 years</v>
+      </c>
+      <c r="P92" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="R92" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S92" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U92" t="str">
+        <v>web services, analytical, etrm, platform development, storage, solid principles, design patterns, asp.net, scheduling, api, physical, commodity trading, c#, cd, process, software development, trade life cycle, sql server, javascript, transportation, angular, system, .net core, .net, aws, object</v>
+      </c>
+      <c r="V92" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W92" t="str">
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="X92" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y92" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z92" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="AA92" t="str">
+        <v>7+ years in software development with ETRM platform expertise, strong .NET skills, and experience in API integration | Design, develop, and maintain .NET applications for ETRM platforms; build integrations and collaborate with cross-functional teams</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>2026-01-12T04:00:25.919Z</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="str">
+        <v>15/20</v>
+      </c>
+      <c r="D93" t="str">
+        <v>https://www.naukri.com/job-listings-full-stack-developer-pune-candidates-only-clover-infotech-pune-3-to-5-years-110126000492</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I93" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L93" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M93" t="str">
+        <v>Full Stack Developer- Pune candidates only</v>
+      </c>
+      <c r="N93" t="str">
+        <v>Clover Infotech</v>
+      </c>
+      <c r="O93" t="str">
+        <v>3 - 5 years</v>
+      </c>
+      <c r="P93" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R93" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S93" t="str">
+        <v>2</v>
+      </c>
+      <c r="T93" t="str">
+        <v>100+</v>
+      </c>
+      <c r="U93" t="str">
+        <v>Vue.Js, Full Stack, Spring Boot, React.Js, Microservices</v>
+      </c>
+      <c r="V93" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="W93" t="str">
+        <v>IT Services &amp; Consulting</v>
+      </c>
+      <c r="X93" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y93" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z93" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA93" t="str">
+        <v>3 to 5 years of experience as a Full Stack Developer with skills in Vue.js or React.js, Spring Boot, and Microservices | Develop and maintain front-end and back-end applications, ensuring good database concepts | Max CTC of 7 LPA to 8 LPA based on technical feedback</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>2026-01-12T04:00:54.678Z</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="str">
+        <v>16/20</v>
+      </c>
+      <c r="D94" t="str">
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-nalgonda-3-to-8-years-120126500027</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F94" t="str">
+        <v>No</v>
+      </c>
+      <c r="G94" t="str">
+        <v>No</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I94" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K94" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L94" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M94" t="str">
+        <v>SDE2</v>
+      </c>
+      <c r="N94" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="O94" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P94" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>Nalgonda</v>
+      </c>
+      <c r="R94" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S94" t="str">
+        <v>1</v>
+      </c>
+      <c r="T94" t="str">
+        <v>12</v>
+      </c>
+      <c r="U94" t="str">
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
+      </c>
+      <c r="V94" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W94" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X94" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y94" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z94" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="AA94" t="str">
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>2026-01-12T04:00:57.941Z</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="str">
+        <v>17/20</v>
+      </c>
+      <c r="D95" t="str">
+        <v>https://www.naukri.com/job-listings-sde2-amazon-development-centre-india-pvt-ltd-kolar-3-to-8-years-120126500025</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F95" t="str">
+        <v>No</v>
+      </c>
+      <c r="G95" t="str">
+        <v>No</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I95" t="str">
+        <v>2/undefined</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K95" t="str">
+        <v>External Apply</v>
+      </c>
+      <c r="L95" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M95" t="str">
+        <v>SDE2</v>
+      </c>
+      <c r="N95" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="O95" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P95" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>Kolar</v>
+      </c>
+      <c r="R95" t="str">
+        <v>Today</v>
+      </c>
+      <c r="S95" t="str">
+        <v>1</v>
+      </c>
+      <c r="T95" t="str">
+        <v>Less than 10</v>
+      </c>
+      <c r="U95" t="str">
+        <v>c++, software development, software testing, source control management, javascript, software programming, sql, software development life cycle, coding, high availability, routing, java, design patterns, design, code review, html, programming, architecture</v>
+      </c>
+      <c r="V95" t="str">
+        <v>Software Developer in Test (SDET)</v>
+      </c>
+      <c r="W95" t="str">
+        <v>Internet</v>
+      </c>
+      <c r="X95" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y95" t="str">
+        <v>Quality Assurance and Testing</v>
+      </c>
+      <c r="Z95" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="AA95" t="str">
+        <v>Basic Qualifications . 3+ years of non-internship professional software development experience . 2+ years of non-internship design or architecture (design patterns,reliability and scaling) of new and existing systems experience . 3+ years of Video Games Industry (supporting title Development,Release,or Live Ops) experience .</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>2026-01-12T04:01:01.250Z</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="str">
+        <v>18/20</v>
+      </c>
+      <c r="D96" t="str">
+        <v>https://www.naukri.com/job-listings-data-engineer-career-equifax-pune-3-to-8-years-120126001029</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I96" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M96" t="str">
+        <v>Data Engineer - Career</v>
+      </c>
+      <c r="N96" t="str">
+        <v>Equifax</v>
+      </c>
+      <c r="O96" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P96" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>Pune</v>
+      </c>
+      <c r="R96" t="str">
+        <v>Just now</v>
+      </c>
+      <c r="S96" t="str">
+        <v>39</v>
+      </c>
+      <c r="U96" t="str">
+        <v>continuous integration, cd, python, cloud security, data management, analytical, ci/cd, data pipeline, data engineering, artificial intelligence, sql, analytics, cloud, data quality, scripting, git, gcp, data integration tools, data visualization, cloud computing, programming, reporting, ml</v>
+      </c>
+      <c r="V96" t="str">
+        <v>Data Engineer</v>
+      </c>
+      <c r="W96" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="X96" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y96" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z96" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="AA96" t="str">
+        <v>BS degree in STEM or equivalent; 5+ years as a data engineer; advanced Python or SQL skills | Develop data quality models, build data pipelines, and mentor junior engineers | Comprehensive compensation and healthcare packages, attractive paid time off</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>2026-01-12T04:01:31.103Z</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="str">
+        <v>19/20</v>
+      </c>
+      <c r="D97" t="str">
+        <v>https://www.naukri.com/job-listings-ios-developer-ii-oyo-gurugram-3-to-8-years-110126007830</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I97" t="str">
+        <v>4/undefined</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Good Match</v>
+      </c>
+      <c r="K97" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Applied</v>
+      </c>
+      <c r="M97" t="str">
+        <v>iOS Developer II</v>
+      </c>
+      <c r="N97" t="str">
+        <v>OYO</v>
+      </c>
+      <c r="O97" t="str">
+        <v>3 - 8 years</v>
+      </c>
+      <c r="P97" t="str">
+        <v>Not Disclosed</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>Gurugram</v>
+      </c>
+      <c r="R97" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S97" t="str">
+        <v>2</v>
+      </c>
+      <c r="T97" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U97" t="str">
+        <v>UIKit / SwiftUI, CI/CD &amp; App Store Deployment, Ios Development, Performance Optimization &amp; Debugging, RESTful APIs Integration, Ios App, MVVM / MVC Architecture, Git / Version Control</v>
+      </c>
+      <c r="V97" t="str">
+        <v>Mobile / App Developer</v>
+      </c>
+      <c r="W97" t="str">
+        <v>Travel &amp; Tourism</v>
+      </c>
+      <c r="X97" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y97" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="Z97" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="AA97" t="str">
+        <v>Bachelor's degree in Computer Science or related field; 3+ years of iOS development experience; strong proficiency in Swift and UIKit | Design, develop, and maintain iOS applications; collaborate with teams to define and ship features; ensure application performance and quality</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>2026-01-12T04:01:59.925Z</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="str">
+        <v>20/20</v>
+      </c>
+      <c r="D98" t="str">
+        <v>https://www.naukri.com/job-listings-ccna-network-support-chennai-max-8-lpa-5-days-work-apply-now-outpace-consulting-services-chennai-3-to-6-years-151025014128</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F98" t="str">
+        <v>No</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I98" t="str">
+        <v>3/undefined</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Poor Match</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Direct Apply</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Skipped</v>
+      </c>
+      <c r="M98" t="str">
+        <v>CCNA : Network Support : Chennai : Max 8 LPA : 5 Days Work : Apply Now</v>
+      </c>
+      <c r="N98" t="str">
+        <v>Leading ITES Company</v>
+      </c>
+      <c r="O98" t="str">
+        <v>3 - 6 years</v>
+      </c>
+      <c r="P98" t="str">
+        <v>4-8 Lacs P.A.</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="R98" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="S98" t="str">
+        <v>24</v>
+      </c>
+      <c r="T98" t="str">
+        <v>50+</v>
+      </c>
+      <c r="U98" t="str">
+        <v>DNS, CCNA, Movate, DHCP, OSPF, VMware, ETAS, Windows Server, TCS, Bgp Routing Protocol, Network Support, Troubleshooting, Cisco Routers, iOPEX, Infosys, Cloud Computing, OSI Model, AWS, tech mahindra, Microland, Network Engineering, Accenture, Routing, Bgp, Firewall, HCL, CCNP, CSS Corp</v>
+      </c>
+      <c r="V98" t="str">
+        <v>IT Network - Other</v>
+      </c>
+      <c r="W98" t="str">
+        <v>BPM / BPO</v>
+      </c>
+      <c r="X98" t="str">
+        <v>Full Time, Permanent</v>
+      </c>
+      <c r="Y98" t="str">
+        <v>IT Network</v>
+      </c>
+      <c r="AA98" t="str">
+        <v>Minimum 3 years in Network Support with CCNA certification and Bachelor's degree | Provide first-level support for network outages, manage network systems, and ensure security policies</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA98"/>
   </ignoredErrors>
 </worksheet>
 </file>